--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="o_card" localSheetId="0">卡牌表!$A$4:$O$15</definedName>
+    <definedName name="o_card" localSheetId="0">卡牌表!$A$6:$P$15</definedName>
     <definedName name="o_card_1" localSheetId="0">卡牌表!#REF!</definedName>
     <definedName name="o_cheat_system_item" localSheetId="0">卡牌表!#REF!</definedName>
     <definedName name="o_cheat_system_item_1" localSheetId="0">卡牌表!#REF!</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="105">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,6 +372,41 @@
   </si>
   <si>
     <t>随从卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力过剩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽一张牌。（你最多可以拥有10个法力水晶。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运币</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,29 +806,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="79.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="79.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,53 +837,58 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -860,8 +901,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -869,607 +911,710 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D6" t="s">
         <v>85</v>
       </c>
-      <c r="D4">
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
         <v>87</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M6" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N6" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O6" t="s">
         <v>89</v>
       </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D7" t="s">
         <v>85</v>
       </c>
-      <c r="D5">
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
         <v>57</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M7" t="s">
         <v>56</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N7" t="s">
         <v>55</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O7" t="s">
         <v>89</v>
       </c>
-      <c r="O5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D8" t="s">
         <v>85</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
         <v>11</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M8" t="s">
         <v>10</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N8" t="s">
         <v>9</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O8" t="s">
         <v>89</v>
       </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
         <v>85</v>
       </c>
-      <c r="D7">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
         <v>90</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M9" t="s">
         <v>29</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N9" t="s">
         <v>28</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O9" t="s">
         <v>89</v>
       </c>
-      <c r="O7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="D8">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M10" t="s">
         <v>19</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N10" t="s">
         <v>18</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O10" t="s">
         <v>89</v>
       </c>
-      <c r="O8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D11" t="s">
         <v>85</v>
       </c>
-      <c r="D9">
+      <c r="E11">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
         <v>46</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M11" t="s">
         <v>45</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N11" t="s">
         <v>44</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O11" t="s">
         <v>89</v>
       </c>
-      <c r="O9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="D10">
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
         <v>36</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M12" t="s">
         <v>35</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N12" t="s">
         <v>34</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O12" t="s">
         <v>89</v>
       </c>
-      <c r="O10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D13" t="s">
         <v>85</v>
       </c>
-      <c r="D11">
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
         <v>92</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M13" t="s">
         <v>40</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N13" t="s">
         <v>39</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O13" t="s">
         <v>89</v>
       </c>
-      <c r="O11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D14" t="s">
         <v>85</v>
       </c>
-      <c r="D12">
+      <c r="E14">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
         <v>93</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M14" t="s">
         <v>61</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N14" t="s">
         <v>60</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O14" t="s">
         <v>89</v>
       </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D15" t="s">
         <v>95</v>
       </c>
-      <c r="D13">
+      <c r="E15">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="F13">
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H15" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="I13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
         <v>94</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N15" t="s">
         <v>49</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O15" t="s">
         <v>89</v>
       </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O15" t="s">
-        <v>7</v>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" t="s">
+        <v>96</v>
+      </c>
+      <c r="O17" t="s">
+        <v>7</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="108">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,17 @@
   </si>
   <si>
     <t>公用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形</t>
+  </si>
+  <si>
+    <t>英雄技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄技能[br]本回合+1攻击力。[br]+1护甲值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -960,6 +971,9 @@
       <c r="B4" t="s">
         <v>86</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
@@ -1007,6 +1021,9 @@
       <c r="B5" t="s">
         <v>86</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
@@ -1054,6 +1071,9 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" t="s">
         <v>85</v>
       </c>
@@ -1101,6 +1121,9 @@
       <c r="B7" t="s">
         <v>53</v>
       </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" t="s">
         <v>85</v>
       </c>
@@ -1148,6 +1171,9 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" t="s">
         <v>85</v>
       </c>
@@ -1195,6 +1221,9 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" t="s">
         <v>85</v>
       </c>
@@ -1241,6 +1270,9 @@
       </c>
       <c r="B10" t="s">
         <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>85</v>
@@ -1289,6 +1321,9 @@
       <c r="B11" t="s">
         <v>42</v>
       </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
@@ -1336,6 +1371,9 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" t="s">
         <v>85</v>
       </c>
@@ -1383,6 +1421,9 @@
       <c r="B13" t="s">
         <v>37</v>
       </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" t="s">
         <v>85</v>
       </c>
@@ -1430,6 +1471,9 @@
       <c r="B14" t="s">
         <v>58</v>
       </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" t="s">
         <v>85</v>
       </c>
@@ -1477,6 +1521,9 @@
       <c r="B15" t="s">
         <v>47</v>
       </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" t="s">
         <v>95</v>
       </c>
@@ -1614,6 +1661,56 @@
         <v>7</v>
       </c>
       <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="o_card" localSheetId="0">卡牌表!$A$6:$P$15</definedName>
+    <definedName name="o_card" localSheetId="0">卡牌表!$A$6:$Q$15</definedName>
     <definedName name="o_card_1" localSheetId="0">卡牌表!#REF!</definedName>
     <definedName name="o_cheat_system_item" localSheetId="0">卡牌表!#REF!</definedName>
     <definedName name="o_cheat_system_item_1" localSheetId="0">卡牌表!#REF!</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="171">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,9 +81,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>CS2_005</t>
-  </si>
-  <si>
     <t>谁去谁留，都由爪子决定。</t>
   </si>
   <si>
@@ -108,57 +105,36 @@
     <t>治疗之触</t>
   </si>
   <si>
-    <t>CS2_007</t>
-  </si>
-  <si>
     <t>见效快，疗效好，无毒副作用。</t>
   </si>
   <si>
     <t>Cyril Van Der Haegen</t>
   </si>
   <si>
-    <t>恢复#8点生命值。</t>
-  </si>
-  <si>
     <t>月火术</t>
   </si>
   <si>
-    <t>CS2_008</t>
-  </si>
-  <si>
     <t>“把月火术拖到每一个技能栏位上。”——《如何成为一名德鲁伊》，第五章，第三节</t>
   </si>
   <si>
     <t>Richard Wright</t>
   </si>
   <si>
-    <t>造成$1点伤害。</t>
-  </si>
-  <si>
     <t>野性印记</t>
   </si>
   <si>
-    <t>CS2_009</t>
-  </si>
-  <si>
     <t>这种爪子形状的印记如果纹在身上，人们一定知道你是德鲁伊玩家。</t>
   </si>
   <si>
     <t>Brad Vancata</t>
   </si>
   <si>
-    <t>使一个随从获得[b]嘲讽[/b]和+2/+2。[i]（+2攻击力/+2生命值）[/i]</t>
-  </si>
-  <si>
     <t>嘲讽</t>
   </si>
   <si>
     <t>野蛮咆哮</t>
   </si>
   <si>
-    <t>CS2_011</t>
-  </si>
-  <si>
     <t>显然这对火元素和水元素也有作用。难道这说明元素也是长耳朵的吗？</t>
   </si>
   <si>
@@ -171,24 +147,15 @@
     <t>横扫</t>
   </si>
   <si>
-    <t>CS2_012</t>
-  </si>
-  <si>
     <t>当一只熊向后仰身张开它的前臂时，他就要横扫！...或者拥抱你了。</t>
   </si>
   <si>
     <t>Sean O’Daniels</t>
   </si>
   <si>
-    <t>对一个敌人造成$4点伤害，并对所有其他敌人造成$1点伤害。</t>
-  </si>
-  <si>
     <t>野性成长</t>
   </si>
   <si>
-    <t>CS2_013</t>
-  </si>
-  <si>
     <t>使用法力水晶增长装置增加你的法力值，只要399！</t>
   </si>
   <si>
@@ -201,9 +168,6 @@
     <t>埃隆巴克保护者</t>
   </si>
   <si>
-    <t>CS2_232</t>
-  </si>
-  <si>
     <t>我打赌你一定不敢进攻达纳苏斯。</t>
   </si>
   <si>
@@ -219,9 +183,6 @@
     <t>激活</t>
   </si>
   <si>
-    <t>EX1_169</t>
-  </si>
-  <si>
     <t>有些德鲁伊做梦时都回响着陌生人的喊叫声：“给我个激活！”</t>
   </si>
   <si>
@@ -234,18 +195,12 @@
     <t>星火术</t>
   </si>
   <si>
-    <t>EX1_173</t>
-  </si>
-  <si>
     <t>平衡对德鲁伊来说很重要。这张卡牌现在就很平衡了。</t>
   </si>
   <si>
     <t>Alex Horley Orlandelli</t>
   </si>
   <si>
-    <t>造成$5点伤害。抽一张牌。</t>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +373,252 @@
   </si>
   <si>
     <t>英雄技能[br]本回合+1攻击力。[br]+1护甲值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎人印记</t>
+  </si>
+  <si>
+    <t>CS2_084</t>
+  </si>
+  <si>
+    <t>千万不要和猎人玩捉迷藏的游戏。</t>
+  </si>
+  <si>
+    <t>Jimmy Lo</t>
+  </si>
+  <si>
+    <t>使一个随从的生命值变为1。</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>饥饿的秃鹫</t>
+  </si>
+  <si>
+    <t>CS2_237</t>
+  </si>
+  <si>
+    <t>如果你喂饱了它，它就名不副实了。</t>
+  </si>
+  <si>
+    <t>Bernie Kang</t>
+  </si>
+  <si>
+    <t>每当你召唤一个野兽，抽一张牌。</t>
+  </si>
+  <si>
+    <t>野兽</t>
+  </si>
+  <si>
+    <t>驯兽师</t>
+  </si>
+  <si>
+    <t>DS1_070</t>
+  </si>
+  <si>
+    <t>“是谁把狗放出来的？”他问。其实，这只是他的口头禅。</t>
+  </si>
+  <si>
+    <t>Dan Brereton</t>
+  </si>
+  <si>
+    <t>[b]战吼：[/b]使一个友方野兽获得+2/+2并获得[b]嘲讽[/b]。</t>
+  </si>
+  <si>
+    <t>使一只野兽获得+2/+2并具有嘲讽。</t>
+  </si>
+  <si>
+    <t>战吼</t>
+  </si>
+  <si>
+    <t>森林狼</t>
+  </si>
+  <si>
+    <t>DS1_175</t>
+  </si>
+  <si>
+    <t>其他野兽最喜欢和森林狼一起外出打猎了。</t>
+  </si>
+  <si>
+    <t>Malcolm Davis</t>
+  </si>
+  <si>
+    <t>你的其他野兽获得+1攻击力。</t>
+  </si>
+  <si>
+    <t>光环</t>
+  </si>
+  <si>
+    <t>苔原犀牛</t>
+  </si>
+  <si>
+    <t>DS1_178</t>
+  </si>
+  <si>
+    <t>人们经常无法分清苔原犀牛和科多兽。这是一头苔原犀牛，对不对？</t>
+  </si>
+  <si>
+    <t>Lars Grant-West</t>
+  </si>
+  <si>
+    <t>你的野兽获得[b]冲锋[/b]。</t>
+  </si>
+  <si>
+    <t>冲锋</t>
+  </si>
+  <si>
+    <t>多重射击</t>
+  </si>
+  <si>
+    <t>DS1_183</t>
+  </si>
+  <si>
+    <t>看见没，我完全可以“一心两用”。</t>
+  </si>
+  <si>
+    <t>Benjamin Zhang</t>
+  </si>
+  <si>
+    <t>对两个随机敌方随从造成$3点伤害。</t>
+  </si>
+  <si>
+    <t>追踪术</t>
+  </si>
+  <si>
+    <t>DS1_184</t>
+  </si>
+  <si>
+    <t>为了那些不知道该把什么牌放入套牌的人准备的！</t>
+  </si>
+  <si>
+    <t>Mauro Cascioli</t>
+  </si>
+  <si>
+    <t>检视你的牌库顶的三张牌，将其中一张置入手牌，弃掉其余牌。</t>
+  </si>
+  <si>
+    <t>奥术射击</t>
+  </si>
+  <si>
+    <t>DS1_185</t>
+  </si>
+  <si>
+    <t>法师们用奥术强化箭矢，然后出售给猎人；后来猎人们自己学会了足够的魔法之后便能够自给自足。不少法师因此失业，给暴风城的经济带来不小的冲击。</t>
+  </si>
+  <si>
+    <t>Luca Zontini</t>
+  </si>
+  <si>
+    <t>造成$2点伤害。</t>
+  </si>
+  <si>
+    <t>杀戮命令</t>
+  </si>
+  <si>
+    <t>EX1_539</t>
+  </si>
+  <si>
+    <t>“咬死他！”，他下达了命令。</t>
+  </si>
+  <si>
+    <t>Gabe from Penny Arcade</t>
+  </si>
+  <si>
+    <t>造成$3点伤害。如果你控制一个野兽，则改为造成$5点伤害。</t>
+  </si>
+  <si>
+    <t>动物伙伴</t>
+  </si>
+  <si>
+    <t>NEW1_031</t>
+  </si>
+  <si>
+    <t>你可以召唤米莎，雷欧克或是霍弗！霍弗又没用，又爱惹麻烦！</t>
+  </si>
+  <si>
+    <t>Wei Wang</t>
+  </si>
+  <si>
+    <t>随机召唤一个野兽伙伴。</t>
+  </si>
+  <si>
+    <t>米莎</t>
+  </si>
+  <si>
+    <t>NEW1_032</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>雷欧克</t>
+  </si>
+  <si>
+    <t>NEW1_033</t>
+  </si>
+  <si>
+    <t>你的其他随从获得+1攻击力。</t>
+  </si>
+  <si>
+    <t>霍弗</t>
+  </si>
+  <si>
+    <t>NEW1_034</t>
+  </si>
+  <si>
+    <t>[b]冲锋[/b]</t>
+  </si>
+  <si>
+    <t>稳固射击</t>
+  </si>
+  <si>
+    <t>猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成2点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成3点伤害。如果你控制一个野兽，则改为造成5点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对两个随机敌方随从造成3点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战吼：使一个友方野兽获得+2/+2并获得嘲讽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标指向文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的野兽获得冲锋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄技能[br]对敌方英雄造成2点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -834,13 +1035,14 @@
     <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="79.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="79.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,49 +1050,52 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -898,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -913,8 +1118,9 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -925,51 +1131,54 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1013,13 +1222,16 @@
       <c r="P4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1063,19 +1275,22 @@
       <c r="P5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1087,10 +1302,10 @@
         <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
@@ -1099,33 +1314,36 @@
         <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1137,10 +1355,10 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -1149,22 +1367,25 @@
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1175,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1187,10 +1408,10 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
@@ -1199,33 +1420,36 @@
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N8" t="s">
         <v>9</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1237,10 +1461,10 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
@@ -1249,33 +1473,36 @@
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1287,10 +1514,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
@@ -1299,33 +1526,36 @@
         <v>7</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1337,10 +1567,10 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
@@ -1349,33 +1579,36 @@
         <v>7</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="N11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1387,10 +1620,10 @@
         <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
@@ -1399,33 +1632,36 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -1437,10 +1673,10 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
         <v>7</v>
@@ -1449,33 +1685,36 @@
         <v>7</v>
       </c>
       <c r="L13" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="P13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -1487,10 +1726,10 @@
         <v>7</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
         <v>7</v>
@@ -1499,33 +1738,36 @@
         <v>7</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -1537,10 +1779,10 @@
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" t="s">
         <v>7</v>
@@ -1549,48 +1791,51 @@
         <v>7</v>
       </c>
       <c r="L15" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="N15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="P15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
         <v>7</v>
@@ -1599,48 +1844,51 @@
         <v>7</v>
       </c>
       <c r="L16" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="N16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" t="b">
+        <v>81</v>
+      </c>
+      <c r="P16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" t="s">
         <v>7</v>
@@ -1649,68 +1897,816 @@
         <v>7</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="N17" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="O17" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" t="b">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>132</v>
+      </c>
+      <c r="O21" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
         <v>96</v>
       </c>
-      <c r="G18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="O22" t="s">
+        <v>95</v>
+      </c>
+      <c r="P22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" t="s">
+        <v>148</v>
+      </c>
+      <c r="M23" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" t="s">
+        <v>159</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>142</v>
+      </c>
+      <c r="O24" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" t="s">
+        <v>159</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>127</v>
+      </c>
+      <c r="O25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" t="s">
+        <v>110</v>
+      </c>
+      <c r="N26" t="s">
+        <v>108</v>
+      </c>
+      <c r="O26" t="s">
         <v>107</v>
       </c>
-      <c r="M18" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" t="s">
-        <v>100</v>
-      </c>
-      <c r="O18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" t="b">
+      <c r="P26" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>159</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" t="s">
+        <v>121</v>
+      </c>
+      <c r="O27" t="s">
+        <v>120</v>
+      </c>
+      <c r="P27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>103</v>
+      </c>
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>168</v>
+      </c>
+      <c r="M29" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" t="s">
+        <v>7</v>
+      </c>
+      <c r="O29" t="s">
+        <v>7</v>
+      </c>
+      <c r="P29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" t="s">
+        <v>169</v>
+      </c>
+      <c r="M30" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" t="s">
+        <v>7</v>
+      </c>
+      <c r="O30" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" t="s">
+        <v>154</v>
+      </c>
+      <c r="M31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>7</v>
+      </c>
+      <c r="O31" t="s">
+        <v>7</v>
+      </c>
+      <c r="P31" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" t="s">
+        <v>170</v>
+      </c>
+      <c r="M32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" t="s">
+        <v>7</v>
+      </c>
+      <c r="P32" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1723,307 +2719,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A5:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>821</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>823</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>824</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>825</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" t="s">
-        <v>15</v>
-      </c>
-      <c r="W4" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>827</v>
+        <v>896</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -2032,19 +2744,19 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
         <v>7</v>
@@ -2068,19 +2780,19 @@
         <v>7</v>
       </c>
       <c r="R5" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
         <v>13</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" t="s">
         <v>14</v>
-      </c>
-      <c r="U5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" t="s">
-        <v>15</v>
       </c>
       <c r="W5" t="b">
         <v>1</v>
@@ -2088,70 +2800,70 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>829</v>
+        <v>982</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" t="s">
         <v>40</v>
       </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V6" t="s">
         <v>14</v>
-      </c>
-      <c r="U6" t="s">
-        <v>7</v>
-      </c>
-      <c r="V6" t="s">
-        <v>15</v>
       </c>
       <c r="W6" t="b">
         <v>1</v>
@@ -2159,43 +2871,43 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>830</v>
+        <v>993</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="K7" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M7" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="N7" t="s">
         <v>7</v>
@@ -2210,19 +2922,19 @@
         <v>7</v>
       </c>
       <c r="R7" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="S7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" t="s">
         <v>14</v>
-      </c>
-      <c r="U7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V7" t="s">
-        <v>15</v>
       </c>
       <c r="W7" t="b">
         <v>1</v>
@@ -2230,34 +2942,34 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>976</v>
+        <v>995</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="K8" t="s">
         <v>7</v>
@@ -2266,7 +2978,7 @@
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="N8" t="s">
         <v>7</v>
@@ -2281,19 +2993,19 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="S8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T8" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="U8" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="V8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W8" t="b">
         <v>1</v>
@@ -2301,43 +3013,43 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1131</v>
+        <v>997</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="M9" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="N9" t="s">
         <v>7</v>
@@ -2352,19 +3064,19 @@
         <v>7</v>
       </c>
       <c r="R9" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="S9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s">
+        <v>104</v>
+      </c>
+      <c r="V9" t="s">
         <v>14</v>
-      </c>
-      <c r="U9" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" t="s">
-        <v>15</v>
       </c>
       <c r="W9" t="b">
         <v>1</v>
@@ -2372,13 +3084,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>1133</v>
+        <v>999</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -2387,19 +3099,19 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="I10" t="s">
         <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
         <v>7</v>
@@ -2423,22 +3135,519 @@
         <v>7</v>
       </c>
       <c r="R10" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="S10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" t="s">
         <v>13</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" t="s">
         <v>14</v>
       </c>
-      <c r="U10" t="s">
-        <v>7</v>
-      </c>
-      <c r="V10" t="s">
-        <v>15</v>
-      </c>
       <c r="W10" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>98</v>
+      </c>
+      <c r="S11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>98</v>
+      </c>
+      <c r="S12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>1266</v>
+      </c>
+      <c r="B13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>98</v>
+      </c>
+      <c r="S13" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>3230</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>3231</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" t="s">
+        <v>151</v>
+      </c>
+      <c r="T18" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" t="s">
+        <v>104</v>
+      </c>
+      <c r="V18" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>3232</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" t="s">
+        <v>151</v>
+      </c>
+      <c r="T19" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s">
+        <v>104</v>
+      </c>
+      <c r="V19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>3234</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>123</v>
+      </c>
+      <c r="N20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" t="s">
+        <v>151</v>
+      </c>
+      <c r="T20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s">
+        <v>104</v>
+      </c>
+      <c r="V20" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -18,7 +18,7 @@
     <definedName name="o_excel" localSheetId="0">卡牌表!#REF!</definedName>
     <definedName name="o_excel_1" localSheetId="0">卡牌表!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1021,26 +1021,10 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="79.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -2559,7 +2543,7 @@
         <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
@@ -2612,7 +2596,7 @@
         <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
@@ -2665,7 +2649,7 @@
         <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
         <v>80</v>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="442">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1492,6 +1492,14 @@
   </si>
   <si>
     <t>英雄技能[br]获得2点护甲值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衍生卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衍生卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1894,8 +1902,8 @@
   <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I119" sqref="I119"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4159,7 +4167,7 @@
         <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>441</v>
       </c>
       <c r="D44" t="s">
         <v>75</v>
@@ -6438,7 +6446,7 @@
         <v>364</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>440</v>
       </c>
       <c r="D87" t="s">
         <v>75</v>
@@ -6703,7 +6711,7 @@
         <v>326</v>
       </c>
       <c r="C92" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D92" t="s">
         <v>75</v>
@@ -6756,7 +6764,7 @@
         <v>328</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s">
         <v>75</v>
@@ -6809,7 +6817,7 @@
         <v>329</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D94" t="s">
         <v>75</v>
@@ -6862,7 +6870,7 @@
         <v>358</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D95" t="s">
         <v>75</v>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -1903,7 +1903,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -1902,8 +1902,8 @@
   <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="443">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1501,6 +1501,9 @@
   <si>
     <t>衍生卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绵羊</t>
   </si>
 </sst>
 </file>
@@ -1899,11 +1902,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F102" sqref="F102"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4214,63 +4217,63 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>440</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" t="s">
-        <v>7</v>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
       </c>
       <c r="J45" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s">
         <v>7</v>
       </c>
       <c r="L45" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="M45" t="s">
         <v>7</v>
       </c>
       <c r="N45" t="s">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="O45" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="P45" t="s">
         <v>69</v>
       </c>
       <c r="Q45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -4300,16 +4303,16 @@
         <v>7</v>
       </c>
       <c r="L46" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="M46" t="s">
         <v>7</v>
       </c>
       <c r="N46" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="O46" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="P46" t="s">
         <v>69</v>
@@ -4320,25 +4323,25 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
       </c>
       <c r="H47" t="s">
         <v>191</v>
@@ -4353,16 +4356,16 @@
         <v>7</v>
       </c>
       <c r="L47" t="s">
-        <v>7</v>
+        <v>195</v>
       </c>
       <c r="M47" t="s">
         <v>7</v>
       </c>
       <c r="N47" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="O47" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="P47" t="s">
         <v>69</v>
@@ -4373,25 +4376,25 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" t="s">
-        <v>7</v>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
       </c>
       <c r="H48" t="s">
         <v>191</v>
@@ -4406,16 +4409,16 @@
         <v>7</v>
       </c>
       <c r="L48" t="s">
-        <v>219</v>
+        <v>7</v>
       </c>
       <c r="M48" t="s">
         <v>7</v>
       </c>
       <c r="N48" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="O48" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="P48" t="s">
         <v>69</v>
@@ -4426,10 +4429,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -4438,7 +4441,7 @@
         <v>65</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
@@ -4459,16 +4462,16 @@
         <v>7</v>
       </c>
       <c r="L49" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M49" t="s">
         <v>7</v>
       </c>
       <c r="N49" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O49" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="P49" t="s">
         <v>69</v>
@@ -4479,10 +4482,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -4491,7 +4494,7 @@
         <v>65</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -4512,16 +4515,16 @@
         <v>7</v>
       </c>
       <c r="L50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M50" t="s">
         <v>7</v>
       </c>
       <c r="N50" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="O50" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="P50" t="s">
         <v>69</v>
@@ -4532,10 +4535,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -4565,16 +4568,16 @@
         <v>7</v>
       </c>
       <c r="L51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M51" t="s">
         <v>7</v>
       </c>
       <c r="N51" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="O51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P51" t="s">
         <v>69</v>
@@ -4585,10 +4588,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -4618,16 +4621,16 @@
         <v>7</v>
       </c>
       <c r="L52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M52" t="s">
         <v>7</v>
       </c>
       <c r="N52" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O52" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P52" t="s">
         <v>69</v>
@@ -4638,25 +4641,25 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
       </c>
       <c r="H53" t="s">
         <v>191</v>
@@ -4671,16 +4674,16 @@
         <v>7</v>
       </c>
       <c r="L53" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M53" t="s">
         <v>7</v>
       </c>
       <c r="N53" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O53" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="P53" t="s">
         <v>69</v>
@@ -4691,25 +4694,25 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H54" t="s">
         <v>191</v>
@@ -4724,16 +4727,16 @@
         <v>7</v>
       </c>
       <c r="L54" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="M54" t="s">
         <v>7</v>
       </c>
       <c r="N54" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="O54" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P54" t="s">
         <v>69</v>
@@ -4744,25 +4747,25 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>6</v>
       </c>
       <c r="H55" t="s">
         <v>191</v>
@@ -4777,45 +4780,45 @@
         <v>7</v>
       </c>
       <c r="L55" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M55" t="s">
         <v>7</v>
       </c>
       <c r="N55" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="O55" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="P55" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="Q55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
       </c>
       <c r="H56" t="s">
         <v>191</v>
@@ -4830,7 +4833,7 @@
         <v>7</v>
       </c>
       <c r="L56" t="s">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="M56" t="s">
         <v>7</v>
@@ -4842,7 +4845,7 @@
         <v>7</v>
       </c>
       <c r="P56" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="Q56" t="b">
         <v>0</v>
@@ -4850,13 +4853,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
         <v>75</v>
@@ -4868,10 +4871,10 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -4883,45 +4886,45 @@
         <v>7</v>
       </c>
       <c r="L57" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="M57" t="s">
         <v>7</v>
       </c>
       <c r="N57" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="O57" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="P57" t="s">
         <v>69</v>
       </c>
       <c r="Q57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C58" t="s">
-        <v>268</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" t="s">
-        <v>7</v>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
       </c>
       <c r="H58" t="s">
         <v>234</v>
@@ -4936,16 +4939,16 @@
         <v>7</v>
       </c>
       <c r="L58" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="M58" t="s">
         <v>7</v>
       </c>
       <c r="N58" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="O58" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="P58" t="s">
         <v>69</v>
@@ -4956,10 +4959,10 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="C59" t="s">
         <v>268</v>
@@ -4989,16 +4992,16 @@
         <v>7</v>
       </c>
       <c r="L59" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="M59" t="s">
         <v>7</v>
       </c>
       <c r="N59" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="O59" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="P59" t="s">
         <v>69</v>
@@ -5009,10 +5012,10 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
         <v>268</v>
@@ -5042,16 +5045,16 @@
         <v>7</v>
       </c>
       <c r="L60" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M60" t="s">
         <v>7</v>
       </c>
       <c r="N60" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O60" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P60" t="s">
         <v>69</v>
@@ -5062,10 +5065,10 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
         <v>268</v>
@@ -5095,16 +5098,16 @@
         <v>7</v>
       </c>
       <c r="L61" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="M61" t="s">
         <v>7</v>
       </c>
       <c r="N61" t="s">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="O61" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="P61" t="s">
         <v>69</v>
@@ -5115,10 +5118,10 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C62" t="s">
         <v>268</v>
@@ -5127,7 +5130,7 @@
         <v>65</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -5148,16 +5151,16 @@
         <v>7</v>
       </c>
       <c r="L62" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="M62" t="s">
         <v>7</v>
       </c>
       <c r="N62" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="O62" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="P62" t="s">
         <v>69</v>
@@ -5168,10 +5171,10 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C63" t="s">
         <v>268</v>
@@ -5201,16 +5204,16 @@
         <v>7</v>
       </c>
       <c r="L63" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M63" t="s">
         <v>7</v>
       </c>
       <c r="N63" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="O63" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="P63" t="s">
         <v>69</v>
@@ -5221,10 +5224,10 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C64" t="s">
         <v>268</v>
@@ -5233,7 +5236,7 @@
         <v>65</v>
       </c>
       <c r="E64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
@@ -5254,16 +5257,16 @@
         <v>7</v>
       </c>
       <c r="L64" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M64" t="s">
         <v>7</v>
       </c>
       <c r="N64" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="O64" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P64" t="s">
         <v>69</v>
@@ -5274,10 +5277,10 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s">
         <v>268</v>
@@ -5286,7 +5289,7 @@
         <v>65</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
@@ -5307,16 +5310,16 @@
         <v>7</v>
       </c>
       <c r="L65" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M65" t="s">
         <v>7</v>
       </c>
       <c r="N65" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="O65" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="P65" t="s">
         <v>69</v>
@@ -5327,10 +5330,10 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
         <v>268</v>
@@ -5339,7 +5342,7 @@
         <v>65</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
@@ -5360,16 +5363,16 @@
         <v>7</v>
       </c>
       <c r="L66" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="M66" t="s">
         <v>7</v>
       </c>
       <c r="N66" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="O66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P66" t="s">
         <v>69</v>
@@ -5380,19 +5383,19 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C67" t="s">
         <v>268</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -5413,83 +5416,83 @@
         <v>7</v>
       </c>
       <c r="L67" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M67" t="s">
         <v>7</v>
       </c>
       <c r="N67" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="O67" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="P67" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="Q67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
       <c r="C68" t="s">
         <v>268</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>234</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>7</v>
+      </c>
+      <c r="K68" t="s">
+        <v>7</v>
+      </c>
+      <c r="L68" t="s">
+        <v>276</v>
+      </c>
+      <c r="M68" t="s">
+        <v>7</v>
+      </c>
+      <c r="N68" t="s">
+        <v>7</v>
+      </c>
+      <c r="O68" t="s">
+        <v>7</v>
+      </c>
+      <c r="P68" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q68" t="b">
         <v>0</v>
-      </c>
-      <c r="F68" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" t="s">
-        <v>7</v>
-      </c>
-      <c r="H68" t="s">
-        <v>278</v>
-      </c>
-      <c r="I68" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" t="s">
-        <v>7</v>
-      </c>
-      <c r="K68" t="s">
-        <v>7</v>
-      </c>
-      <c r="L68" t="s">
-        <v>312</v>
-      </c>
-      <c r="M68" t="s">
-        <v>7</v>
-      </c>
-      <c r="N68" t="s">
-        <v>281</v>
-      </c>
-      <c r="O68" t="s">
-        <v>282</v>
-      </c>
-      <c r="P68" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q68" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C69" t="s">
         <v>268</v>
@@ -5498,7 +5501,7 @@
         <v>65</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="s">
         <v>7</v>
@@ -5519,16 +5522,16 @@
         <v>7</v>
       </c>
       <c r="L69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M69" t="s">
         <v>7</v>
       </c>
       <c r="N69" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="O69" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P69" t="s">
         <v>69</v>
@@ -5539,10 +5542,10 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C70" t="s">
         <v>268</v>
@@ -5572,16 +5575,16 @@
         <v>7</v>
       </c>
       <c r="L70" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="M70" t="s">
         <v>7</v>
       </c>
       <c r="N70" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O70" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P70" t="s">
         <v>69</v>
@@ -5592,10 +5595,10 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C71" t="s">
         <v>268</v>
@@ -5604,7 +5607,7 @@
         <v>65</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>7</v>
@@ -5625,16 +5628,16 @@
         <v>7</v>
       </c>
       <c r="L71" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="M71" t="s">
         <v>7</v>
       </c>
       <c r="N71" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="O71" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="P71" t="s">
         <v>69</v>
@@ -5645,10 +5648,10 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C72" t="s">
         <v>268</v>
@@ -5678,16 +5681,16 @@
         <v>7</v>
       </c>
       <c r="L72" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M72" t="s">
         <v>7</v>
       </c>
       <c r="N72" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O72" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P72" t="s">
         <v>69</v>
@@ -5698,10 +5701,10 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C73" t="s">
         <v>268</v>
@@ -5710,7 +5713,7 @@
         <v>65</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
@@ -5731,16 +5734,16 @@
         <v>7</v>
       </c>
       <c r="L73" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M73" t="s">
         <v>7</v>
       </c>
       <c r="N73" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="O73" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="P73" t="s">
         <v>69</v>
@@ -5751,25 +5754,25 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
       <c r="D74" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E74">
-        <v>4</v>
-      </c>
-      <c r="F74">
         <v>3</v>
       </c>
-      <c r="G74">
-        <v>3</v>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
       </c>
       <c r="H74" t="s">
         <v>278</v>
@@ -5784,16 +5787,16 @@
         <v>7</v>
       </c>
       <c r="L74" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M74" t="s">
         <v>7</v>
       </c>
       <c r="N74" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="O74" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="P74" t="s">
         <v>69</v>
@@ -5804,25 +5807,25 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="E75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H75" t="s">
         <v>278</v>
@@ -5837,16 +5840,16 @@
         <v>7</v>
       </c>
       <c r="L75" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="M75" t="s">
         <v>7</v>
       </c>
       <c r="N75" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="O75" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="P75" t="s">
         <v>69</v>
@@ -5857,25 +5860,25 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="E76">
         <v>5</v>
       </c>
-      <c r="F76" t="s">
-        <v>7</v>
-      </c>
-      <c r="G76" t="s">
-        <v>7</v>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
       </c>
       <c r="H76" t="s">
         <v>278</v>
@@ -5890,16 +5893,16 @@
         <v>7</v>
       </c>
       <c r="L76" t="s">
-        <v>291</v>
+        <v>7</v>
       </c>
       <c r="M76" t="s">
         <v>7</v>
       </c>
       <c r="N76" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="O76" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P76" t="s">
         <v>69</v>
@@ -5910,10 +5913,10 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
@@ -5922,7 +5925,7 @@
         <v>65</v>
       </c>
       <c r="E77">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -5943,16 +5946,16 @@
         <v>7</v>
       </c>
       <c r="L77" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M77" t="s">
         <v>7</v>
       </c>
       <c r="N77" t="s">
-        <v>295</v>
+        <v>205</v>
       </c>
       <c r="O77" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P77" t="s">
         <v>69</v>
@@ -5963,19 +5966,19 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="E78">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
         <v>7</v>
@@ -5996,45 +5999,45 @@
         <v>7</v>
       </c>
       <c r="L78" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="M78" t="s">
         <v>7</v>
       </c>
       <c r="N78" t="s">
-        <v>7</v>
+        <v>295</v>
       </c>
       <c r="O78" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="P78" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="Q78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
         <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>7</v>
       </c>
       <c r="H79" t="s">
         <v>278</v>
@@ -6049,7 +6052,7 @@
         <v>7</v>
       </c>
       <c r="L79" t="s">
-        <v>7</v>
+        <v>320</v>
       </c>
       <c r="M79" t="s">
         <v>7</v>
@@ -6069,63 +6072,63 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>277</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>278</v>
+      </c>
+      <c r="I80" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" t="s">
+        <v>7</v>
+      </c>
+      <c r="K80" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" t="s">
+        <v>7</v>
+      </c>
+      <c r="M80" t="s">
+        <v>7</v>
+      </c>
+      <c r="N80" t="s">
+        <v>7</v>
+      </c>
+      <c r="O80" t="s">
+        <v>7</v>
+      </c>
+      <c r="P80" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q80" t="b">
         <v>0</v>
-      </c>
-      <c r="F80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" t="s">
-        <v>322</v>
-      </c>
-      <c r="I80" t="s">
-        <v>12</v>
-      </c>
-      <c r="J80" t="s">
-        <v>7</v>
-      </c>
-      <c r="K80" t="s">
-        <v>7</v>
-      </c>
-      <c r="L80" t="s">
-        <v>360</v>
-      </c>
-      <c r="M80" t="s">
-        <v>7</v>
-      </c>
-      <c r="N80" t="s">
-        <v>336</v>
-      </c>
-      <c r="O80" t="s">
-        <v>337</v>
-      </c>
-      <c r="P80" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q80" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -6155,16 +6158,16 @@
         <v>7</v>
       </c>
       <c r="L81" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M81" t="s">
         <v>7</v>
       </c>
       <c r="N81" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="O81" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="P81" t="s">
         <v>69</v>
@@ -6175,10 +6178,10 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -6187,7 +6190,7 @@
         <v>65</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
         <v>7</v>
@@ -6208,16 +6211,16 @@
         <v>7</v>
       </c>
       <c r="L82" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="M82" t="s">
         <v>7</v>
       </c>
       <c r="N82" t="s">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="O82" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="P82" t="s">
         <v>69</v>
@@ -6228,10 +6231,10 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -6240,7 +6243,7 @@
         <v>65</v>
       </c>
       <c r="E83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>7</v>
@@ -6261,7 +6264,7 @@
         <v>7</v>
       </c>
       <c r="L83" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="M83" t="s">
         <v>7</v>
@@ -6270,7 +6273,7 @@
         <v>42</v>
       </c>
       <c r="O83" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="P83" t="s">
         <v>69</v>
@@ -6281,10 +6284,10 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -6314,16 +6317,16 @@
         <v>7</v>
       </c>
       <c r="L84" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="M84" t="s">
         <v>7</v>
       </c>
       <c r="N84" t="s">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="O84" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="P84" t="s">
         <v>69</v>
@@ -6334,10 +6337,10 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -6348,11 +6351,11 @@
       <c r="E85">
         <v>2</v>
       </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>3</v>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>7</v>
       </c>
       <c r="H85" t="s">
         <v>322</v>
@@ -6361,22 +6364,22 @@
         <v>12</v>
       </c>
       <c r="J85" t="s">
-        <v>327</v>
+        <v>7</v>
       </c>
       <c r="K85" t="s">
         <v>7</v>
       </c>
       <c r="L85" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="M85" t="s">
         <v>7</v>
       </c>
       <c r="N85" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="O85" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="P85" t="s">
         <v>69</v>
@@ -6387,10 +6390,10 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -6399,13 +6402,13 @@
         <v>65</v>
       </c>
       <c r="E86">
-        <v>4</v>
-      </c>
-      <c r="F86" t="s">
-        <v>7</v>
-      </c>
-      <c r="G86" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
       </c>
       <c r="H86" t="s">
         <v>322</v>
@@ -6414,22 +6417,22 @@
         <v>12</v>
       </c>
       <c r="J86" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="K86" t="s">
         <v>7</v>
       </c>
       <c r="L86" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="M86" t="s">
         <v>7</v>
       </c>
       <c r="N86" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O86" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P86" t="s">
         <v>69</v>
@@ -6440,25 +6443,25 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C87" t="s">
-        <v>440</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>7</v>
       </c>
       <c r="H87" t="s">
         <v>322</v>
@@ -6467,51 +6470,51 @@
         <v>12</v>
       </c>
       <c r="J87" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="K87" t="s">
         <v>7</v>
       </c>
       <c r="L87" t="s">
-        <v>189</v>
+        <v>363</v>
       </c>
       <c r="M87" t="s">
         <v>7</v>
       </c>
       <c r="N87" t="s">
-        <v>7</v>
+        <v>350</v>
       </c>
       <c r="O87" t="s">
-        <v>7</v>
+        <v>351</v>
       </c>
       <c r="P87" t="s">
         <v>69</v>
       </c>
       <c r="Q87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>440</v>
       </c>
       <c r="D88" t="s">
         <v>75</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>322</v>
@@ -6520,51 +6523,51 @@
         <v>12</v>
       </c>
       <c r="J88" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="K88" t="s">
         <v>7</v>
       </c>
       <c r="L88" t="s">
-        <v>365</v>
+        <v>189</v>
       </c>
       <c r="M88" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="N88" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="O88" t="s">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="P88" t="s">
         <v>69</v>
       </c>
       <c r="Q88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E89">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
       </c>
       <c r="H89" t="s">
         <v>322</v>
@@ -6579,16 +6582,16 @@
         <v>7</v>
       </c>
       <c r="L89" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="M89" t="s">
-        <v>7</v>
+        <v>362</v>
       </c>
       <c r="N89" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="O89" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="P89" t="s">
         <v>69</v>
@@ -6599,25 +6602,25 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E90">
-        <v>6</v>
-      </c>
-      <c r="F90">
-        <v>6</v>
-      </c>
-      <c r="G90">
         <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>7</v>
       </c>
       <c r="H90" t="s">
         <v>322</v>
@@ -6626,22 +6629,22 @@
         <v>12</v>
       </c>
       <c r="J90" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
       <c r="K90" t="s">
         <v>7</v>
       </c>
       <c r="L90" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="M90" t="s">
-        <v>339</v>
+        <v>7</v>
       </c>
       <c r="N90" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="O90" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P90" t="s">
         <v>69</v>
@@ -6652,25 +6655,25 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="E91">
-        <v>2</v>
-      </c>
-      <c r="F91" t="s">
-        <v>7</v>
-      </c>
-      <c r="G91" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91">
+        <v>5</v>
       </c>
       <c r="H91" t="s">
         <v>322</v>
@@ -6679,51 +6682,51 @@
         <v>12</v>
       </c>
       <c r="J91" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="K91" t="s">
         <v>7</v>
       </c>
       <c r="L91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M91" t="s">
-        <v>7</v>
+        <v>339</v>
       </c>
       <c r="N91" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="O91" t="s">
-        <v>7</v>
+        <v>340</v>
       </c>
       <c r="P91" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="Q91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C92" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>7</v>
       </c>
       <c r="H92" t="s">
         <v>322</v>
@@ -6732,13 +6735,13 @@
         <v>12</v>
       </c>
       <c r="J92" t="s">
-        <v>327</v>
+        <v>7</v>
       </c>
       <c r="K92" t="s">
         <v>7</v>
       </c>
       <c r="L92" t="s">
-        <v>7</v>
+        <v>367</v>
       </c>
       <c r="M92" t="s">
         <v>7</v>
@@ -6750,7 +6753,7 @@
         <v>7</v>
       </c>
       <c r="P92" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="Q92" t="b">
         <v>0</v>
@@ -6758,10 +6761,10 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C93" t="s">
         <v>84</v>
@@ -6773,10 +6776,10 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
         <v>322</v>
@@ -6791,7 +6794,7 @@
         <v>7</v>
       </c>
       <c r="L93" t="s">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="M93" t="s">
         <v>7</v>
@@ -6811,10 +6814,10 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C94" t="s">
         <v>84</v>
@@ -6844,7 +6847,7 @@
         <v>7</v>
       </c>
       <c r="L94" t="s">
-        <v>368</v>
+        <v>189</v>
       </c>
       <c r="M94" t="s">
         <v>7</v>
@@ -6864,10 +6867,10 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="C95" t="s">
         <v>84</v>
@@ -6897,7 +6900,7 @@
         <v>7</v>
       </c>
       <c r="L95" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M95" t="s">
         <v>7</v>
@@ -6917,63 +6920,63 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D96" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
         <v>0</v>
       </c>
-      <c r="F96" t="s">
-        <v>7</v>
-      </c>
-      <c r="G96" t="s">
-        <v>7</v>
+      <c r="G96">
+        <v>2</v>
       </c>
       <c r="H96" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
       </c>
       <c r="J96" t="s">
-        <v>7</v>
+        <v>327</v>
       </c>
       <c r="K96" t="s">
         <v>7</v>
       </c>
       <c r="L96" t="s">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="M96" t="s">
         <v>7</v>
       </c>
       <c r="N96" t="s">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="O96" t="s">
-        <v>393</v>
+        <v>7</v>
       </c>
       <c r="P96" t="s">
         <v>69</v>
       </c>
       <c r="Q96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -6982,7 +6985,7 @@
         <v>65</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="s">
         <v>7</v>
@@ -7003,16 +7006,16 @@
         <v>7</v>
       </c>
       <c r="L97" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M97" t="s">
         <v>7</v>
       </c>
       <c r="N97" t="s">
-        <v>388</v>
+        <v>162</v>
       </c>
       <c r="O97" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P97" t="s">
         <v>69</v>
@@ -7023,10 +7026,10 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -7056,16 +7059,16 @@
         <v>7</v>
       </c>
       <c r="L98" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M98" t="s">
         <v>7</v>
       </c>
       <c r="N98" t="s">
-        <v>252</v>
+        <v>388</v>
       </c>
       <c r="O98" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P98" t="s">
         <v>69</v>
@@ -7076,10 +7079,10 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -7109,16 +7112,16 @@
         <v>7</v>
       </c>
       <c r="L99" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="M99" t="s">
         <v>7</v>
       </c>
       <c r="N99" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="O99" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="P99" t="s">
         <v>69</v>
@@ -7129,25 +7132,25 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>3</v>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" t="s">
+        <v>7</v>
       </c>
       <c r="H100" t="s">
         <v>370</v>
@@ -7156,22 +7159,22 @@
         <v>12</v>
       </c>
       <c r="J100" t="s">
-        <v>383</v>
+        <v>7</v>
       </c>
       <c r="K100" t="s">
         <v>7</v>
       </c>
       <c r="L100" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="M100" t="s">
         <v>7</v>
       </c>
       <c r="N100" t="s">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="O100" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="P100" t="s">
         <v>69</v>
@@ -7182,10 +7185,10 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -7194,10 +7197,10 @@
         <v>75</v>
       </c>
       <c r="E101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -7215,16 +7218,16 @@
         <v>7</v>
       </c>
       <c r="L101" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M101" t="s">
         <v>7</v>
       </c>
       <c r="N101" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="O101" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="P101" t="s">
         <v>69</v>
@@ -7235,25 +7238,25 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102">
         <v>3</v>
-      </c>
-      <c r="F102" t="s">
-        <v>7</v>
-      </c>
-      <c r="G102" t="s">
-        <v>7</v>
       </c>
       <c r="H102" t="s">
         <v>370</v>
@@ -7262,22 +7265,22 @@
         <v>12</v>
       </c>
       <c r="J102" t="s">
-        <v>7</v>
+        <v>383</v>
       </c>
       <c r="K102" t="s">
         <v>7</v>
       </c>
       <c r="L102" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M102" t="s">
         <v>7</v>
       </c>
       <c r="N102" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="O102" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="P102" t="s">
         <v>69</v>
@@ -7288,10 +7291,10 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -7321,16 +7324,16 @@
         <v>7</v>
       </c>
       <c r="L103" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M103" t="s">
         <v>7</v>
       </c>
       <c r="N103" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O103" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P103" t="s">
         <v>69</v>
@@ -7341,10 +7344,10 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -7353,7 +7356,7 @@
         <v>65</v>
       </c>
       <c r="E104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F104" t="s">
         <v>7</v>
@@ -7374,16 +7377,16 @@
         <v>7</v>
       </c>
       <c r="L104" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M104" t="s">
         <v>7</v>
       </c>
       <c r="N104" t="s">
-        <v>377</v>
+        <v>35</v>
       </c>
       <c r="O104" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="P104" t="s">
         <v>69</v>
@@ -7394,25 +7397,25 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
       </c>
       <c r="D105" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E105">
-        <v>6</v>
-      </c>
-      <c r="F105">
-        <v>6</v>
-      </c>
-      <c r="G105">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" t="s">
+        <v>7</v>
       </c>
       <c r="H105" t="s">
         <v>370</v>
@@ -7421,22 +7424,22 @@
         <v>12</v>
       </c>
       <c r="J105" t="s">
-        <v>383</v>
+        <v>7</v>
       </c>
       <c r="K105" t="s">
         <v>7</v>
       </c>
       <c r="L105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M105" t="s">
         <v>7</v>
       </c>
       <c r="N105" t="s">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="O105" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="P105" t="s">
         <v>69</v>
@@ -7447,25 +7450,25 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="E106">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s">
-        <v>7</v>
-      </c>
-      <c r="G106" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+      <c r="G106">
+        <v>6</v>
       </c>
       <c r="H106" t="s">
         <v>370</v>
@@ -7474,45 +7477,45 @@
         <v>12</v>
       </c>
       <c r="J106" t="s">
-        <v>7</v>
+        <v>383</v>
       </c>
       <c r="K106" t="s">
         <v>7</v>
       </c>
       <c r="L106" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M106" t="s">
         <v>7</v>
       </c>
       <c r="N106" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="O106" t="s">
-        <v>7</v>
+        <v>384</v>
       </c>
       <c r="P106" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="Q106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>369</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107" t="s">
         <v>7</v>
@@ -7521,7 +7524,7 @@
         <v>7</v>
       </c>
       <c r="H107" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="I107" t="s">
         <v>12</v>
@@ -7533,30 +7536,30 @@
         <v>7</v>
       </c>
       <c r="L107" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="M107" t="s">
         <v>7</v>
       </c>
       <c r="N107" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="O107" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
       <c r="P107" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="Q107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>426</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -7586,16 +7589,16 @@
         <v>7</v>
       </c>
       <c r="L108" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M108" t="s">
         <v>7</v>
       </c>
       <c r="N108" t="s">
-        <v>411</v>
+        <v>42</v>
       </c>
       <c r="O108" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="P108" t="s">
         <v>69</v>
@@ -7606,10 +7609,10 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -7618,7 +7621,7 @@
         <v>65</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109" t="s">
         <v>7</v>
@@ -7639,16 +7642,16 @@
         <v>7</v>
       </c>
       <c r="L109" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="M109" t="s">
         <v>7</v>
       </c>
       <c r="N109" t="s">
-        <v>9</v>
+        <v>411</v>
       </c>
       <c r="O109" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="P109" t="s">
         <v>69</v>
@@ -7659,10 +7662,10 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -7692,16 +7695,16 @@
         <v>7</v>
       </c>
       <c r="L110" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="M110" t="s">
         <v>7</v>
       </c>
       <c r="N110" t="s">
-        <v>411</v>
+        <v>9</v>
       </c>
       <c r="O110" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P110" t="s">
         <v>69</v>
@@ -7712,10 +7715,10 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -7745,16 +7748,16 @@
         <v>7</v>
       </c>
       <c r="L111" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="M111" t="s">
         <v>7</v>
       </c>
       <c r="N111" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="O111" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="P111" t="s">
         <v>69</v>
@@ -7765,25 +7768,25 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E112">
-        <v>3</v>
-      </c>
-      <c r="F112">
         <v>2</v>
       </c>
-      <c r="G112">
-        <v>3</v>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" t="s">
+        <v>7</v>
       </c>
       <c r="H112" t="s">
         <v>407</v>
@@ -7798,16 +7801,16 @@
         <v>7</v>
       </c>
       <c r="L112" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M112" t="s">
         <v>7</v>
       </c>
       <c r="N112" t="s">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="O112" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P112" t="s">
         <v>69</v>
@@ -7818,25 +7821,25 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="E113">
         <v>3</v>
       </c>
       <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
         <v>3</v>
-      </c>
-      <c r="G113">
-        <v>2</v>
       </c>
       <c r="H113" t="s">
         <v>407</v>
@@ -7851,16 +7854,16 @@
         <v>7</v>
       </c>
       <c r="L113" t="s">
-        <v>7</v>
+        <v>436</v>
       </c>
       <c r="M113" t="s">
         <v>7</v>
       </c>
       <c r="N113" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="O113" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="P113" t="s">
         <v>69</v>
@@ -7871,25 +7874,25 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="E114">
         <v>3</v>
       </c>
-      <c r="F114" t="s">
-        <v>7</v>
-      </c>
-      <c r="G114" t="s">
-        <v>7</v>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
       </c>
       <c r="H114" t="s">
         <v>407</v>
@@ -7904,16 +7907,16 @@
         <v>7</v>
       </c>
       <c r="L114" t="s">
-        <v>429</v>
+        <v>7</v>
       </c>
       <c r="M114" t="s">
         <v>7</v>
       </c>
       <c r="N114" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="O114" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="P114" t="s">
         <v>69</v>
@@ -7924,25 +7927,25 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E115">
-        <v>4</v>
-      </c>
-      <c r="F115">
-        <v>4</v>
-      </c>
-      <c r="G115">
         <v>3</v>
+      </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
       </c>
       <c r="H115" t="s">
         <v>407</v>
@@ -7957,16 +7960,16 @@
         <v>7</v>
       </c>
       <c r="L115" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="M115" t="s">
         <v>7</v>
       </c>
       <c r="N115" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="O115" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P115" t="s">
         <v>69</v>
@@ -7977,25 +7980,25 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>226</v>
+        <v>75</v>
       </c>
       <c r="E116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116" t="s">
         <v>407</v>
@@ -8010,16 +8013,16 @@
         <v>7</v>
       </c>
       <c r="L116" t="s">
-        <v>7</v>
+        <v>437</v>
       </c>
       <c r="M116" t="s">
         <v>7</v>
       </c>
       <c r="N116" t="s">
-        <v>419</v>
+        <v>42</v>
       </c>
       <c r="O116" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="P116" t="s">
         <v>69</v>
@@ -8030,25 +8033,25 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>5</v>
+      </c>
+      <c r="G117">
         <v>2</v>
-      </c>
-      <c r="F117" t="s">
-        <v>7</v>
-      </c>
-      <c r="G117" t="s">
-        <v>7</v>
       </c>
       <c r="H117" t="s">
         <v>407</v>
@@ -8063,21 +8066,74 @@
         <v>7</v>
       </c>
       <c r="L117" t="s">
+        <v>7</v>
+      </c>
+      <c r="M117" t="s">
+        <v>7</v>
+      </c>
+      <c r="N117" t="s">
+        <v>419</v>
+      </c>
+      <c r="O117" t="s">
+        <v>420</v>
+      </c>
+      <c r="P117" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s">
+        <v>438</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+      <c r="H118" t="s">
+        <v>407</v>
+      </c>
+      <c r="I118" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118" t="s">
+        <v>7</v>
+      </c>
+      <c r="K118" t="s">
+        <v>7</v>
+      </c>
+      <c r="L118" t="s">
         <v>439</v>
       </c>
-      <c r="M117" t="s">
-        <v>7</v>
-      </c>
-      <c r="N117" t="s">
-        <v>7</v>
-      </c>
-      <c r="O117" t="s">
-        <v>7</v>
-      </c>
-      <c r="P117" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q117" t="b">
+      <c r="M118" t="s">
+        <v>7</v>
+      </c>
+      <c r="N118" t="s">
+        <v>7</v>
+      </c>
+      <c r="O118" t="s">
+        <v>7</v>
+      </c>
+      <c r="P118" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q118" t="b">
         <v>0</v>
       </c>
     </row>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -1905,8 +1905,8 @@
   <dimension ref="A1:Q118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D953BF-AD2C-4B65-B32F-760021D17C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ABC4C4-3EAE-4A17-AF34-6A3E48994F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">卡牌表!$A$3:$T$3</definedName>
     <definedName name="o_card" localSheetId="0">卡牌表!$A$6:$T$15</definedName>
     <definedName name="o_card_1" localSheetId="0">卡牌表!#REF!</definedName>
     <definedName name="o_cheat_system_item" localSheetId="0">卡牌表!#REF!</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="760">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2427,6 +2428,87 @@
   </si>
   <si>
     <t>卡牌属性.法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛法里奥·怒风</t>
+  </si>
+  <si>
+    <t>HERO_06</t>
+  </si>
+  <si>
+    <t>吉安娜·普罗德摩尔</t>
+  </si>
+  <si>
+    <t>HERO_08</t>
+  </si>
+  <si>
+    <t>雷克萨</t>
+  </si>
+  <si>
+    <t>HERO_05</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>安度因·乌瑞恩</t>
+  </si>
+  <si>
+    <t>HERO_09</t>
+  </si>
+  <si>
+    <t>瓦莉拉·萨古纳尔</t>
+  </si>
+  <si>
+    <t>HERO_03</t>
+  </si>
+  <si>
+    <t>萨尔</t>
+  </si>
+  <si>
+    <t>HERO_02</t>
+  </si>
+  <si>
+    <t>乌瑟尔·光明使者</t>
+  </si>
+  <si>
+    <t>HERO_04</t>
+  </si>
+  <si>
+    <t>古尔丹</t>
+  </si>
+  <si>
+    <t>HERO_07</t>
+  </si>
+  <si>
+    <t>加尔鲁什·地狱咆哮</t>
+  </si>
+  <si>
+    <t>HERO_01</t>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷诺·杰克逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬利爵士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊莉斯·逐星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布莱恩·铜须</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥丹姆奇兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2867,11 +2949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T164"/>
+  <dimension ref="A1:T177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
+      <pane ySplit="3" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -13044,7 +13126,814 @@
         <v>1</v>
       </c>
     </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>168</v>
+      </c>
+      <c r="B165" t="s">
+        <v>735</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>736</v>
+      </c>
+      <c r="E165" t="s">
+        <v>754</v>
+      </c>
+      <c r="F165" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165">
+        <v>30</v>
+      </c>
+      <c r="I165" t="s">
+        <v>7</v>
+      </c>
+      <c r="J165" t="s">
+        <v>7</v>
+      </c>
+      <c r="K165" t="s">
+        <v>11</v>
+      </c>
+      <c r="L165" t="s">
+        <v>12</v>
+      </c>
+      <c r="M165" t="s">
+        <v>7</v>
+      </c>
+      <c r="N165" t="s">
+        <v>7</v>
+      </c>
+      <c r="O165" t="s">
+        <v>7</v>
+      </c>
+      <c r="P165" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>7</v>
+      </c>
+      <c r="R165" t="s">
+        <v>7</v>
+      </c>
+      <c r="S165" t="s">
+        <v>69</v>
+      </c>
+      <c r="T165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>739</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>740</v>
+      </c>
+      <c r="E166" t="s">
+        <v>754</v>
+      </c>
+      <c r="F166" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" t="s">
+        <v>7</v>
+      </c>
+      <c r="H166">
+        <v>30</v>
+      </c>
+      <c r="I166" t="s">
+        <v>7</v>
+      </c>
+      <c r="J166" t="s">
+        <v>7</v>
+      </c>
+      <c r="K166" t="s">
+        <v>741</v>
+      </c>
+      <c r="L166" t="s">
+        <v>12</v>
+      </c>
+      <c r="M166" t="s">
+        <v>7</v>
+      </c>
+      <c r="N166" t="s">
+        <v>7</v>
+      </c>
+      <c r="O166" t="s">
+        <v>7</v>
+      </c>
+      <c r="P166" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>7</v>
+      </c>
+      <c r="R166" t="s">
+        <v>7</v>
+      </c>
+      <c r="S166" t="s">
+        <v>69</v>
+      </c>
+      <c r="T166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>737</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>738</v>
+      </c>
+      <c r="E167" t="s">
+        <v>754</v>
+      </c>
+      <c r="F167" t="s">
+        <v>7</v>
+      </c>
+      <c r="G167" t="s">
+        <v>7</v>
+      </c>
+      <c r="H167">
+        <v>30</v>
+      </c>
+      <c r="I167" t="s">
+        <v>7</v>
+      </c>
+      <c r="J167" t="s">
+        <v>7</v>
+      </c>
+      <c r="K167" t="s">
+        <v>144</v>
+      </c>
+      <c r="L167" t="s">
+        <v>12</v>
+      </c>
+      <c r="M167" t="s">
+        <v>7</v>
+      </c>
+      <c r="N167" t="s">
+        <v>7</v>
+      </c>
+      <c r="O167" t="s">
+        <v>7</v>
+      </c>
+      <c r="P167" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>7</v>
+      </c>
+      <c r="R167" t="s">
+        <v>7</v>
+      </c>
+      <c r="S167" t="s">
+        <v>69</v>
+      </c>
+      <c r="T167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>748</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>749</v>
+      </c>
+      <c r="E168" t="s">
+        <v>754</v>
+      </c>
+      <c r="F168" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" t="s">
+        <v>7</v>
+      </c>
+      <c r="H168">
+        <v>30</v>
+      </c>
+      <c r="I168" t="s">
+        <v>7</v>
+      </c>
+      <c r="J168" t="s">
+        <v>7</v>
+      </c>
+      <c r="K168" t="s">
+        <v>191</v>
+      </c>
+      <c r="L168" t="s">
+        <v>12</v>
+      </c>
+      <c r="M168" t="s">
+        <v>7</v>
+      </c>
+      <c r="N168" t="s">
+        <v>7</v>
+      </c>
+      <c r="O168" t="s">
+        <v>7</v>
+      </c>
+      <c r="P168" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>7</v>
+      </c>
+      <c r="R168" t="s">
+        <v>7</v>
+      </c>
+      <c r="S168" t="s">
+        <v>69</v>
+      </c>
+      <c r="T168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>172</v>
+      </c>
+      <c r="B169" t="s">
+        <v>742</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>743</v>
+      </c>
+      <c r="E169" t="s">
+        <v>754</v>
+      </c>
+      <c r="F169" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" t="s">
+        <v>7</v>
+      </c>
+      <c r="H169">
+        <v>30</v>
+      </c>
+      <c r="I169" t="s">
+        <v>7</v>
+      </c>
+      <c r="J169" t="s">
+        <v>7</v>
+      </c>
+      <c r="K169" t="s">
+        <v>234</v>
+      </c>
+      <c r="L169" t="s">
+        <v>12</v>
+      </c>
+      <c r="M169" t="s">
+        <v>7</v>
+      </c>
+      <c r="N169" t="s">
+        <v>7</v>
+      </c>
+      <c r="O169" t="s">
+        <v>7</v>
+      </c>
+      <c r="P169" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>7</v>
+      </c>
+      <c r="R169" t="s">
+        <v>7</v>
+      </c>
+      <c r="S169" t="s">
+        <v>69</v>
+      </c>
+      <c r="T169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>744</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>745</v>
+      </c>
+      <c r="E170" t="s">
+        <v>754</v>
+      </c>
+      <c r="F170" t="s">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>7</v>
+      </c>
+      <c r="H170">
+        <v>30</v>
+      </c>
+      <c r="I170" t="s">
+        <v>7</v>
+      </c>
+      <c r="J170" t="s">
+        <v>7</v>
+      </c>
+      <c r="K170" t="s">
+        <v>278</v>
+      </c>
+      <c r="L170" t="s">
+        <v>12</v>
+      </c>
+      <c r="M170" t="s">
+        <v>7</v>
+      </c>
+      <c r="N170" t="s">
+        <v>7</v>
+      </c>
+      <c r="O170" t="s">
+        <v>7</v>
+      </c>
+      <c r="P170" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>7</v>
+      </c>
+      <c r="R170" t="s">
+        <v>7</v>
+      </c>
+      <c r="S170" t="s">
+        <v>69</v>
+      </c>
+      <c r="T170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>174</v>
+      </c>
+      <c r="B171" t="s">
+        <v>746</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>747</v>
+      </c>
+      <c r="E171" t="s">
+        <v>754</v>
+      </c>
+      <c r="F171" t="s">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>7</v>
+      </c>
+      <c r="H171">
+        <v>30</v>
+      </c>
+      <c r="I171" t="s">
+        <v>7</v>
+      </c>
+      <c r="J171" t="s">
+        <v>7</v>
+      </c>
+      <c r="K171" t="s">
+        <v>322</v>
+      </c>
+      <c r="L171" t="s">
+        <v>12</v>
+      </c>
+      <c r="M171" t="s">
+        <v>7</v>
+      </c>
+      <c r="N171" t="s">
+        <v>7</v>
+      </c>
+      <c r="O171" t="s">
+        <v>7</v>
+      </c>
+      <c r="P171" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>7</v>
+      </c>
+      <c r="R171" t="s">
+        <v>7</v>
+      </c>
+      <c r="S171" t="s">
+        <v>69</v>
+      </c>
+      <c r="T171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>750</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>751</v>
+      </c>
+      <c r="E172" t="s">
+        <v>754</v>
+      </c>
+      <c r="F172" t="s">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>7</v>
+      </c>
+      <c r="H172">
+        <v>30</v>
+      </c>
+      <c r="I172" t="s">
+        <v>7</v>
+      </c>
+      <c r="J172" t="s">
+        <v>7</v>
+      </c>
+      <c r="K172" t="s">
+        <v>370</v>
+      </c>
+      <c r="L172" t="s">
+        <v>12</v>
+      </c>
+      <c r="M172" t="s">
+        <v>7</v>
+      </c>
+      <c r="N172" t="s">
+        <v>7</v>
+      </c>
+      <c r="O172" t="s">
+        <v>7</v>
+      </c>
+      <c r="P172" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>7</v>
+      </c>
+      <c r="R172" t="s">
+        <v>7</v>
+      </c>
+      <c r="S172" t="s">
+        <v>69</v>
+      </c>
+      <c r="T172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>176</v>
+      </c>
+      <c r="B173" t="s">
+        <v>752</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>753</v>
+      </c>
+      <c r="E173" t="s">
+        <v>754</v>
+      </c>
+      <c r="F173" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>7</v>
+      </c>
+      <c r="H173">
+        <v>30</v>
+      </c>
+      <c r="I173" t="s">
+        <v>7</v>
+      </c>
+      <c r="J173" t="s">
+        <v>7</v>
+      </c>
+      <c r="K173" t="s">
+        <v>407</v>
+      </c>
+      <c r="L173" t="s">
+        <v>12</v>
+      </c>
+      <c r="M173" t="s">
+        <v>7</v>
+      </c>
+      <c r="N173" t="s">
+        <v>7</v>
+      </c>
+      <c r="O173" t="s">
+        <v>7</v>
+      </c>
+      <c r="P173" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>7</v>
+      </c>
+      <c r="R173" t="s">
+        <v>7</v>
+      </c>
+      <c r="S173" t="s">
+        <v>69</v>
+      </c>
+      <c r="T173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>755</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>754</v>
+      </c>
+      <c r="F174" t="s">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>7</v>
+      </c>
+      <c r="H174">
+        <v>30</v>
+      </c>
+      <c r="I174" t="s">
+        <v>7</v>
+      </c>
+      <c r="J174" t="s">
+        <v>7</v>
+      </c>
+      <c r="K174" t="s">
+        <v>81</v>
+      </c>
+      <c r="L174" t="s">
+        <v>12</v>
+      </c>
+      <c r="M174" t="s">
+        <v>7</v>
+      </c>
+      <c r="N174" t="s">
+        <v>7</v>
+      </c>
+      <c r="O174" t="s">
+        <v>7</v>
+      </c>
+      <c r="P174" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>7</v>
+      </c>
+      <c r="R174" t="s">
+        <v>7</v>
+      </c>
+      <c r="S174" t="s">
+        <v>759</v>
+      </c>
+      <c r="T174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>178</v>
+      </c>
+      <c r="B175" t="s">
+        <v>756</v>
+      </c>
+      <c r="C175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>754</v>
+      </c>
+      <c r="F175" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>7</v>
+      </c>
+      <c r="H175">
+        <v>30</v>
+      </c>
+      <c r="I175" t="s">
+        <v>7</v>
+      </c>
+      <c r="J175" t="s">
+        <v>7</v>
+      </c>
+      <c r="K175" t="s">
+        <v>81</v>
+      </c>
+      <c r="L175" t="s">
+        <v>12</v>
+      </c>
+      <c r="M175" t="s">
+        <v>7</v>
+      </c>
+      <c r="N175" t="s">
+        <v>7</v>
+      </c>
+      <c r="O175" t="s">
+        <v>7</v>
+      </c>
+      <c r="P175" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>7</v>
+      </c>
+      <c r="R175" t="s">
+        <v>7</v>
+      </c>
+      <c r="S175" t="s">
+        <v>759</v>
+      </c>
+      <c r="T175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>757</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="s">
+        <v>754</v>
+      </c>
+      <c r="F176" t="s">
+        <v>7</v>
+      </c>
+      <c r="G176" t="s">
+        <v>7</v>
+      </c>
+      <c r="H176">
+        <v>30</v>
+      </c>
+      <c r="I176" t="s">
+        <v>7</v>
+      </c>
+      <c r="J176" t="s">
+        <v>7</v>
+      </c>
+      <c r="K176" t="s">
+        <v>81</v>
+      </c>
+      <c r="L176" t="s">
+        <v>12</v>
+      </c>
+      <c r="M176" t="s">
+        <v>7</v>
+      </c>
+      <c r="N176" t="s">
+        <v>7</v>
+      </c>
+      <c r="O176" t="s">
+        <v>7</v>
+      </c>
+      <c r="P176" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>7</v>
+      </c>
+      <c r="R176" t="s">
+        <v>7</v>
+      </c>
+      <c r="S176" t="s">
+        <v>759</v>
+      </c>
+      <c r="T176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>180</v>
+      </c>
+      <c r="B177" t="s">
+        <v>758</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>754</v>
+      </c>
+      <c r="F177" t="s">
+        <v>7</v>
+      </c>
+      <c r="G177" t="s">
+        <v>7</v>
+      </c>
+      <c r="H177">
+        <v>30</v>
+      </c>
+      <c r="I177" t="s">
+        <v>7</v>
+      </c>
+      <c r="J177" t="s">
+        <v>7</v>
+      </c>
+      <c r="K177" t="s">
+        <v>81</v>
+      </c>
+      <c r="L177" t="s">
+        <v>12</v>
+      </c>
+      <c r="M177" t="s">
+        <v>7</v>
+      </c>
+      <c r="N177" t="s">
+        <v>7</v>
+      </c>
+      <c r="O177" t="s">
+        <v>7</v>
+      </c>
+      <c r="P177" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>7</v>
+      </c>
+      <c r="R177" t="s">
+        <v>7</v>
+      </c>
+      <c r="S177" t="s">
+        <v>759</v>
+      </c>
+      <c r="T177" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A3:T3" xr:uid="{2AEDB8C0-503C-4F7A-A30F-CFADDE2703C4}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4479458-DE1D-4B4C-AFBC-2922BD3290FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356FE261-5324-46EF-8EC2-1E9AD3AC5078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="772">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2541,6 +2541,22 @@
   </si>
   <si>
     <t>法师|术士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风城国王安度因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师|圣骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部落大酋长萨尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨满祭司|战士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2981,14 +2997,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T178"/>
+  <dimension ref="A1:T180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H172" sqref="H172"/>
+      <pane ySplit="3" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="12.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -13966,7 +13985,7 @@
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B178" t="s">
         <v>759</v>
@@ -14023,6 +14042,130 @@
         <v>758</v>
       </c>
       <c r="T178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>183</v>
+      </c>
+      <c r="B179" t="s">
+        <v>768</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
+        <v>753</v>
+      </c>
+      <c r="F179" t="s">
+        <v>7</v>
+      </c>
+      <c r="G179" t="s">
+        <v>7</v>
+      </c>
+      <c r="H179">
+        <v>30</v>
+      </c>
+      <c r="I179" t="s">
+        <v>7</v>
+      </c>
+      <c r="J179" t="s">
+        <v>7</v>
+      </c>
+      <c r="K179" t="s">
+        <v>769</v>
+      </c>
+      <c r="L179" t="s">
+        <v>12</v>
+      </c>
+      <c r="M179" t="s">
+        <v>7</v>
+      </c>
+      <c r="N179" t="s">
+        <v>7</v>
+      </c>
+      <c r="O179" t="s">
+        <v>7</v>
+      </c>
+      <c r="P179" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>7</v>
+      </c>
+      <c r="R179" t="s">
+        <v>7</v>
+      </c>
+      <c r="S179" t="s">
+        <v>758</v>
+      </c>
+      <c r="T179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>184</v>
+      </c>
+      <c r="B180" t="s">
+        <v>770</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>753</v>
+      </c>
+      <c r="F180" t="s">
+        <v>7</v>
+      </c>
+      <c r="G180" t="s">
+        <v>7</v>
+      </c>
+      <c r="H180">
+        <v>30</v>
+      </c>
+      <c r="I180" t="s">
+        <v>7</v>
+      </c>
+      <c r="J180" t="s">
+        <v>7</v>
+      </c>
+      <c r="K180" t="s">
+        <v>771</v>
+      </c>
+      <c r="L180" t="s">
+        <v>12</v>
+      </c>
+      <c r="M180" t="s">
+        <v>7</v>
+      </c>
+      <c r="N180" t="s">
+        <v>7</v>
+      </c>
+      <c r="O180" t="s">
+        <v>7</v>
+      </c>
+      <c r="P180" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>7</v>
+      </c>
+      <c r="R180" t="s">
+        <v>7</v>
+      </c>
+      <c r="S180" t="s">
+        <v>758</v>
+      </c>
+      <c r="T180" t="b">
         <v>1</v>
       </c>
     </row>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356FE261-5324-46EF-8EC2-1E9AD3AC5078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15359D44-FC5E-459C-A1BB-95C10E0923A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="774">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2557,6 +2557,14 @@
   </si>
   <si>
     <t>萨满祭司|战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影议会领袖古尔丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨满祭司|术士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2997,11 +3005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T180"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
+      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -14166,6 +14174,68 @@
         <v>758</v>
       </c>
       <c r="T180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>185</v>
+      </c>
+      <c r="B181" t="s">
+        <v>772</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>753</v>
+      </c>
+      <c r="F181" t="s">
+        <v>7</v>
+      </c>
+      <c r="G181" t="s">
+        <v>7</v>
+      </c>
+      <c r="H181">
+        <v>30</v>
+      </c>
+      <c r="I181" t="s">
+        <v>7</v>
+      </c>
+      <c r="J181" t="s">
+        <v>7</v>
+      </c>
+      <c r="K181" t="s">
+        <v>773</v>
+      </c>
+      <c r="L181" t="s">
+        <v>12</v>
+      </c>
+      <c r="M181" t="s">
+        <v>7</v>
+      </c>
+      <c r="N181" t="s">
+        <v>7</v>
+      </c>
+      <c r="O181" t="s">
+        <v>7</v>
+      </c>
+      <c r="P181" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>7</v>
+      </c>
+      <c r="R181" t="s">
+        <v>7</v>
+      </c>
+      <c r="S181" t="s">
+        <v>758</v>
+      </c>
+      <c r="T181" t="b">
         <v>1</v>
       </c>
     </row>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15359D44-FC5E-459C-A1BB-95C10E0923A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE8183-742F-4EA1-A2DB-7E139EEB493D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2508,10 +2508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>麦迪文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_ei_profession</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2544,27 +2540,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴风城国王安度因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牧师|圣骑士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部落大酋长萨尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>萨满祭司|战士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暗影议会领袖古尔丹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>萨满祭司|术士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安度因国王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨尔大酋长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影之王古尔丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护者麦迪文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3009,7 +3009,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
+      <selection pane="bottomLeft" activeCell="H172" sqref="H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3173,7 +3173,7 @@
         <v>49</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>52</v>
@@ -13527,7 +13527,7 @@
         <v>7</v>
       </c>
       <c r="K170" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L170" t="s">
         <v>12</v>
@@ -13589,7 +13589,7 @@
         <v>7</v>
       </c>
       <c r="K171" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="L171" t="s">
         <v>12</v>
@@ -13775,7 +13775,7 @@
         <v>7</v>
       </c>
       <c r="K174" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L174" t="s">
         <v>12</v>
@@ -13837,7 +13837,7 @@
         <v>7</v>
       </c>
       <c r="K175" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L175" t="s">
         <v>12</v>
@@ -13899,7 +13899,7 @@
         <v>7</v>
       </c>
       <c r="K176" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="L176" t="s">
         <v>12</v>
@@ -13961,7 +13961,7 @@
         <v>7</v>
       </c>
       <c r="K177" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="L177" t="s">
         <v>12</v>
@@ -13996,7 +13996,7 @@
         <v>182</v>
       </c>
       <c r="B178" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -14023,7 +14023,7 @@
         <v>7</v>
       </c>
       <c r="K178" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L178" t="s">
         <v>12</v>
@@ -14058,7 +14058,7 @@
         <v>183</v>
       </c>
       <c r="B179" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C179" t="s">
         <v>7</v>
@@ -14085,7 +14085,7 @@
         <v>7</v>
       </c>
       <c r="K179" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L179" t="s">
         <v>12</v>
@@ -14120,7 +14120,7 @@
         <v>184</v>
       </c>
       <c r="B180" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C180" t="s">
         <v>7</v>
@@ -14147,7 +14147,7 @@
         <v>7</v>
       </c>
       <c r="K180" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="L180" t="s">
         <v>12</v>
@@ -14209,7 +14209,7 @@
         <v>7</v>
       </c>
       <c r="K181" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="L181" t="s">
         <v>12</v>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EE8183-742F-4EA1-A2DB-7E139EEB493D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C1CC63-2BEA-4654-B6DB-36FABB02A000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌表" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5884" uniqueCount="774">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3008,16 +3008,16 @@
   <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H172" sqref="H172"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="11" max="11" width="12.796875" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>115</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>42</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>43</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>44</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>45</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>46</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>47</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>48</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>49</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>50</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>51</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>52</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>53</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>54</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>55</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>56</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>57</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>58</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>59</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>60</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>61</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>62</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>63</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>64</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>65</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>66</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>67</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>68</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>69</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>70</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>71</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>72</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>73</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>74</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>75</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>76</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>77</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>78</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>79</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>80</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>81</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>82</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>83</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>84</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>85</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>86</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>87</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>88</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>89</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>90</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>91</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>92</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>93</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>94</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>95</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>96</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>97</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>98</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>99</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>100</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>101</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>102</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>103</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>104</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>105</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>106</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>107</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>108</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>109</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>110</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>111</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>112</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>113</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>114</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>121</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>122</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>123</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>124</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>125</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>126</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>127</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>128</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>129</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>130</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>131</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>132</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>133</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>134</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>135</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>136</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>137</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>138</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>139</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>140</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>141</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>142</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>143</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>144</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>145</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>146</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>147</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>148</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>149</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>150</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>151</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>152</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>153</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>154</v>
       </c>
@@ -12441,7 +12441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>155</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>156</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>157</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>158</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>159</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>160</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>161</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>162</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>163</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>164</v>
       </c>
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>165</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>166</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>168</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>169</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>170</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>171</v>
       </c>
@@ -13433,7 +13433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>172</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>173</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>174</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>175</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>176</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>177</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>178</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>179</v>
       </c>
@@ -13929,7 +13929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>180</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>182</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>183</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>184</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>185</v>
       </c>
@@ -14255,9 +14255,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>56</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3194</v>
       </c>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minieditor\project\dreamland\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512ED2C8-07E8-4A2B-802D-71FEF46E31A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DCA504-3514-4562-8B57-78E99C79244A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3076,8 +3076,8 @@
   <dimension ref="A1:U147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H157" sqref="H157"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7952,7 +7952,7 @@
         <v>471</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="G76">
         <v>2</v>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minieditor\project\dreamland\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DCA504-3514-4562-8B57-78E99C79244A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2872422-4FE3-45DC-B9AD-649F3E642ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="873">
   <si>
     <t>编号</t>
   </si>
@@ -1063,9 +1063,6 @@
     <t>CS2_004</t>
   </si>
   <si>
-    <t>使一个随从获得+2生命值。抽一张牌。</t>
-  </si>
-  <si>
     <t>Jessica Jung</t>
   </si>
   <si>
@@ -1144,9 +1141,6 @@
     <t>CS1_112</t>
   </si>
   <si>
-    <t>对所有敌人造成2点伤害，为所有友方角色恢复2点生命值。</t>
-  </si>
-  <si>
     <t>没有得到圣光眷顾的人切忌使用这个法术，它滋润善者，惩罚恶徒。</t>
   </si>
   <si>
@@ -2645,6 +2639,18 @@
   </si>
   <si>
     <t>萨满祭司|术士</t>
+  </si>
+  <si>
+    <t>使一个随从获得+2生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个随从造成3点伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对所有敌方随从造成2点伤害，为所有友方角色恢复2点生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3076,8 +3082,8 @@
   <dimension ref="A1:U147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F74" sqref="F74"/>
+      <pane ySplit="3" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6528,7 +6534,7 @@
         <v>56</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
         <v>52</v>
@@ -6555,16 +6561,16 @@
         <v>52</v>
       </c>
       <c r="P54" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>52</v>
+      </c>
+      <c r="R54" t="s">
         <v>344</v>
       </c>
-      <c r="Q54" t="s">
-        <v>52</v>
-      </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>345</v>
-      </c>
-      <c r="S54" t="s">
-        <v>346</v>
       </c>
       <c r="T54" t="s">
         <v>62</v>
@@ -6578,16 +6584,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
         <v>347</v>
       </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>348</v>
-      </c>
-      <c r="E55" t="s">
-        <v>349</v>
       </c>
       <c r="F55" t="s">
         <v>56</v>
@@ -6620,7 +6626,7 @@
         <v>52</v>
       </c>
       <c r="P55" t="s">
-        <v>130</v>
+        <v>871</v>
       </c>
       <c r="Q55" t="s">
         <v>52</v>
@@ -6629,7 +6635,7 @@
         <v>213</v>
       </c>
       <c r="S55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="T55" t="s">
         <v>62</v>
@@ -6643,16 +6649,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
+        <v>350</v>
+      </c>
+      <c r="C56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" t="s">
         <v>351</v>
       </c>
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>352</v>
-      </c>
-      <c r="E56" t="s">
-        <v>353</v>
       </c>
       <c r="F56" t="s">
         <v>56</v>
@@ -6685,16 +6691,16 @@
         <v>52</v>
       </c>
       <c r="P56" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>52</v>
+      </c>
+      <c r="R56" t="s">
         <v>354</v>
       </c>
-      <c r="Q56" t="s">
-        <v>52</v>
-      </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>355</v>
-      </c>
-      <c r="S56" t="s">
-        <v>356</v>
       </c>
       <c r="T56" t="s">
         <v>62</v>
@@ -6708,16 +6714,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
+        <v>356</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" t="s">
         <v>357</v>
       </c>
-      <c r="C57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>358</v>
-      </c>
-      <c r="E57" t="s">
-        <v>359</v>
       </c>
       <c r="F57" t="s">
         <v>56</v>
@@ -6750,16 +6756,16 @@
         <v>52</v>
       </c>
       <c r="P57" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>52</v>
+      </c>
+      <c r="R57" t="s">
         <v>360</v>
       </c>
-      <c r="Q57" t="s">
-        <v>52</v>
-      </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>361</v>
-      </c>
-      <c r="S57" t="s">
-        <v>362</v>
       </c>
       <c r="T57" t="s">
         <v>62</v>
@@ -6773,22 +6779,22 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
+        <v>362</v>
+      </c>
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" t="s">
         <v>363</v>
       </c>
-      <c r="C58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>364</v>
-      </c>
-      <c r="E58" t="s">
-        <v>365</v>
       </c>
       <c r="F58" t="s">
         <v>56</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" t="s">
         <v>52</v>
@@ -6815,16 +6821,16 @@
         <v>52</v>
       </c>
       <c r="P58" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>52</v>
+      </c>
+      <c r="R58" t="s">
+        <v>354</v>
+      </c>
+      <c r="S58" t="s">
         <v>366</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>52</v>
-      </c>
-      <c r="R58" t="s">
-        <v>355</v>
-      </c>
-      <c r="S58" t="s">
-        <v>367</v>
       </c>
       <c r="T58" t="s">
         <v>62</v>
@@ -6838,22 +6844,22 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
+        <v>367</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
         <v>368</v>
       </c>
-      <c r="C59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>369</v>
-      </c>
-      <c r="E59" t="s">
-        <v>370</v>
       </c>
       <c r="F59" t="s">
         <v>56</v>
       </c>
       <c r="G59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H59" t="s">
         <v>52</v>
@@ -6880,7 +6886,7 @@
         <v>52</v>
       </c>
       <c r="P59" t="s">
-        <v>371</v>
+        <v>872</v>
       </c>
       <c r="Q59" t="s">
         <v>52</v>
@@ -6889,7 +6895,7 @@
         <v>131</v>
       </c>
       <c r="S59" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="T59" t="s">
         <v>62</v>
@@ -6903,16 +6909,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
+        <v>371</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" t="s">
+        <v>372</v>
+      </c>
+      <c r="E60" t="s">
         <v>373</v>
-      </c>
-      <c r="C60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" t="s">
-        <v>374</v>
-      </c>
-      <c r="E60" t="s">
-        <v>375</v>
       </c>
       <c r="F60" t="s">
         <v>56</v>
@@ -6945,7 +6951,7 @@
         <v>52</v>
       </c>
       <c r="P60" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Q60" t="s">
         <v>52</v>
@@ -6954,7 +6960,7 @@
         <v>103</v>
       </c>
       <c r="S60" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="T60" t="s">
         <v>62</v>
@@ -6968,16 +6974,16 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
+        <v>378</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>379</v>
+      </c>
+      <c r="E61" t="s">
         <v>380</v>
-      </c>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" t="s">
-        <v>381</v>
-      </c>
-      <c r="E61" t="s">
-        <v>382</v>
       </c>
       <c r="F61" t="s">
         <v>56</v>
@@ -6998,28 +7004,28 @@
         <v>52</v>
       </c>
       <c r="L61" t="s">
+        <v>381</v>
+      </c>
+      <c r="M61" t="s">
+        <v>58</v>
+      </c>
+      <c r="N61" t="s">
+        <v>52</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>52</v>
+      </c>
+      <c r="R61" t="s">
         <v>383</v>
       </c>
-      <c r="M61" t="s">
-        <v>58</v>
-      </c>
-      <c r="N61" t="s">
-        <v>52</v>
-      </c>
-      <c r="O61" t="s">
-        <v>52</v>
-      </c>
-      <c r="P61" t="s">
+      <c r="S61" t="s">
         <v>384</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>52</v>
-      </c>
-      <c r="R61" t="s">
-        <v>385</v>
-      </c>
-      <c r="S61" t="s">
-        <v>386</v>
       </c>
       <c r="T61" t="s">
         <v>62</v>
@@ -7033,16 +7039,16 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
+        <v>385</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>386</v>
+      </c>
+      <c r="E62" t="s">
         <v>387</v>
-      </c>
-      <c r="C62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" t="s">
-        <v>388</v>
-      </c>
-      <c r="E62" t="s">
-        <v>389</v>
       </c>
       <c r="F62" t="s">
         <v>56</v>
@@ -7063,7 +7069,7 @@
         <v>52</v>
       </c>
       <c r="L62" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M62" t="s">
         <v>58</v>
@@ -7075,16 +7081,16 @@
         <v>52</v>
       </c>
       <c r="P62" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>52</v>
+      </c>
+      <c r="R62" t="s">
+        <v>389</v>
+      </c>
+      <c r="S62" t="s">
         <v>390</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>52</v>
-      </c>
-      <c r="R62" t="s">
-        <v>391</v>
-      </c>
-      <c r="S62" t="s">
-        <v>392</v>
       </c>
       <c r="T62" t="s">
         <v>62</v>
@@ -7098,16 +7104,16 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
+        <v>391</v>
+      </c>
+      <c r="C63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" t="s">
+        <v>392</v>
+      </c>
+      <c r="E63" t="s">
         <v>393</v>
-      </c>
-      <c r="C63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" t="s">
-        <v>394</v>
-      </c>
-      <c r="E63" t="s">
-        <v>395</v>
       </c>
       <c r="F63" t="s">
         <v>56</v>
@@ -7128,7 +7134,7 @@
         <v>52</v>
       </c>
       <c r="L63" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M63" t="s">
         <v>58</v>
@@ -7140,16 +7146,16 @@
         <v>52</v>
       </c>
       <c r="P63" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>52</v>
+      </c>
+      <c r="R63" t="s">
+        <v>395</v>
+      </c>
+      <c r="S63" t="s">
         <v>396</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>52</v>
-      </c>
-      <c r="R63" t="s">
-        <v>397</v>
-      </c>
-      <c r="S63" t="s">
-        <v>398</v>
       </c>
       <c r="T63" t="s">
         <v>62</v>
@@ -7163,16 +7169,16 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
+        <v>397</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" t="s">
+        <v>398</v>
+      </c>
+      <c r="E64" t="s">
         <v>399</v>
-      </c>
-      <c r="C64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" t="s">
-        <v>400</v>
-      </c>
-      <c r="E64" t="s">
-        <v>401</v>
       </c>
       <c r="F64" t="s">
         <v>56</v>
@@ -7193,7 +7199,7 @@
         <v>52</v>
       </c>
       <c r="L64" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M64" t="s">
         <v>58</v>
@@ -7205,16 +7211,16 @@
         <v>52</v>
       </c>
       <c r="P64" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>52</v>
+      </c>
+      <c r="R64" t="s">
+        <v>401</v>
+      </c>
+      <c r="S64" t="s">
         <v>402</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>52</v>
-      </c>
-      <c r="R64" t="s">
-        <v>403</v>
-      </c>
-      <c r="S64" t="s">
-        <v>404</v>
       </c>
       <c r="T64" t="s">
         <v>62</v>
@@ -7228,16 +7234,16 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
+        <v>403</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" t="s">
+        <v>404</v>
+      </c>
+      <c r="E65" t="s">
         <v>405</v>
-      </c>
-      <c r="C65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" t="s">
-        <v>406</v>
-      </c>
-      <c r="E65" t="s">
-        <v>407</v>
       </c>
       <c r="F65" t="s">
         <v>56</v>
@@ -7258,7 +7264,7 @@
         <v>52</v>
       </c>
       <c r="L65" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M65" t="s">
         <v>58</v>
@@ -7270,16 +7276,16 @@
         <v>52</v>
       </c>
       <c r="P65" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>52</v>
+      </c>
+      <c r="R65" t="s">
+        <v>407</v>
+      </c>
+      <c r="S65" t="s">
         <v>408</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>52</v>
-      </c>
-      <c r="R65" t="s">
-        <v>409</v>
-      </c>
-      <c r="S65" t="s">
-        <v>410</v>
       </c>
       <c r="T65" t="s">
         <v>62</v>
@@ -7293,16 +7299,16 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
+        <v>409</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" t="s">
+        <v>410</v>
+      </c>
+      <c r="E66" t="s">
         <v>411</v>
-      </c>
-      <c r="C66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" t="s">
-        <v>412</v>
-      </c>
-      <c r="E66" t="s">
-        <v>413</v>
       </c>
       <c r="F66" t="s">
         <v>56</v>
@@ -7323,7 +7329,7 @@
         <v>52</v>
       </c>
       <c r="L66" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M66" t="s">
         <v>58</v>
@@ -7335,16 +7341,16 @@
         <v>52</v>
       </c>
       <c r="P66" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>52</v>
+      </c>
+      <c r="R66" t="s">
+        <v>413</v>
+      </c>
+      <c r="S66" t="s">
         <v>414</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>52</v>
-      </c>
-      <c r="R66" t="s">
-        <v>415</v>
-      </c>
-      <c r="S66" t="s">
-        <v>416</v>
       </c>
       <c r="T66" t="s">
         <v>62</v>
@@ -7358,7 +7364,7 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C67" t="s">
         <v>52</v>
@@ -7385,7 +7391,7 @@
         <v>52</v>
       </c>
       <c r="L67" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M67" t="s">
         <v>58</v>
@@ -7397,16 +7403,16 @@
         <v>52</v>
       </c>
       <c r="P67" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>52</v>
+      </c>
+      <c r="R67" t="s">
+        <v>417</v>
+      </c>
+      <c r="S67" t="s">
         <v>418</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>52</v>
-      </c>
-      <c r="R67" t="s">
-        <v>419</v>
-      </c>
-      <c r="S67" t="s">
-        <v>420</v>
       </c>
       <c r="T67" t="s">
         <v>62</v>
@@ -7420,16 +7426,16 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
+        <v>419</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>420</v>
+      </c>
+      <c r="E68" t="s">
         <v>421</v>
-      </c>
-      <c r="C68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" t="s">
-        <v>422</v>
-      </c>
-      <c r="E68" t="s">
-        <v>423</v>
       </c>
       <c r="F68" t="s">
         <v>278</v>
@@ -7450,7 +7456,7 @@
         <v>52</v>
       </c>
       <c r="L68" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M68" t="s">
         <v>58</v>
@@ -7468,10 +7474,10 @@
         <v>52</v>
       </c>
       <c r="R68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="S68" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="T68" t="s">
         <v>62</v>
@@ -7485,16 +7491,16 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
+        <v>424</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>425</v>
+      </c>
+      <c r="E69" t="s">
         <v>426</v>
-      </c>
-      <c r="C69" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" t="s">
-        <v>427</v>
-      </c>
-      <c r="E69" t="s">
-        <v>428</v>
       </c>
       <c r="F69" t="s">
         <v>56</v>
@@ -7515,7 +7521,7 @@
         <v>52</v>
       </c>
       <c r="L69" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M69" t="s">
         <v>58</v>
@@ -7527,7 +7533,7 @@
         <v>52</v>
       </c>
       <c r="P69" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q69" t="s">
         <v>52</v>
@@ -7536,7 +7542,7 @@
         <v>279</v>
       </c>
       <c r="S69" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="T69" t="s">
         <v>62</v>
@@ -7550,16 +7556,16 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
+        <v>429</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>430</v>
+      </c>
+      <c r="E70" t="s">
         <v>431</v>
-      </c>
-      <c r="C70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" t="s">
-        <v>432</v>
-      </c>
-      <c r="E70" t="s">
-        <v>433</v>
       </c>
       <c r="F70" t="s">
         <v>56</v>
@@ -7580,7 +7586,7 @@
         <v>52</v>
       </c>
       <c r="L70" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M70" t="s">
         <v>58</v>
@@ -7592,16 +7598,16 @@
         <v>52</v>
       </c>
       <c r="P70" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>52</v>
+      </c>
+      <c r="R70" t="s">
+        <v>433</v>
+      </c>
+      <c r="S70" t="s">
         <v>434</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>52</v>
-      </c>
-      <c r="R70" t="s">
-        <v>435</v>
-      </c>
-      <c r="S70" t="s">
-        <v>436</v>
       </c>
       <c r="T70" t="s">
         <v>62</v>
@@ -7615,16 +7621,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>438</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" t="s">
+        <v>439</v>
+      </c>
+      <c r="E71" t="s">
         <v>440</v>
-      </c>
-      <c r="C71" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" t="s">
-        <v>441</v>
-      </c>
-      <c r="E71" t="s">
-        <v>442</v>
       </c>
       <c r="F71" t="s">
         <v>56</v>
@@ -7645,28 +7651,28 @@
         <v>52</v>
       </c>
       <c r="L71" t="s">
+        <v>441</v>
+      </c>
+      <c r="M71" t="s">
+        <v>58</v>
+      </c>
+      <c r="N71" t="s">
+        <v>52</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>52</v>
+      </c>
+      <c r="R71" t="s">
         <v>443</v>
       </c>
-      <c r="M71" t="s">
-        <v>58</v>
-      </c>
-      <c r="N71" t="s">
-        <v>52</v>
-      </c>
-      <c r="O71" t="s">
-        <v>52</v>
-      </c>
-      <c r="P71" t="s">
+      <c r="S71" t="s">
         <v>444</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>52</v>
-      </c>
-      <c r="R71" t="s">
-        <v>445</v>
-      </c>
-      <c r="S71" t="s">
-        <v>446</v>
       </c>
       <c r="T71" t="s">
         <v>62</v>
@@ -7680,16 +7686,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>445</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" t="s">
+        <v>446</v>
+      </c>
+      <c r="E72" t="s">
         <v>447</v>
-      </c>
-      <c r="C72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72" t="s">
-        <v>448</v>
-      </c>
-      <c r="E72" t="s">
-        <v>449</v>
       </c>
       <c r="F72" t="s">
         <v>56</v>
@@ -7710,7 +7716,7 @@
         <v>52</v>
       </c>
       <c r="L72" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M72" t="s">
         <v>58</v>
@@ -7722,16 +7728,16 @@
         <v>52</v>
       </c>
       <c r="P72" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>52</v>
+      </c>
+      <c r="R72" t="s">
+        <v>449</v>
+      </c>
+      <c r="S72" t="s">
         <v>450</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>52</v>
-      </c>
-      <c r="R72" t="s">
-        <v>451</v>
-      </c>
-      <c r="S72" t="s">
-        <v>452</v>
       </c>
       <c r="T72" t="s">
         <v>62</v>
@@ -7745,16 +7751,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>451</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" t="s">
+        <v>452</v>
+      </c>
+      <c r="E73" t="s">
         <v>453</v>
-      </c>
-      <c r="C73" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" t="s">
-        <v>454</v>
-      </c>
-      <c r="E73" t="s">
-        <v>455</v>
       </c>
       <c r="F73" t="s">
         <v>56</v>
@@ -7775,7 +7781,7 @@
         <v>52</v>
       </c>
       <c r="L73" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M73" t="s">
         <v>58</v>
@@ -7787,7 +7793,7 @@
         <v>52</v>
       </c>
       <c r="P73" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="Q73" t="s">
         <v>52</v>
@@ -7796,7 +7802,7 @@
         <v>109</v>
       </c>
       <c r="S73" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="T73" t="s">
         <v>62</v>
@@ -7810,16 +7816,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>456</v>
+      </c>
+      <c r="C74" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" t="s">
+        <v>457</v>
+      </c>
+      <c r="E74" t="s">
         <v>458</v>
-      </c>
-      <c r="C74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" t="s">
-        <v>459</v>
-      </c>
-      <c r="E74" t="s">
-        <v>460</v>
       </c>
       <c r="F74" t="s">
         <v>56</v>
@@ -7840,7 +7846,7 @@
         <v>52</v>
       </c>
       <c r="L74" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M74" t="s">
         <v>58</v>
@@ -7852,7 +7858,7 @@
         <v>52</v>
       </c>
       <c r="P74" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q74" t="s">
         <v>52</v>
@@ -7861,7 +7867,7 @@
         <v>109</v>
       </c>
       <c r="S74" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="T74" t="s">
         <v>62</v>
@@ -7875,16 +7881,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>461</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" t="s">
+        <v>462</v>
+      </c>
+      <c r="E75" t="s">
         <v>463</v>
-      </c>
-      <c r="C75" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" t="s">
-        <v>464</v>
-      </c>
-      <c r="E75" t="s">
-        <v>465</v>
       </c>
       <c r="F75" t="s">
         <v>56</v>
@@ -7905,7 +7911,7 @@
         <v>52</v>
       </c>
       <c r="L75" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M75" t="s">
         <v>58</v>
@@ -7917,16 +7923,16 @@
         <v>52</v>
       </c>
       <c r="P75" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>52</v>
+      </c>
+      <c r="R75" t="s">
+        <v>465</v>
+      </c>
+      <c r="S75" t="s">
         <v>466</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>52</v>
-      </c>
-      <c r="R75" t="s">
-        <v>467</v>
-      </c>
-      <c r="S75" t="s">
-        <v>468</v>
       </c>
       <c r="T75" t="s">
         <v>62</v>
@@ -7940,16 +7946,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>467</v>
+      </c>
+      <c r="C76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" t="s">
+        <v>468</v>
+      </c>
+      <c r="E76" t="s">
         <v>469</v>
-      </c>
-      <c r="C76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" t="s">
-        <v>470</v>
-      </c>
-      <c r="E76" t="s">
-        <v>471</v>
       </c>
       <c r="F76" t="s">
         <v>114</v>
@@ -7970,28 +7976,28 @@
         <v>52</v>
       </c>
       <c r="L76" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M76" t="s">
         <v>58</v>
       </c>
       <c r="N76" t="s">
+        <v>470</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>52</v>
+      </c>
+      <c r="R76" t="s">
         <v>472</v>
       </c>
-      <c r="O76" t="s">
-        <v>52</v>
-      </c>
-      <c r="P76" t="s">
+      <c r="S76" t="s">
         <v>473</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>52</v>
-      </c>
-      <c r="R76" t="s">
-        <v>474</v>
-      </c>
-      <c r="S76" t="s">
-        <v>475</v>
       </c>
       <c r="T76" t="s">
         <v>62</v>
@@ -8005,16 +8011,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>474</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" t="s">
+        <v>475</v>
+      </c>
+      <c r="E77" t="s">
         <v>476</v>
-      </c>
-      <c r="C77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" t="s">
-        <v>477</v>
-      </c>
-      <c r="E77" t="s">
-        <v>478</v>
       </c>
       <c r="F77" t="s">
         <v>56</v>
@@ -8035,7 +8041,7 @@
         <v>52</v>
       </c>
       <c r="L77" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M77" t="s">
         <v>58</v>
@@ -8047,16 +8053,16 @@
         <v>52</v>
       </c>
       <c r="P77" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>52</v>
+      </c>
+      <c r="R77" t="s">
+        <v>478</v>
+      </c>
+      <c r="S77" t="s">
         <v>479</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>52</v>
-      </c>
-      <c r="R77" t="s">
-        <v>480</v>
-      </c>
-      <c r="S77" t="s">
-        <v>481</v>
       </c>
       <c r="T77" t="s">
         <v>62</v>
@@ -8070,7 +8076,7 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C78" t="s">
         <v>260</v>
@@ -8132,16 +8138,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>481</v>
+      </c>
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" t="s">
+        <v>482</v>
+      </c>
+      <c r="E79" t="s">
         <v>483</v>
-      </c>
-      <c r="C79" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" t="s">
-        <v>484</v>
-      </c>
-      <c r="E79" t="s">
-        <v>485</v>
       </c>
       <c r="F79" t="s">
         <v>114</v>
@@ -8162,7 +8168,7 @@
         <v>52</v>
       </c>
       <c r="L79" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M79" t="s">
         <v>58</v>
@@ -8174,16 +8180,16 @@
         <v>52</v>
       </c>
       <c r="P79" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q79" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="R79" t="s">
         <v>237</v>
       </c>
       <c r="S79" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="T79" t="s">
         <v>62</v>
@@ -8197,16 +8203,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>486</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" t="s">
+        <v>487</v>
+      </c>
+      <c r="E80" t="s">
         <v>488</v>
-      </c>
-      <c r="C80" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" t="s">
-        <v>489</v>
-      </c>
-      <c r="E80" t="s">
-        <v>490</v>
       </c>
       <c r="F80" t="s">
         <v>56</v>
@@ -8227,7 +8233,7 @@
         <v>52</v>
       </c>
       <c r="L80" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M80" t="s">
         <v>58</v>
@@ -8239,7 +8245,7 @@
         <v>52</v>
       </c>
       <c r="P80" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="Q80" t="s">
         <v>52</v>
@@ -8248,7 +8254,7 @@
         <v>131</v>
       </c>
       <c r="S80" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="T80" t="s">
         <v>62</v>
@@ -8262,16 +8268,16 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>491</v>
+      </c>
+      <c r="C81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" t="s">
+        <v>492</v>
+      </c>
+      <c r="E81" t="s">
         <v>493</v>
-      </c>
-      <c r="C81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" t="s">
-        <v>494</v>
-      </c>
-      <c r="E81" t="s">
-        <v>495</v>
       </c>
       <c r="F81" t="s">
         <v>114</v>
@@ -8292,7 +8298,7 @@
         <v>52</v>
       </c>
       <c r="L81" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M81" t="s">
         <v>58</v>
@@ -8304,16 +8310,16 @@
         <v>52</v>
       </c>
       <c r="P81" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q81" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R81" t="s">
         <v>250</v>
       </c>
       <c r="S81" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="T81" t="s">
         <v>62</v>
@@ -8327,16 +8333,16 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
+        <v>505</v>
+      </c>
+      <c r="C82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" t="s">
+        <v>506</v>
+      </c>
+      <c r="E82" t="s">
         <v>507</v>
-      </c>
-      <c r="C82" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" t="s">
-        <v>508</v>
-      </c>
-      <c r="E82" t="s">
-        <v>509</v>
       </c>
       <c r="F82" t="s">
         <v>56</v>
@@ -8357,7 +8363,7 @@
         <v>52</v>
       </c>
       <c r="L82" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M82" t="s">
         <v>58</v>
@@ -8369,7 +8375,7 @@
         <v>52</v>
       </c>
       <c r="P82" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="Q82" t="s">
         <v>52</v>
@@ -8378,7 +8384,7 @@
         <v>207</v>
       </c>
       <c r="S82" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="T82" t="s">
         <v>62</v>
@@ -8392,16 +8398,16 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
+        <v>511</v>
+      </c>
+      <c r="C83" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" t="s">
+        <v>512</v>
+      </c>
+      <c r="E83" t="s">
         <v>513</v>
-      </c>
-      <c r="C83" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" t="s">
-        <v>514</v>
-      </c>
-      <c r="E83" t="s">
-        <v>515</v>
       </c>
       <c r="F83" t="s">
         <v>56</v>
@@ -8422,7 +8428,7 @@
         <v>52</v>
       </c>
       <c r="L83" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M83" t="s">
         <v>58</v>
@@ -8434,16 +8440,16 @@
         <v>52</v>
       </c>
       <c r="P83" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>52</v>
+      </c>
+      <c r="R83" t="s">
+        <v>515</v>
+      </c>
+      <c r="S83" t="s">
         <v>516</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>52</v>
-      </c>
-      <c r="R83" t="s">
-        <v>517</v>
-      </c>
-      <c r="S83" t="s">
-        <v>518</v>
       </c>
       <c r="T83" t="s">
         <v>62</v>
@@ -8457,16 +8463,16 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
+        <v>517</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" t="s">
+        <v>518</v>
+      </c>
+      <c r="E84" t="s">
         <v>519</v>
-      </c>
-      <c r="C84" t="s">
-        <v>52</v>
-      </c>
-      <c r="D84" t="s">
-        <v>520</v>
-      </c>
-      <c r="E84" t="s">
-        <v>521</v>
       </c>
       <c r="F84" t="s">
         <v>56</v>
@@ -8487,7 +8493,7 @@
         <v>52</v>
       </c>
       <c r="L84" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M84" t="s">
         <v>58</v>
@@ -8499,16 +8505,16 @@
         <v>52</v>
       </c>
       <c r="P84" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q84" t="s">
         <v>52</v>
       </c>
       <c r="R84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S84" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="T84" t="s">
         <v>62</v>
@@ -8522,16 +8528,16 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
+        <v>522</v>
+      </c>
+      <c r="C85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D85" t="s">
+        <v>523</v>
+      </c>
+      <c r="E85" t="s">
         <v>524</v>
-      </c>
-      <c r="C85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" t="s">
-        <v>525</v>
-      </c>
-      <c r="E85" t="s">
-        <v>526</v>
       </c>
       <c r="F85" t="s">
         <v>56</v>
@@ -8552,7 +8558,7 @@
         <v>52</v>
       </c>
       <c r="L85" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M85" t="s">
         <v>58</v>
@@ -8564,16 +8570,16 @@
         <v>52</v>
       </c>
       <c r="P85" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>52</v>
+      </c>
+      <c r="R85" t="s">
+        <v>526</v>
+      </c>
+      <c r="S85" t="s">
         <v>527</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>52</v>
-      </c>
-      <c r="R85" t="s">
-        <v>528</v>
-      </c>
-      <c r="S85" t="s">
-        <v>529</v>
       </c>
       <c r="T85" t="s">
         <v>62</v>
@@ -8587,16 +8593,16 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
+        <v>528</v>
+      </c>
+      <c r="C86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" t="s">
+        <v>529</v>
+      </c>
+      <c r="E86" t="s">
         <v>530</v>
-      </c>
-      <c r="C86" t="s">
-        <v>52</v>
-      </c>
-      <c r="D86" t="s">
-        <v>531</v>
-      </c>
-      <c r="E86" t="s">
-        <v>532</v>
       </c>
       <c r="F86" t="s">
         <v>114</v>
@@ -8617,13 +8623,13 @@
         <v>52</v>
       </c>
       <c r="L86" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M86" t="s">
         <v>58</v>
       </c>
       <c r="N86" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O86" t="s">
         <v>52</v>
@@ -8638,7 +8644,7 @@
         <v>109</v>
       </c>
       <c r="S86" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="T86" t="s">
         <v>62</v>
@@ -8652,7 +8658,7 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C87" t="s">
         <v>52</v>
@@ -8679,28 +8685,28 @@
         <v>52</v>
       </c>
       <c r="L87" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M87" t="s">
         <v>58</v>
       </c>
       <c r="N87" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O87" t="s">
         <v>52</v>
       </c>
       <c r="P87" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>52</v>
+      </c>
+      <c r="R87" t="s">
+        <v>535</v>
+      </c>
+      <c r="S87" t="s">
         <v>536</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>52</v>
-      </c>
-      <c r="R87" t="s">
-        <v>537</v>
-      </c>
-      <c r="S87" t="s">
-        <v>538</v>
       </c>
       <c r="T87" t="s">
         <v>62</v>
@@ -8714,16 +8720,16 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
+        <v>537</v>
+      </c>
+      <c r="C88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" t="s">
+        <v>538</v>
+      </c>
+      <c r="E88" t="s">
         <v>539</v>
-      </c>
-      <c r="C88" t="s">
-        <v>52</v>
-      </c>
-      <c r="D88" t="s">
-        <v>540</v>
-      </c>
-      <c r="E88" t="s">
-        <v>541</v>
       </c>
       <c r="F88" t="s">
         <v>56</v>
@@ -8744,7 +8750,7 @@
         <v>52</v>
       </c>
       <c r="L88" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M88" t="s">
         <v>58</v>
@@ -8756,7 +8762,7 @@
         <v>52</v>
       </c>
       <c r="P88" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q88" t="s">
         <v>52</v>
@@ -8765,7 +8771,7 @@
         <v>109</v>
       </c>
       <c r="S88" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="T88" t="s">
         <v>62</v>
@@ -8779,16 +8785,16 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
+        <v>542</v>
+      </c>
+      <c r="C89" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" t="s">
+        <v>543</v>
+      </c>
+      <c r="E89" t="s">
         <v>544</v>
-      </c>
-      <c r="C89" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89" t="s">
-        <v>545</v>
-      </c>
-      <c r="E89" t="s">
-        <v>546</v>
       </c>
       <c r="F89" t="s">
         <v>56</v>
@@ -8809,7 +8815,7 @@
         <v>52</v>
       </c>
       <c r="L89" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M89" t="s">
         <v>58</v>
@@ -8821,7 +8827,7 @@
         <v>52</v>
       </c>
       <c r="P89" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="Q89" t="s">
         <v>52</v>
@@ -8830,7 +8836,7 @@
         <v>116</v>
       </c>
       <c r="S89" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="T89" t="s">
         <v>62</v>
@@ -8844,16 +8850,16 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
+        <v>547</v>
+      </c>
+      <c r="C90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" t="s">
+        <v>548</v>
+      </c>
+      <c r="E90" t="s">
         <v>549</v>
-      </c>
-      <c r="C90" t="s">
-        <v>52</v>
-      </c>
-      <c r="D90" t="s">
-        <v>550</v>
-      </c>
-      <c r="E90" t="s">
-        <v>551</v>
       </c>
       <c r="F90" t="s">
         <v>56</v>
@@ -8874,7 +8880,7 @@
         <v>52</v>
       </c>
       <c r="L90" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M90" t="s">
         <v>58</v>
@@ -8886,16 +8892,16 @@
         <v>52</v>
       </c>
       <c r="P90" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>52</v>
+      </c>
+      <c r="R90" t="s">
+        <v>551</v>
+      </c>
+      <c r="S90" t="s">
         <v>552</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>52</v>
-      </c>
-      <c r="R90" t="s">
-        <v>553</v>
-      </c>
-      <c r="S90" t="s">
-        <v>554</v>
       </c>
       <c r="T90" t="s">
         <v>62</v>
@@ -8909,16 +8915,16 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
+        <v>553</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" t="s">
+        <v>554</v>
+      </c>
+      <c r="E91" t="s">
         <v>555</v>
-      </c>
-      <c r="C91" t="s">
-        <v>52</v>
-      </c>
-      <c r="D91" t="s">
-        <v>556</v>
-      </c>
-      <c r="E91" t="s">
-        <v>557</v>
       </c>
       <c r="F91" t="s">
         <v>114</v>
@@ -8939,19 +8945,19 @@
         <v>52</v>
       </c>
       <c r="L91" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M91" t="s">
         <v>58</v>
       </c>
       <c r="N91" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="O91" t="s">
         <v>52</v>
       </c>
       <c r="P91" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Q91" t="s">
         <v>52</v>
@@ -8960,7 +8966,7 @@
         <v>291</v>
       </c>
       <c r="S91" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T91" t="s">
         <v>62</v>
@@ -8980,10 +8986,10 @@
         <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E92" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F92" t="s">
         <v>56</v>
@@ -9004,7 +9010,7 @@
         <v>52</v>
       </c>
       <c r="L92" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M92" t="s">
         <v>58</v>
@@ -9016,7 +9022,7 @@
         <v>52</v>
       </c>
       <c r="P92" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q92" t="s">
         <v>52</v>
@@ -9025,7 +9031,7 @@
         <v>109</v>
       </c>
       <c r="S92" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="T92" t="s">
         <v>62</v>
@@ -9039,16 +9045,16 @@
         <v>105</v>
       </c>
       <c r="B93" t="s">
+        <v>565</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93" t="s">
+        <v>566</v>
+      </c>
+      <c r="E93" t="s">
         <v>567</v>
-      </c>
-      <c r="C93" t="s">
-        <v>52</v>
-      </c>
-      <c r="D93" t="s">
-        <v>568</v>
-      </c>
-      <c r="E93" t="s">
-        <v>569</v>
       </c>
       <c r="F93" t="s">
         <v>56</v>
@@ -9069,7 +9075,7 @@
         <v>52</v>
       </c>
       <c r="L93" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M93" t="s">
         <v>58</v>
@@ -9081,16 +9087,16 @@
         <v>52</v>
       </c>
       <c r="P93" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>52</v>
+      </c>
+      <c r="R93" t="s">
+        <v>569</v>
+      </c>
+      <c r="S93" t="s">
         <v>570</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>52</v>
-      </c>
-      <c r="R93" t="s">
-        <v>571</v>
-      </c>
-      <c r="S93" t="s">
-        <v>572</v>
       </c>
       <c r="T93" t="s">
         <v>62</v>
@@ -9104,16 +9110,16 @@
         <v>106</v>
       </c>
       <c r="B94" t="s">
+        <v>571</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94" t="s">
+        <v>572</v>
+      </c>
+      <c r="E94" t="s">
         <v>573</v>
-      </c>
-      <c r="C94" t="s">
-        <v>52</v>
-      </c>
-      <c r="D94" t="s">
-        <v>574</v>
-      </c>
-      <c r="E94" t="s">
-        <v>575</v>
       </c>
       <c r="F94" t="s">
         <v>56</v>
@@ -9134,7 +9140,7 @@
         <v>52</v>
       </c>
       <c r="L94" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M94" t="s">
         <v>58</v>
@@ -9146,7 +9152,7 @@
         <v>52</v>
       </c>
       <c r="P94" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Q94" t="s">
         <v>52</v>
@@ -9155,7 +9161,7 @@
         <v>73</v>
       </c>
       <c r="S94" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="T94" t="s">
         <v>62</v>
@@ -9169,16 +9175,16 @@
         <v>107</v>
       </c>
       <c r="B95" t="s">
+        <v>576</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" t="s">
+        <v>577</v>
+      </c>
+      <c r="E95" t="s">
         <v>578</v>
-      </c>
-      <c r="C95" t="s">
-        <v>52</v>
-      </c>
-      <c r="D95" t="s">
-        <v>579</v>
-      </c>
-      <c r="E95" t="s">
-        <v>580</v>
       </c>
       <c r="F95" t="s">
         <v>56</v>
@@ -9199,7 +9205,7 @@
         <v>52</v>
       </c>
       <c r="L95" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M95" t="s">
         <v>58</v>
@@ -9211,16 +9217,16 @@
         <v>52</v>
       </c>
       <c r="P95" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Q95" t="s">
         <v>52</v>
       </c>
       <c r="R95" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="S95" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="T95" t="s">
         <v>62</v>
@@ -9234,16 +9240,16 @@
         <v>108</v>
       </c>
       <c r="B96" t="s">
+        <v>581</v>
+      </c>
+      <c r="C96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D96" t="s">
+        <v>582</v>
+      </c>
+      <c r="E96" t="s">
         <v>583</v>
-      </c>
-      <c r="C96" t="s">
-        <v>52</v>
-      </c>
-      <c r="D96" t="s">
-        <v>584</v>
-      </c>
-      <c r="E96" t="s">
-        <v>585</v>
       </c>
       <c r="F96" t="s">
         <v>56</v>
@@ -9264,7 +9270,7 @@
         <v>52</v>
       </c>
       <c r="L96" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M96" t="s">
         <v>58</v>
@@ -9276,16 +9282,16 @@
         <v>52</v>
       </c>
       <c r="P96" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>52</v>
+      </c>
+      <c r="R96" t="s">
+        <v>585</v>
+      </c>
+      <c r="S96" t="s">
         <v>586</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>52</v>
-      </c>
-      <c r="R96" t="s">
-        <v>587</v>
-      </c>
-      <c r="S96" t="s">
-        <v>588</v>
       </c>
       <c r="T96" t="s">
         <v>62</v>
@@ -9299,16 +9305,16 @@
         <v>109</v>
       </c>
       <c r="B97" t="s">
+        <v>587</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+      <c r="D97" t="s">
+        <v>588</v>
+      </c>
+      <c r="E97" t="s">
         <v>589</v>
-      </c>
-      <c r="C97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" t="s">
-        <v>590</v>
-      </c>
-      <c r="E97" t="s">
-        <v>591</v>
       </c>
       <c r="F97" t="s">
         <v>114</v>
@@ -9329,7 +9335,7 @@
         <v>52</v>
       </c>
       <c r="L97" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M97" t="s">
         <v>58</v>
@@ -9341,7 +9347,7 @@
         <v>52</v>
       </c>
       <c r="P97" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Q97" t="s">
         <v>52</v>
@@ -9350,7 +9356,7 @@
         <v>156</v>
       </c>
       <c r="S97" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="T97" t="s">
         <v>62</v>
@@ -9364,16 +9370,16 @@
         <v>110</v>
       </c>
       <c r="B98" t="s">
+        <v>592</v>
+      </c>
+      <c r="C98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" t="s">
+        <v>593</v>
+      </c>
+      <c r="E98" t="s">
         <v>594</v>
-      </c>
-      <c r="C98" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" t="s">
-        <v>595</v>
-      </c>
-      <c r="E98" t="s">
-        <v>596</v>
       </c>
       <c r="F98" t="s">
         <v>278</v>
@@ -9394,7 +9400,7 @@
         <v>52</v>
       </c>
       <c r="L98" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M98" t="s">
         <v>58</v>
@@ -9415,7 +9421,7 @@
         <v>308</v>
       </c>
       <c r="S98" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="T98" t="s">
         <v>62</v>
@@ -9429,16 +9435,16 @@
         <v>111</v>
       </c>
       <c r="B99" t="s">
+        <v>596</v>
+      </c>
+      <c r="C99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" t="s">
+        <v>597</v>
+      </c>
+      <c r="E99" t="s">
         <v>598</v>
-      </c>
-      <c r="C99" t="s">
-        <v>52</v>
-      </c>
-      <c r="D99" t="s">
-        <v>599</v>
-      </c>
-      <c r="E99" t="s">
-        <v>600</v>
       </c>
       <c r="F99" t="s">
         <v>56</v>
@@ -9459,7 +9465,7 @@
         <v>52</v>
       </c>
       <c r="L99" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M99" t="s">
         <v>58</v>
@@ -9471,7 +9477,7 @@
         <v>52</v>
       </c>
       <c r="P99" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Q99" t="s">
         <v>52</v>
@@ -9480,7 +9486,7 @@
         <v>339</v>
       </c>
       <c r="S99" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="T99" t="s">
         <v>62</v>
@@ -9494,16 +9500,16 @@
         <v>112</v>
       </c>
       <c r="B100" t="s">
+        <v>601</v>
+      </c>
+      <c r="C100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" t="s">
+        <v>602</v>
+      </c>
+      <c r="E100" t="s">
         <v>603</v>
-      </c>
-      <c r="C100" t="s">
-        <v>52</v>
-      </c>
-      <c r="D100" t="s">
-        <v>604</v>
-      </c>
-      <c r="E100" t="s">
-        <v>605</v>
       </c>
       <c r="F100" t="s">
         <v>114</v>
@@ -9524,7 +9530,7 @@
         <v>52</v>
       </c>
       <c r="L100" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M100" t="s">
         <v>58</v>
@@ -9545,7 +9551,7 @@
         <v>109</v>
       </c>
       <c r="S100" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="T100" t="s">
         <v>62</v>
@@ -9559,16 +9565,16 @@
         <v>113</v>
       </c>
       <c r="B101" t="s">
+        <v>605</v>
+      </c>
+      <c r="C101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" t="s">
+        <v>606</v>
+      </c>
+      <c r="E101" t="s">
         <v>607</v>
-      </c>
-      <c r="C101" t="s">
-        <v>52</v>
-      </c>
-      <c r="D101" t="s">
-        <v>608</v>
-      </c>
-      <c r="E101" t="s">
-        <v>609</v>
       </c>
       <c r="F101" t="s">
         <v>278</v>
@@ -9589,7 +9595,7 @@
         <v>52</v>
       </c>
       <c r="L101" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M101" t="s">
         <v>58</v>
@@ -9607,10 +9613,10 @@
         <v>52</v>
       </c>
       <c r="R101" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="S101" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="T101" t="s">
         <v>62</v>
@@ -9624,16 +9630,16 @@
         <v>121</v>
       </c>
       <c r="B102" t="s">
+        <v>612</v>
+      </c>
+      <c r="C102" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" t="s">
+        <v>613</v>
+      </c>
+      <c r="E102" t="s">
         <v>614</v>
-      </c>
-      <c r="C102" t="s">
-        <v>52</v>
-      </c>
-      <c r="D102" t="s">
-        <v>615</v>
-      </c>
-      <c r="E102" t="s">
-        <v>616</v>
       </c>
       <c r="F102" t="s">
         <v>114</v>
@@ -9666,16 +9672,16 @@
         <v>52</v>
       </c>
       <c r="P102" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>616</v>
+      </c>
+      <c r="R102" t="s">
         <v>617</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="S102" t="s">
         <v>618</v>
-      </c>
-      <c r="R102" t="s">
-        <v>619</v>
-      </c>
-      <c r="S102" t="s">
-        <v>620</v>
       </c>
       <c r="T102" t="s">
         <v>62</v>
@@ -9689,16 +9695,16 @@
         <v>122</v>
       </c>
       <c r="B103" t="s">
+        <v>619</v>
+      </c>
+      <c r="C103" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" t="s">
+        <v>620</v>
+      </c>
+      <c r="E103" t="s">
         <v>621</v>
-      </c>
-      <c r="C103" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" t="s">
-        <v>622</v>
-      </c>
-      <c r="E103" t="s">
-        <v>623</v>
       </c>
       <c r="F103" t="s">
         <v>114</v>
@@ -9725,22 +9731,22 @@
         <v>58</v>
       </c>
       <c r="N103" t="s">
+        <v>622</v>
+      </c>
+      <c r="O103" t="s">
+        <v>52</v>
+      </c>
+      <c r="P103" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>52</v>
+      </c>
+      <c r="R103" t="s">
         <v>624</v>
       </c>
-      <c r="O103" t="s">
-        <v>52</v>
-      </c>
-      <c r="P103" t="s">
+      <c r="S103" t="s">
         <v>625</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>52</v>
-      </c>
-      <c r="R103" t="s">
-        <v>626</v>
-      </c>
-      <c r="S103" t="s">
-        <v>627</v>
       </c>
       <c r="T103" t="s">
         <v>62</v>
@@ -9754,16 +9760,16 @@
         <v>123</v>
       </c>
       <c r="B104" t="s">
+        <v>626</v>
+      </c>
+      <c r="C104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" t="s">
+        <v>627</v>
+      </c>
+      <c r="E104" t="s">
         <v>628</v>
-      </c>
-      <c r="C104" t="s">
-        <v>52</v>
-      </c>
-      <c r="D104" t="s">
-        <v>629</v>
-      </c>
-      <c r="E104" t="s">
-        <v>630</v>
       </c>
       <c r="F104" t="s">
         <v>114</v>
@@ -9805,7 +9811,7 @@
         <v>219</v>
       </c>
       <c r="S104" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="T104" t="s">
         <v>62</v>
@@ -9819,16 +9825,16 @@
         <v>124</v>
       </c>
       <c r="B105" t="s">
+        <v>630</v>
+      </c>
+      <c r="C105" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" t="s">
+        <v>631</v>
+      </c>
+      <c r="E105" t="s">
         <v>632</v>
-      </c>
-      <c r="C105" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" t="s">
-        <v>633</v>
-      </c>
-      <c r="E105" t="s">
-        <v>634</v>
       </c>
       <c r="F105" t="s">
         <v>114</v>
@@ -9861,16 +9867,16 @@
         <v>52</v>
       </c>
       <c r="P105" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="Q105" t="s">
         <v>59</v>
       </c>
       <c r="R105" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="S105" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="T105" t="s">
         <v>62</v>
@@ -9884,16 +9890,16 @@
         <v>125</v>
       </c>
       <c r="B106" t="s">
+        <v>636</v>
+      </c>
+      <c r="C106" t="s">
+        <v>52</v>
+      </c>
+      <c r="D106" t="s">
+        <v>637</v>
+      </c>
+      <c r="E106" t="s">
         <v>638</v>
-      </c>
-      <c r="C106" t="s">
-        <v>52</v>
-      </c>
-      <c r="D106" t="s">
-        <v>639</v>
-      </c>
-      <c r="E106" t="s">
-        <v>640</v>
       </c>
       <c r="F106" t="s">
         <v>114</v>
@@ -9932,10 +9938,10 @@
         <v>52</v>
       </c>
       <c r="R106" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="S106" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="T106" t="s">
         <v>62</v>
@@ -9949,16 +9955,16 @@
         <v>126</v>
       </c>
       <c r="B107" t="s">
+        <v>641</v>
+      </c>
+      <c r="C107" t="s">
+        <v>52</v>
+      </c>
+      <c r="D107" t="s">
+        <v>642</v>
+      </c>
+      <c r="E107" t="s">
         <v>643</v>
-      </c>
-      <c r="C107" t="s">
-        <v>52</v>
-      </c>
-      <c r="D107" t="s">
-        <v>644</v>
-      </c>
-      <c r="E107" t="s">
-        <v>645</v>
       </c>
       <c r="F107" t="s">
         <v>114</v>
@@ -9985,7 +9991,7 @@
         <v>58</v>
       </c>
       <c r="N107" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O107" t="s">
         <v>52</v>
@@ -9997,10 +10003,10 @@
         <v>52</v>
       </c>
       <c r="R107" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S107" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="T107" t="s">
         <v>62</v>
@@ -10014,16 +10020,16 @@
         <v>127</v>
       </c>
       <c r="B108" t="s">
+        <v>645</v>
+      </c>
+      <c r="C108" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" t="s">
+        <v>646</v>
+      </c>
+      <c r="E108" t="s">
         <v>647</v>
-      </c>
-      <c r="C108" t="s">
-        <v>52</v>
-      </c>
-      <c r="D108" t="s">
-        <v>648</v>
-      </c>
-      <c r="E108" t="s">
-        <v>649</v>
       </c>
       <c r="F108" t="s">
         <v>114</v>
@@ -10056,16 +10062,16 @@
         <v>52</v>
       </c>
       <c r="P108" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="Q108" t="s">
         <v>52</v>
       </c>
       <c r="R108" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="S108" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="T108" t="s">
         <v>62</v>
@@ -10079,16 +10085,16 @@
         <v>128</v>
       </c>
       <c r="B109" t="s">
+        <v>650</v>
+      </c>
+      <c r="C109" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" t="s">
+        <v>651</v>
+      </c>
+      <c r="E109" t="s">
         <v>652</v>
-      </c>
-      <c r="C109" t="s">
-        <v>52</v>
-      </c>
-      <c r="D109" t="s">
-        <v>653</v>
-      </c>
-      <c r="E109" t="s">
-        <v>654</v>
       </c>
       <c r="F109" t="s">
         <v>114</v>
@@ -10130,7 +10136,7 @@
         <v>285</v>
       </c>
       <c r="S109" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="T109" t="s">
         <v>62</v>
@@ -10144,16 +10150,16 @@
         <v>129</v>
       </c>
       <c r="B110" t="s">
+        <v>654</v>
+      </c>
+      <c r="C110" t="s">
+        <v>52</v>
+      </c>
+      <c r="D110" t="s">
+        <v>655</v>
+      </c>
+      <c r="E110" t="s">
         <v>656</v>
-      </c>
-      <c r="C110" t="s">
-        <v>52</v>
-      </c>
-      <c r="D110" t="s">
-        <v>657</v>
-      </c>
-      <c r="E110" t="s">
-        <v>658</v>
       </c>
       <c r="F110" t="s">
         <v>114</v>
@@ -10186,16 +10192,16 @@
         <v>52</v>
       </c>
       <c r="P110" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q110" t="s">
         <v>52</v>
       </c>
       <c r="R110" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="S110" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="T110" t="s">
         <v>62</v>
@@ -10209,16 +10215,16 @@
         <v>130</v>
       </c>
       <c r="B111" t="s">
+        <v>659</v>
+      </c>
+      <c r="C111" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" t="s">
+        <v>660</v>
+      </c>
+      <c r="E111" t="s">
         <v>661</v>
-      </c>
-      <c r="C111" t="s">
-        <v>52</v>
-      </c>
-      <c r="D111" t="s">
-        <v>662</v>
-      </c>
-      <c r="E111" t="s">
-        <v>663</v>
       </c>
       <c r="F111" t="s">
         <v>114</v>
@@ -10245,7 +10251,7 @@
         <v>58</v>
       </c>
       <c r="N111" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O111" t="s">
         <v>52</v>
@@ -10257,10 +10263,10 @@
         <v>52</v>
       </c>
       <c r="R111" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="S111" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="T111" t="s">
         <v>62</v>
@@ -10274,16 +10280,16 @@
         <v>131</v>
       </c>
       <c r="B112" t="s">
+        <v>664</v>
+      </c>
+      <c r="C112" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" t="s">
+        <v>665</v>
+      </c>
+      <c r="E112" t="s">
         <v>666</v>
-      </c>
-      <c r="C112" t="s">
-        <v>52</v>
-      </c>
-      <c r="D112" t="s">
-        <v>667</v>
-      </c>
-      <c r="E112" t="s">
-        <v>668</v>
       </c>
       <c r="F112" t="s">
         <v>114</v>
@@ -10325,7 +10331,7 @@
         <v>175</v>
       </c>
       <c r="S112" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="T112" t="s">
         <v>62</v>
@@ -10339,16 +10345,16 @@
         <v>132</v>
       </c>
       <c r="B113" t="s">
+        <v>668</v>
+      </c>
+      <c r="C113" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" t="s">
+        <v>669</v>
+      </c>
+      <c r="E113" t="s">
         <v>670</v>
-      </c>
-      <c r="C113" t="s">
-        <v>52</v>
-      </c>
-      <c r="D113" t="s">
-        <v>671</v>
-      </c>
-      <c r="E113" t="s">
-        <v>672</v>
       </c>
       <c r="F113" t="s">
         <v>114</v>
@@ -10381,16 +10387,16 @@
         <v>52</v>
       </c>
       <c r="P113" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>52</v>
+      </c>
+      <c r="R113" t="s">
+        <v>672</v>
+      </c>
+      <c r="S113" t="s">
         <v>673</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>52</v>
-      </c>
-      <c r="R113" t="s">
-        <v>674</v>
-      </c>
-      <c r="S113" t="s">
-        <v>675</v>
       </c>
       <c r="T113" t="s">
         <v>62</v>
@@ -10404,16 +10410,16 @@
         <v>133</v>
       </c>
       <c r="B114" t="s">
+        <v>674</v>
+      </c>
+      <c r="C114" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" t="s">
+        <v>675</v>
+      </c>
+      <c r="E114" t="s">
         <v>676</v>
-      </c>
-      <c r="C114" t="s">
-        <v>52</v>
-      </c>
-      <c r="D114" t="s">
-        <v>677</v>
-      </c>
-      <c r="E114" t="s">
-        <v>678</v>
       </c>
       <c r="F114" t="s">
         <v>114</v>
@@ -10452,10 +10458,10 @@
         <v>52</v>
       </c>
       <c r="R114" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="S114" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="T114" t="s">
         <v>62</v>
@@ -10469,16 +10475,16 @@
         <v>134</v>
       </c>
       <c r="B115" t="s">
+        <v>679</v>
+      </c>
+      <c r="C115" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" t="s">
+        <v>680</v>
+      </c>
+      <c r="E115" t="s">
         <v>681</v>
-      </c>
-      <c r="C115" t="s">
-        <v>52</v>
-      </c>
-      <c r="D115" t="s">
-        <v>682</v>
-      </c>
-      <c r="E115" t="s">
-        <v>683</v>
       </c>
       <c r="F115" t="s">
         <v>114</v>
@@ -10505,22 +10511,22 @@
         <v>58</v>
       </c>
       <c r="N115" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O115" t="s">
         <v>52</v>
       </c>
       <c r="P115" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Q115" t="s">
         <v>52</v>
       </c>
       <c r="R115" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S115" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="T115" t="s">
         <v>62</v>
@@ -10534,7 +10540,7 @@
         <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C116" t="s">
         <v>260</v>
@@ -10567,7 +10573,7 @@
         <v>58</v>
       </c>
       <c r="N116" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O116" t="s">
         <v>52</v>
@@ -10596,16 +10602,16 @@
         <v>136</v>
       </c>
       <c r="B117" t="s">
+        <v>685</v>
+      </c>
+      <c r="C117" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" t="s">
+        <v>686</v>
+      </c>
+      <c r="E117" t="s">
         <v>687</v>
-      </c>
-      <c r="C117" t="s">
-        <v>52</v>
-      </c>
-      <c r="D117" t="s">
-        <v>688</v>
-      </c>
-      <c r="E117" t="s">
-        <v>689</v>
       </c>
       <c r="F117" t="s">
         <v>114</v>
@@ -10638,7 +10644,7 @@
         <v>52</v>
       </c>
       <c r="P117" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="Q117" t="s">
         <v>52</v>
@@ -10647,7 +10653,7 @@
         <v>267</v>
       </c>
       <c r="S117" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="T117" t="s">
         <v>62</v>
@@ -10661,7 +10667,7 @@
         <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C118" t="s">
         <v>260</v>
@@ -10723,16 +10729,16 @@
         <v>138</v>
       </c>
       <c r="B119" t="s">
+        <v>691</v>
+      </c>
+      <c r="C119" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" t="s">
+        <v>692</v>
+      </c>
+      <c r="E119" t="s">
         <v>693</v>
-      </c>
-      <c r="C119" t="s">
-        <v>52</v>
-      </c>
-      <c r="D119" t="s">
-        <v>694</v>
-      </c>
-      <c r="E119" t="s">
-        <v>695</v>
       </c>
       <c r="F119" t="s">
         <v>114</v>
@@ -10771,10 +10777,10 @@
         <v>52</v>
       </c>
       <c r="R119" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="S119" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="T119" t="s">
         <v>62</v>
@@ -10788,16 +10794,16 @@
         <v>139</v>
       </c>
       <c r="B120" t="s">
+        <v>696</v>
+      </c>
+      <c r="C120" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" t="s">
+        <v>697</v>
+      </c>
+      <c r="E120" t="s">
         <v>698</v>
-      </c>
-      <c r="C120" t="s">
-        <v>52</v>
-      </c>
-      <c r="D120" t="s">
-        <v>699</v>
-      </c>
-      <c r="E120" t="s">
-        <v>700</v>
       </c>
       <c r="F120" t="s">
         <v>114</v>
@@ -10836,10 +10842,10 @@
         <v>52</v>
       </c>
       <c r="R120" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="S120" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="T120" t="s">
         <v>62</v>
@@ -10853,16 +10859,16 @@
         <v>140</v>
       </c>
       <c r="B121" t="s">
+        <v>700</v>
+      </c>
+      <c r="C121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" t="s">
+        <v>701</v>
+      </c>
+      <c r="E121" t="s">
         <v>702</v>
-      </c>
-      <c r="C121" t="s">
-        <v>52</v>
-      </c>
-      <c r="D121" t="s">
-        <v>703</v>
-      </c>
-      <c r="E121" t="s">
-        <v>704</v>
       </c>
       <c r="F121" t="s">
         <v>114</v>
@@ -10904,7 +10910,7 @@
         <v>73</v>
       </c>
       <c r="S121" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="T121" t="s">
         <v>62</v>
@@ -10918,16 +10924,16 @@
         <v>141</v>
       </c>
       <c r="B122" t="s">
+        <v>704</v>
+      </c>
+      <c r="C122" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" t="s">
+        <v>705</v>
+      </c>
+      <c r="E122" t="s">
         <v>706</v>
-      </c>
-      <c r="C122" t="s">
-        <v>52</v>
-      </c>
-      <c r="D122" t="s">
-        <v>707</v>
-      </c>
-      <c r="E122" t="s">
-        <v>708</v>
       </c>
       <c r="F122" t="s">
         <v>114</v>
@@ -10960,16 +10966,16 @@
         <v>52</v>
       </c>
       <c r="P122" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="Q122" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="R122" t="s">
         <v>67</v>
       </c>
       <c r="S122" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="T122" t="s">
         <v>62</v>
@@ -10983,16 +10989,16 @@
         <v>142</v>
       </c>
       <c r="B123" t="s">
+        <v>710</v>
+      </c>
+      <c r="C123" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" t="s">
+        <v>711</v>
+      </c>
+      <c r="E123" t="s">
         <v>712</v>
-      </c>
-      <c r="C123" t="s">
-        <v>52</v>
-      </c>
-      <c r="D123" t="s">
-        <v>713</v>
-      </c>
-      <c r="E123" t="s">
-        <v>714</v>
       </c>
       <c r="F123" t="s">
         <v>114</v>
@@ -11025,7 +11031,7 @@
         <v>52</v>
       </c>
       <c r="P123" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q123" t="s">
         <v>52</v>
@@ -11034,7 +11040,7 @@
         <v>207</v>
       </c>
       <c r="S123" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="T123" t="s">
         <v>62</v>
@@ -11048,16 +11054,16 @@
         <v>143</v>
       </c>
       <c r="B124" t="s">
+        <v>714</v>
+      </c>
+      <c r="C124" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" t="s">
+        <v>715</v>
+      </c>
+      <c r="E124" t="s">
         <v>716</v>
-      </c>
-      <c r="C124" t="s">
-        <v>52</v>
-      </c>
-      <c r="D124" t="s">
-        <v>717</v>
-      </c>
-      <c r="E124" t="s">
-        <v>718</v>
       </c>
       <c r="F124" t="s">
         <v>114</v>
@@ -11090,16 +11096,16 @@
         <v>52</v>
       </c>
       <c r="P124" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="Q124" t="s">
         <v>59</v>
       </c>
       <c r="R124" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="S124" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="T124" t="s">
         <v>62</v>
@@ -11113,16 +11119,16 @@
         <v>144</v>
       </c>
       <c r="B125" t="s">
+        <v>719</v>
+      </c>
+      <c r="C125" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" t="s">
+        <v>720</v>
+      </c>
+      <c r="E125" t="s">
         <v>721</v>
-      </c>
-      <c r="C125" t="s">
-        <v>52</v>
-      </c>
-      <c r="D125" t="s">
-        <v>722</v>
-      </c>
-      <c r="E125" t="s">
-        <v>723</v>
       </c>
       <c r="F125" t="s">
         <v>114</v>
@@ -11164,7 +11170,7 @@
         <v>181</v>
       </c>
       <c r="S125" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="T125" t="s">
         <v>62</v>
@@ -11178,16 +11184,16 @@
         <v>145</v>
       </c>
       <c r="B126" t="s">
+        <v>723</v>
+      </c>
+      <c r="C126" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" t="s">
+        <v>724</v>
+      </c>
+      <c r="E126" t="s">
         <v>725</v>
-      </c>
-      <c r="C126" t="s">
-        <v>52</v>
-      </c>
-      <c r="D126" t="s">
-        <v>726</v>
-      </c>
-      <c r="E126" t="s">
-        <v>727</v>
       </c>
       <c r="F126" t="s">
         <v>114</v>
@@ -11229,7 +11235,7 @@
         <v>285</v>
       </c>
       <c r="S126" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="T126" t="s">
         <v>62</v>
@@ -11243,16 +11249,16 @@
         <v>146</v>
       </c>
       <c r="B127" t="s">
+        <v>727</v>
+      </c>
+      <c r="C127" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" t="s">
+        <v>728</v>
+      </c>
+      <c r="E127" t="s">
         <v>729</v>
-      </c>
-      <c r="C127" t="s">
-        <v>52</v>
-      </c>
-      <c r="D127" t="s">
-        <v>730</v>
-      </c>
-      <c r="E127" t="s">
-        <v>731</v>
       </c>
       <c r="F127" t="s">
         <v>114</v>
@@ -11285,16 +11291,16 @@
         <v>52</v>
       </c>
       <c r="P127" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="Q127" t="s">
         <v>52</v>
       </c>
       <c r="R127" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="S127" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="T127" t="s">
         <v>62</v>
@@ -11308,16 +11314,16 @@
         <v>147</v>
       </c>
       <c r="B128" t="s">
+        <v>732</v>
+      </c>
+      <c r="C128" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" t="s">
+        <v>733</v>
+      </c>
+      <c r="E128" t="s">
         <v>734</v>
-      </c>
-      <c r="C128" t="s">
-        <v>52</v>
-      </c>
-      <c r="D128" t="s">
-        <v>735</v>
-      </c>
-      <c r="E128" t="s">
-        <v>736</v>
       </c>
       <c r="F128" t="s">
         <v>114</v>
@@ -11359,7 +11365,7 @@
         <v>144</v>
       </c>
       <c r="S128" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="T128" t="s">
         <v>62</v>
@@ -11373,16 +11379,16 @@
         <v>148</v>
       </c>
       <c r="B129" t="s">
+        <v>736</v>
+      </c>
+      <c r="C129" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" t="s">
+        <v>737</v>
+      </c>
+      <c r="E129" t="s">
         <v>738</v>
-      </c>
-      <c r="C129" t="s">
-        <v>52</v>
-      </c>
-      <c r="D129" t="s">
-        <v>739</v>
-      </c>
-      <c r="E129" t="s">
-        <v>740</v>
       </c>
       <c r="F129" t="s">
         <v>114</v>
@@ -11421,10 +11427,10 @@
         <v>52</v>
       </c>
       <c r="R129" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="S129" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="T129" t="s">
         <v>62</v>
@@ -11438,16 +11444,16 @@
         <v>149</v>
       </c>
       <c r="B130" t="s">
+        <v>741</v>
+      </c>
+      <c r="C130" t="s">
+        <v>52</v>
+      </c>
+      <c r="D130" t="s">
+        <v>742</v>
+      </c>
+      <c r="E130" t="s">
         <v>743</v>
-      </c>
-      <c r="C130" t="s">
-        <v>52</v>
-      </c>
-      <c r="D130" t="s">
-        <v>744</v>
-      </c>
-      <c r="E130" t="s">
-        <v>745</v>
       </c>
       <c r="F130" t="s">
         <v>114</v>
@@ -11480,7 +11486,7 @@
         <v>52</v>
       </c>
       <c r="P130" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="Q130" t="s">
         <v>52</v>
@@ -11489,7 +11495,7 @@
         <v>201</v>
       </c>
       <c r="S130" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="T130" t="s">
         <v>62</v>
@@ -11503,7 +11509,7 @@
         <v>150</v>
       </c>
       <c r="B131" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C131" t="s">
         <v>260</v>
@@ -11536,7 +11542,7 @@
         <v>58</v>
       </c>
       <c r="N131" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="O131" t="s">
         <v>52</v>
@@ -11565,16 +11571,16 @@
         <v>151</v>
       </c>
       <c r="B132" t="s">
+        <v>748</v>
+      </c>
+      <c r="C132" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" t="s">
+        <v>749</v>
+      </c>
+      <c r="E132" t="s">
         <v>750</v>
-      </c>
-      <c r="C132" t="s">
-        <v>52</v>
-      </c>
-      <c r="D132" t="s">
-        <v>751</v>
-      </c>
-      <c r="E132" t="s">
-        <v>752</v>
       </c>
       <c r="F132" t="s">
         <v>114</v>
@@ -11613,10 +11619,10 @@
         <v>52</v>
       </c>
       <c r="R132" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="S132" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="T132" t="s">
         <v>62</v>
@@ -11630,16 +11636,16 @@
         <v>152</v>
       </c>
       <c r="B133" t="s">
+        <v>753</v>
+      </c>
+      <c r="C133" t="s">
+        <v>52</v>
+      </c>
+      <c r="D133" t="s">
+        <v>754</v>
+      </c>
+      <c r="E133" t="s">
         <v>755</v>
-      </c>
-      <c r="C133" t="s">
-        <v>52</v>
-      </c>
-      <c r="D133" t="s">
-        <v>756</v>
-      </c>
-      <c r="E133" t="s">
-        <v>757</v>
       </c>
       <c r="F133" t="s">
         <v>114</v>
@@ -11678,10 +11684,10 @@
         <v>52</v>
       </c>
       <c r="R133" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="S133" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="T133" t="s">
         <v>62</v>
@@ -11695,16 +11701,16 @@
         <v>153</v>
       </c>
       <c r="B134" t="s">
+        <v>758</v>
+      </c>
+      <c r="C134" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134" t="s">
+        <v>759</v>
+      </c>
+      <c r="E134" t="s">
         <v>760</v>
-      </c>
-      <c r="C134" t="s">
-        <v>52</v>
-      </c>
-      <c r="D134" t="s">
-        <v>761</v>
-      </c>
-      <c r="E134" t="s">
-        <v>762</v>
       </c>
       <c r="F134" t="s">
         <v>114</v>
@@ -11737,7 +11743,7 @@
         <v>52</v>
       </c>
       <c r="P134" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q134" t="s">
         <v>52</v>
@@ -11746,7 +11752,7 @@
         <v>91</v>
       </c>
       <c r="S134" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="T134" t="s">
         <v>62</v>
@@ -11760,16 +11766,16 @@
         <v>154</v>
       </c>
       <c r="B135" t="s">
+        <v>762</v>
+      </c>
+      <c r="C135" t="s">
+        <v>52</v>
+      </c>
+      <c r="D135" t="s">
+        <v>763</v>
+      </c>
+      <c r="E135" t="s">
         <v>764</v>
-      </c>
-      <c r="C135" t="s">
-        <v>52</v>
-      </c>
-      <c r="D135" t="s">
-        <v>765</v>
-      </c>
-      <c r="E135" t="s">
-        <v>766</v>
       </c>
       <c r="F135" t="s">
         <v>114</v>
@@ -11802,7 +11808,7 @@
         <v>52</v>
       </c>
       <c r="P135" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="Q135" t="s">
         <v>52</v>
@@ -11811,7 +11817,7 @@
         <v>109</v>
       </c>
       <c r="S135" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="T135" t="s">
         <v>62</v>
@@ -11825,16 +11831,16 @@
         <v>155</v>
       </c>
       <c r="B136" t="s">
+        <v>767</v>
+      </c>
+      <c r="C136" t="s">
+        <v>52</v>
+      </c>
+      <c r="D136" t="s">
+        <v>768</v>
+      </c>
+      <c r="E136" t="s">
         <v>769</v>
-      </c>
-      <c r="C136" t="s">
-        <v>52</v>
-      </c>
-      <c r="D136" t="s">
-        <v>770</v>
-      </c>
-      <c r="E136" t="s">
-        <v>771</v>
       </c>
       <c r="F136" t="s">
         <v>114</v>
@@ -11867,16 +11873,16 @@
         <v>52</v>
       </c>
       <c r="P136" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="Q136" t="s">
         <v>52</v>
       </c>
       <c r="R136" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S136" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="T136" t="s">
         <v>62</v>
@@ -11890,16 +11896,16 @@
         <v>156</v>
       </c>
       <c r="B137" t="s">
+        <v>772</v>
+      </c>
+      <c r="C137" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" t="s">
+        <v>773</v>
+      </c>
+      <c r="E137" t="s">
         <v>774</v>
-      </c>
-      <c r="C137" t="s">
-        <v>52</v>
-      </c>
-      <c r="D137" t="s">
-        <v>775</v>
-      </c>
-      <c r="E137" t="s">
-        <v>776</v>
       </c>
       <c r="F137" t="s">
         <v>114</v>
@@ -11932,16 +11938,16 @@
         <v>52</v>
       </c>
       <c r="P137" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>52</v>
+      </c>
+      <c r="R137" t="s">
+        <v>776</v>
+      </c>
+      <c r="S137" t="s">
         <v>777</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>52</v>
-      </c>
-      <c r="R137" t="s">
-        <v>778</v>
-      </c>
-      <c r="S137" t="s">
-        <v>779</v>
       </c>
       <c r="T137" t="s">
         <v>62</v>
@@ -11955,16 +11961,16 @@
         <v>157</v>
       </c>
       <c r="B138" t="s">
+        <v>778</v>
+      </c>
+      <c r="C138" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" t="s">
+        <v>779</v>
+      </c>
+      <c r="E138" t="s">
         <v>780</v>
-      </c>
-      <c r="C138" t="s">
-        <v>52</v>
-      </c>
-      <c r="D138" t="s">
-        <v>781</v>
-      </c>
-      <c r="E138" t="s">
-        <v>782</v>
       </c>
       <c r="F138" t="s">
         <v>114</v>
@@ -12003,10 +12009,10 @@
         <v>52</v>
       </c>
       <c r="R138" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="S138" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="T138" t="s">
         <v>62</v>
@@ -12020,16 +12026,16 @@
         <v>158</v>
       </c>
       <c r="B139" t="s">
+        <v>783</v>
+      </c>
+      <c r="C139" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" t="s">
+        <v>784</v>
+      </c>
+      <c r="E139" t="s">
         <v>785</v>
-      </c>
-      <c r="C139" t="s">
-        <v>52</v>
-      </c>
-      <c r="D139" t="s">
-        <v>786</v>
-      </c>
-      <c r="E139" t="s">
-        <v>787</v>
       </c>
       <c r="F139" t="s">
         <v>114</v>
@@ -12062,16 +12068,16 @@
         <v>52</v>
       </c>
       <c r="P139" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="Q139" t="s">
         <v>130</v>
       </c>
       <c r="R139" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="S139" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="T139" t="s">
         <v>62</v>
@@ -12085,16 +12091,16 @@
         <v>159</v>
       </c>
       <c r="B140" t="s">
+        <v>789</v>
+      </c>
+      <c r="C140" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" t="s">
+        <v>790</v>
+      </c>
+      <c r="E140" t="s">
         <v>791</v>
-      </c>
-      <c r="C140" t="s">
-        <v>52</v>
-      </c>
-      <c r="D140" t="s">
-        <v>792</v>
-      </c>
-      <c r="E140" t="s">
-        <v>793</v>
       </c>
       <c r="F140" t="s">
         <v>114</v>
@@ -12127,7 +12133,7 @@
         <v>52</v>
       </c>
       <c r="P140" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Q140" t="s">
         <v>52</v>
@@ -12136,7 +12142,7 @@
         <v>91</v>
       </c>
       <c r="S140" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="T140" t="s">
         <v>62</v>
@@ -12150,16 +12156,16 @@
         <v>160</v>
       </c>
       <c r="B141" t="s">
+        <v>794</v>
+      </c>
+      <c r="C141" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" t="s">
+        <v>795</v>
+      </c>
+      <c r="E141" t="s">
         <v>796</v>
-      </c>
-      <c r="C141" t="s">
-        <v>52</v>
-      </c>
-      <c r="D141" t="s">
-        <v>797</v>
-      </c>
-      <c r="E141" t="s">
-        <v>798</v>
       </c>
       <c r="F141" t="s">
         <v>114</v>
@@ -12192,7 +12198,7 @@
         <v>52</v>
       </c>
       <c r="P141" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q141" t="s">
         <v>52</v>
@@ -12201,7 +12207,7 @@
         <v>213</v>
       </c>
       <c r="S141" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="T141" t="s">
         <v>62</v>
@@ -12215,16 +12221,16 @@
         <v>161</v>
       </c>
       <c r="B142" t="s">
+        <v>798</v>
+      </c>
+      <c r="C142" t="s">
+        <v>52</v>
+      </c>
+      <c r="D142" t="s">
+        <v>799</v>
+      </c>
+      <c r="E142" t="s">
         <v>800</v>
-      </c>
-      <c r="C142" t="s">
-        <v>52</v>
-      </c>
-      <c r="D142" t="s">
-        <v>801</v>
-      </c>
-      <c r="E142" t="s">
-        <v>802</v>
       </c>
       <c r="F142" t="s">
         <v>114</v>
@@ -12263,10 +12269,10 @@
         <v>52</v>
       </c>
       <c r="R142" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="S142" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="T142" t="s">
         <v>62</v>
@@ -12280,16 +12286,16 @@
         <v>162</v>
       </c>
       <c r="B143" t="s">
+        <v>802</v>
+      </c>
+      <c r="C143" t="s">
+        <v>52</v>
+      </c>
+      <c r="D143" t="s">
+        <v>803</v>
+      </c>
+      <c r="E143" t="s">
         <v>804</v>
-      </c>
-      <c r="C143" t="s">
-        <v>52</v>
-      </c>
-      <c r="D143" t="s">
-        <v>805</v>
-      </c>
-      <c r="E143" t="s">
-        <v>806</v>
       </c>
       <c r="F143" t="s">
         <v>114</v>
@@ -12331,7 +12337,7 @@
         <v>320</v>
       </c>
       <c r="S143" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="T143" t="s">
         <v>62</v>
@@ -12345,16 +12351,16 @@
         <v>163</v>
       </c>
       <c r="B144" t="s">
+        <v>806</v>
+      </c>
+      <c r="C144" t="s">
+        <v>52</v>
+      </c>
+      <c r="D144" t="s">
+        <v>807</v>
+      </c>
+      <c r="E144" t="s">
         <v>808</v>
-      </c>
-      <c r="C144" t="s">
-        <v>52</v>
-      </c>
-      <c r="D144" t="s">
-        <v>809</v>
-      </c>
-      <c r="E144" t="s">
-        <v>810</v>
       </c>
       <c r="F144" t="s">
         <v>114</v>
@@ -12393,10 +12399,10 @@
         <v>52</v>
       </c>
       <c r="R144" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="S144" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="T144" t="s">
         <v>62</v>
@@ -12410,16 +12416,16 @@
         <v>164</v>
       </c>
       <c r="B145" t="s">
+        <v>811</v>
+      </c>
+      <c r="C145" t="s">
+        <v>52</v>
+      </c>
+      <c r="D145" t="s">
+        <v>812</v>
+      </c>
+      <c r="E145" t="s">
         <v>813</v>
-      </c>
-      <c r="C145" t="s">
-        <v>52</v>
-      </c>
-      <c r="D145" t="s">
-        <v>814</v>
-      </c>
-      <c r="E145" t="s">
-        <v>815</v>
       </c>
       <c r="F145" t="s">
         <v>114</v>
@@ -12458,10 +12464,10 @@
         <v>52</v>
       </c>
       <c r="R145" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="S145" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="T145" t="s">
         <v>62</v>
@@ -12475,16 +12481,16 @@
         <v>165</v>
       </c>
       <c r="B146" t="s">
+        <v>816</v>
+      </c>
+      <c r="C146" t="s">
+        <v>52</v>
+      </c>
+      <c r="D146" t="s">
+        <v>817</v>
+      </c>
+      <c r="E146" t="s">
         <v>818</v>
-      </c>
-      <c r="C146" t="s">
-        <v>52</v>
-      </c>
-      <c r="D146" t="s">
-        <v>819</v>
-      </c>
-      <c r="E146" t="s">
-        <v>820</v>
       </c>
       <c r="F146" t="s">
         <v>114</v>
@@ -12517,7 +12523,7 @@
         <v>52</v>
       </c>
       <c r="P146" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="Q146" t="s">
         <v>52</v>
@@ -12526,7 +12532,7 @@
         <v>67</v>
       </c>
       <c r="S146" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="T146" t="s">
         <v>62</v>
@@ -12540,16 +12546,16 @@
         <v>166</v>
       </c>
       <c r="B147" t="s">
+        <v>821</v>
+      </c>
+      <c r="C147" t="s">
+        <v>52</v>
+      </c>
+      <c r="D147" t="s">
+        <v>822</v>
+      </c>
+      <c r="E147" t="s">
         <v>823</v>
-      </c>
-      <c r="C147" t="s">
-        <v>52</v>
-      </c>
-      <c r="D147" t="s">
-        <v>824</v>
-      </c>
-      <c r="E147" t="s">
-        <v>825</v>
       </c>
       <c r="F147" t="s">
         <v>114</v>
@@ -12591,7 +12597,7 @@
         <v>320</v>
       </c>
       <c r="S147" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="T147" t="s">
         <v>62</v>
@@ -12818,19 +12824,19 @@
         <v>168</v>
       </c>
       <c r="B4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>826</v>
+      </c>
+      <c r="E4" t="s">
         <v>827</v>
       </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>828</v>
-      </c>
-      <c r="E4" t="s">
-        <v>829</v>
-      </c>
-      <c r="F4" t="s">
-        <v>830</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -12945,19 +12951,19 @@
         <v>169</v>
       </c>
       <c r="B6" t="s">
+        <v>829</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E6" t="s">
         <v>831</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>832</v>
-      </c>
-      <c r="E6" t="s">
-        <v>833</v>
-      </c>
       <c r="F6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
@@ -13072,19 +13078,19 @@
         <v>170</v>
       </c>
       <c r="B8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E8" t="s">
         <v>834</v>
       </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>835</v>
-      </c>
-      <c r="E8" t="s">
-        <v>836</v>
-      </c>
       <c r="F8" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
@@ -13199,19 +13205,19 @@
         <v>171</v>
       </c>
       <c r="B10" t="s">
+        <v>835</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>836</v>
+      </c>
+      <c r="E10" t="s">
         <v>837</v>
       </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>838</v>
-      </c>
-      <c r="E10" t="s">
-        <v>839</v>
-      </c>
       <c r="F10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -13388,19 +13394,19 @@
         <v>172</v>
       </c>
       <c r="B13" t="s">
+        <v>838</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>839</v>
+      </c>
+      <c r="E13" t="s">
         <v>840</v>
       </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>841</v>
-      </c>
-      <c r="E13" t="s">
-        <v>842</v>
-      </c>
       <c r="F13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -13453,7 +13459,7 @@
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
@@ -13492,7 +13498,7 @@
         <v>52</v>
       </c>
       <c r="P14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Q14" t="s">
         <v>52</v>
@@ -13515,19 +13521,19 @@
         <v>173</v>
       </c>
       <c r="B15" t="s">
+        <v>841</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>842</v>
+      </c>
+      <c r="E15" t="s">
         <v>843</v>
       </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>844</v>
-      </c>
-      <c r="E15" t="s">
-        <v>845</v>
-      </c>
       <c r="F15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G15" t="s">
         <v>52</v>
@@ -13545,7 +13551,7 @@
         <v>52</v>
       </c>
       <c r="L15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M15" t="s">
         <v>58</v>
@@ -13580,7 +13586,7 @@
         <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
@@ -13607,7 +13613,7 @@
         <v>52</v>
       </c>
       <c r="L16" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M16" t="s">
         <v>58</v>
@@ -13619,7 +13625,7 @@
         <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q16" t="s">
         <v>52</v>
@@ -13642,7 +13648,7 @@
         <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
@@ -13669,7 +13675,7 @@
         <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M17" t="s">
         <v>58</v>
@@ -13704,19 +13710,19 @@
         <v>174</v>
       </c>
       <c r="B18" t="s">
+        <v>844</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>845</v>
+      </c>
+      <c r="E18" t="s">
         <v>846</v>
       </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>847</v>
-      </c>
-      <c r="E18" t="s">
-        <v>848</v>
-      </c>
       <c r="F18" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G18" t="s">
         <v>52</v>
@@ -13734,7 +13740,7 @@
         <v>52</v>
       </c>
       <c r="L18" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M18" t="s">
         <v>58</v>
@@ -13769,7 +13775,7 @@
         <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
@@ -13796,7 +13802,7 @@
         <v>52</v>
       </c>
       <c r="L19" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M19" t="s">
         <v>58</v>
@@ -13808,7 +13814,7 @@
         <v>52</v>
       </c>
       <c r="P19" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q19" t="s">
         <v>52</v>
@@ -13831,7 +13837,7 @@
         <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C20" t="s">
         <v>119</v>
@@ -13858,13 +13864,13 @@
         <v>52</v>
       </c>
       <c r="L20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M20" t="s">
         <v>58</v>
       </c>
       <c r="N20" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O20" t="s">
         <v>52</v>
@@ -13893,7 +13899,7 @@
         <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C21" t="s">
         <v>119</v>
@@ -13920,13 +13926,13 @@
         <v>52</v>
       </c>
       <c r="L21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M21" t="s">
         <v>58</v>
       </c>
       <c r="N21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O21" t="s">
         <v>52</v>
@@ -13955,7 +13961,7 @@
         <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C22" t="s">
         <v>119</v>
@@ -13982,19 +13988,19 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M22" t="s">
         <v>58</v>
       </c>
       <c r="N22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O22" t="s">
         <v>52</v>
       </c>
       <c r="P22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q22" t="s">
         <v>52</v>
@@ -14017,7 +14023,7 @@
         <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C23" t="s">
         <v>119</v>
@@ -14044,19 +14050,19 @@
         <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M23" t="s">
         <v>58</v>
       </c>
       <c r="N23" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
       </c>
       <c r="P23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q23" t="s">
         <v>52</v>
@@ -14079,19 +14085,19 @@
         <v>175</v>
       </c>
       <c r="B24" t="s">
+        <v>847</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>848</v>
+      </c>
+      <c r="E24" t="s">
         <v>849</v>
       </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>850</v>
-      </c>
-      <c r="E24" t="s">
-        <v>851</v>
-      </c>
       <c r="F24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
@@ -14109,7 +14115,7 @@
         <v>52</v>
       </c>
       <c r="L24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M24" t="s">
         <v>58</v>
@@ -14144,7 +14150,7 @@
         <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
@@ -14171,7 +14177,7 @@
         <v>52</v>
       </c>
       <c r="L25" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M25" t="s">
         <v>58</v>
@@ -14183,7 +14189,7 @@
         <v>52</v>
       </c>
       <c r="P25" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Q25" t="s">
         <v>52</v>
@@ -14206,19 +14212,19 @@
         <v>176</v>
       </c>
       <c r="B26" t="s">
+        <v>850</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>851</v>
+      </c>
+      <c r="E26" t="s">
         <v>852</v>
       </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" t="s">
-        <v>853</v>
-      </c>
-      <c r="E26" t="s">
-        <v>854</v>
-      </c>
       <c r="F26" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
@@ -14236,7 +14242,7 @@
         <v>52</v>
       </c>
       <c r="L26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M26" t="s">
         <v>58</v>
@@ -14271,7 +14277,7 @@
         <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C27" t="s">
         <v>52</v>
@@ -14298,7 +14304,7 @@
         <v>52</v>
       </c>
       <c r="L27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M27" t="s">
         <v>58</v>
@@ -14310,7 +14316,7 @@
         <v>52</v>
       </c>
       <c r="P27" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="Q27" t="s">
         <v>52</v>
@@ -14333,7 +14339,7 @@
         <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C28" t="s">
         <v>52</v>
@@ -14342,7 +14348,7 @@
         <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G28" t="s">
         <v>52</v>
@@ -14360,7 +14366,7 @@
         <v>52</v>
       </c>
       <c r="L28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="M28" t="s">
         <v>58</v>
@@ -14384,7 +14390,7 @@
         <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="U28" t="b">
         <v>1</v>
@@ -14395,7 +14401,7 @@
         <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C29" t="s">
         <v>52</v>
@@ -14404,7 +14410,7 @@
         <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G29" t="s">
         <v>52</v>
@@ -14422,7 +14428,7 @@
         <v>52</v>
       </c>
       <c r="L29" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="M29" t="s">
         <v>58</v>
@@ -14446,7 +14452,7 @@
         <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="U29" t="b">
         <v>1</v>
@@ -14457,7 +14463,7 @@
         <v>179</v>
       </c>
       <c r="B30" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C30" t="s">
         <v>52</v>
@@ -14466,7 +14472,7 @@
         <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G30" t="s">
         <v>52</v>
@@ -14484,7 +14490,7 @@
         <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="M30" t="s">
         <v>58</v>
@@ -14508,7 +14514,7 @@
         <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="U30" t="b">
         <v>1</v>
@@ -14519,7 +14525,7 @@
         <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
@@ -14528,7 +14534,7 @@
         <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G31" t="s">
         <v>52</v>
@@ -14546,7 +14552,7 @@
         <v>52</v>
       </c>
       <c r="L31" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="M31" t="s">
         <v>58</v>
@@ -14570,7 +14576,7 @@
         <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="U31" t="b">
         <v>1</v>
@@ -14581,7 +14587,7 @@
         <v>182</v>
       </c>
       <c r="B32" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C32" t="s">
         <v>52</v>
@@ -14590,7 +14596,7 @@
         <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G32" t="s">
         <v>52</v>
@@ -14608,7 +14614,7 @@
         <v>52</v>
       </c>
       <c r="L32" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M32" t="s">
         <v>58</v>
@@ -14643,7 +14649,7 @@
         <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C33" t="s">
         <v>52</v>
@@ -14652,7 +14658,7 @@
         <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G33" t="s">
         <v>52</v>
@@ -14670,7 +14676,7 @@
         <v>52</v>
       </c>
       <c r="L33" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="M33" t="s">
         <v>58</v>
@@ -14705,7 +14711,7 @@
         <v>184</v>
       </c>
       <c r="B34" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -14714,7 +14720,7 @@
         <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G34" t="s">
         <v>52</v>
@@ -14732,7 +14738,7 @@
         <v>52</v>
       </c>
       <c r="L34" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="M34" t="s">
         <v>58</v>
@@ -14767,7 +14773,7 @@
         <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C35" t="s">
         <v>52</v>
@@ -14776,7 +14782,7 @@
         <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G35" t="s">
         <v>52</v>
@@ -14794,7 +14800,7 @@
         <v>52</v>
       </c>
       <c r="L35" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="M35" t="s">
         <v>58</v>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minieditor\project\dreamland\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minieditor\project\dreamland\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABB748B-7C5C-4470-A99D-ABF016F2922C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AC50E8-D0C4-4741-B396-E1915F2F813E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础卡" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16198" uniqueCount="4722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16198" uniqueCount="4723">
   <si>
     <t>编号</t>
   </si>
@@ -14606,6 +14606,10 @@
   </si>
   <si>
     <t>召唤数个3/3的木乃伊僵尸，直到你的随从数量达到上限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_card_expert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15043,15 +15047,15 @@
       <selection pane="bottomLeft" activeCell="A168" sqref="A168:XFD168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="17" max="17" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.73046875" customWidth="1"/>
+    <col min="17" max="17" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15116,7 +15120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -15181,7 +15185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -15246,7 +15250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>187</v>
       </c>
@@ -15311,7 +15315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>188</v>
       </c>
@@ -15376,7 +15380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>189</v>
       </c>
@@ -15441,7 +15445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>190</v>
       </c>
@@ -15506,7 +15510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>191</v>
       </c>
@@ -15571,7 +15575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>192</v>
       </c>
@@ -15636,7 +15640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>193</v>
       </c>
@@ -15701,7 +15705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>194</v>
       </c>
@@ -15766,7 +15770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>195</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>196</v>
       </c>
@@ -15896,7 +15900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -15961,7 +15965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -16026,7 +16030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -16091,7 +16095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -16156,7 +16160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -16221,7 +16225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -16286,7 +16290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -16351,7 +16355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -16416,7 +16420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11</v>
       </c>
@@ -16481,7 +16485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
@@ -16546,7 +16550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13</v>
       </c>
@@ -16611,7 +16615,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>213</v>
       </c>
@@ -16676,7 +16680,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>214</v>
       </c>
@@ -16741,7 +16745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>16</v>
       </c>
@@ -16806,7 +16810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>17</v>
       </c>
@@ -16871,7 +16875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>18</v>
       </c>
@@ -16936,7 +16940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>19</v>
       </c>
@@ -17001,7 +17005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20</v>
       </c>
@@ -17066,7 +17070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>21</v>
       </c>
@@ -17131,7 +17135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>22</v>
       </c>
@@ -17196,7 +17200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>23</v>
       </c>
@@ -17261,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>24</v>
       </c>
@@ -17326,7 +17330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>25</v>
       </c>
@@ -17391,7 +17395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>27</v>
       </c>
@@ -17456,7 +17460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>28</v>
       </c>
@@ -17521,7 +17525,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>29</v>
       </c>
@@ -17586,7 +17590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>215</v>
       </c>
@@ -17651,7 +17655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>30</v>
       </c>
@@ -17716,7 +17720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>31</v>
       </c>
@@ -17781,7 +17785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>32</v>
       </c>
@@ -17846,7 +17850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>33</v>
       </c>
@@ -17911,7 +17915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>34</v>
       </c>
@@ -17976,7 +17980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>35</v>
       </c>
@@ -18041,7 +18045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>36</v>
       </c>
@@ -18106,7 +18110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>37</v>
       </c>
@@ -18171,7 +18175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>38</v>
       </c>
@@ -18236,7 +18240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>39</v>
       </c>
@@ -18301,7 +18305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>41</v>
       </c>
@@ -18366,7 +18370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>115</v>
       </c>
@@ -18431,7 +18435,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>42</v>
       </c>
@@ -18496,7 +18500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>43</v>
       </c>
@@ -18561,7 +18565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>44</v>
       </c>
@@ -18626,7 +18630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>45</v>
       </c>
@@ -18691,7 +18695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>46</v>
       </c>
@@ -18756,7 +18760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>47</v>
       </c>
@@ -18821,7 +18825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>48</v>
       </c>
@@ -18886,7 +18890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>49</v>
       </c>
@@ -18951,7 +18955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>50</v>
       </c>
@@ -19016,7 +19020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>51</v>
       </c>
@@ -19081,7 +19085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>57</v>
       </c>
@@ -19146,7 +19150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>58</v>
       </c>
@@ -19211,7 +19215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>56</v>
       </c>
@@ -19276,7 +19280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>55</v>
       </c>
@@ -19341,7 +19345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>198</v>
       </c>
@@ -19406,7 +19410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>59</v>
       </c>
@@ -19471,7 +19475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>61</v>
       </c>
@@ -19536,7 +19540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>62</v>
       </c>
@@ -19601,7 +19605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>199</v>
       </c>
@@ -19666,7 +19670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>63</v>
       </c>
@@ -19731,7 +19735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>65</v>
       </c>
@@ -19796,7 +19800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>66</v>
       </c>
@@ -19861,7 +19865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>67</v>
       </c>
@@ -19926,7 +19930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>68</v>
       </c>
@@ -19991,7 +19995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>69</v>
       </c>
@@ -20056,7 +20060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>70</v>
       </c>
@@ -20121,7 +20125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>71</v>
       </c>
@@ -20186,7 +20190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>72</v>
       </c>
@@ -20251,7 +20255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>73</v>
       </c>
@@ -20316,7 +20320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>74</v>
       </c>
@@ -20381,7 +20385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>77</v>
       </c>
@@ -20446,7 +20450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>78</v>
       </c>
@@ -20511,7 +20515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>79</v>
       </c>
@@ -20576,7 +20580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>80</v>
       </c>
@@ -20641,7 +20645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>81</v>
       </c>
@@ -20706,7 +20710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>82</v>
       </c>
@@ -20771,7 +20775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>83</v>
       </c>
@@ -20836,7 +20840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>84</v>
       </c>
@@ -20901,7 +20905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>85</v>
       </c>
@@ -20966,7 +20970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>86</v>
       </c>
@@ -21031,7 +21035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>87</v>
       </c>
@@ -21096,7 +21100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -21161,7 +21165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -21226,7 +21230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -21291,7 +21295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -21356,7 +21360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -21421,7 +21425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -21486,7 +21490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -21551,7 +21555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -21616,7 +21620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -21681,7 +21685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -21746,7 +21750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>216</v>
       </c>
@@ -21811,7 +21815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -21876,7 +21880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -21941,7 +21945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -22006,7 +22010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -22071,7 +22075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -22136,7 +22140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -22201,7 +22205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -22266,7 +22270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -22331,7 +22335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -22396,7 +22400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -22461,7 +22465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>121</v>
       </c>
@@ -22526,7 +22530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>122</v>
       </c>
@@ -22591,7 +22595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>123</v>
       </c>
@@ -22656,7 +22660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>124</v>
       </c>
@@ -22721,7 +22725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>125</v>
       </c>
@@ -22786,7 +22790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>126</v>
       </c>
@@ -22851,7 +22855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>127</v>
       </c>
@@ -22916,7 +22920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>128</v>
       </c>
@@ -22981,7 +22985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>129</v>
       </c>
@@ -23046,7 +23050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>130</v>
       </c>
@@ -23111,7 +23115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>131</v>
       </c>
@@ -23176,7 +23180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>132</v>
       </c>
@@ -23241,7 +23245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>133</v>
       </c>
@@ -23306,7 +23310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>134</v>
       </c>
@@ -23371,7 +23375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>135</v>
       </c>
@@ -23436,7 +23440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>136</v>
       </c>
@@ -23501,7 +23505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>137</v>
       </c>
@@ -23566,7 +23570,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>138</v>
       </c>
@@ -23631,7 +23635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>139</v>
       </c>
@@ -23696,7 +23700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>140</v>
       </c>
@@ -23761,7 +23765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>141</v>
       </c>
@@ -23826,7 +23830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>142</v>
       </c>
@@ -23891,7 +23895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>143</v>
       </c>
@@ -23956,7 +23960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>144</v>
       </c>
@@ -24021,7 +24025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>145</v>
       </c>
@@ -24086,7 +24090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>146</v>
       </c>
@@ -24151,7 +24155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>147</v>
       </c>
@@ -24216,7 +24220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>148</v>
       </c>
@@ -24281,7 +24285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>149</v>
       </c>
@@ -24346,7 +24350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>150</v>
       </c>
@@ -24411,7 +24415,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>151</v>
       </c>
@@ -24476,7 +24480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>152</v>
       </c>
@@ -24541,7 +24545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>153</v>
       </c>
@@ -24606,7 +24610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>154</v>
       </c>
@@ -24671,7 +24675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>155</v>
       </c>
@@ -24736,7 +24740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>156</v>
       </c>
@@ -24801,7 +24805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>157</v>
       </c>
@@ -24866,7 +24870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>158</v>
       </c>
@@ -24931,7 +24935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>159</v>
       </c>
@@ -24996,7 +25000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>160</v>
       </c>
@@ -25061,7 +25065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>161</v>
       </c>
@@ -25126,7 +25130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>162</v>
       </c>
@@ -25191,7 +25195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>163</v>
       </c>
@@ -25256,7 +25260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>164</v>
       </c>
@@ -25321,7 +25325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>165</v>
       </c>
@@ -25386,7 +25390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>166</v>
       </c>
@@ -25451,7 +25455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>14</v>
       </c>
@@ -25516,7 +25520,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>211</v>
       </c>
@@ -25581,7 +25585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>212</v>
       </c>
@@ -25646,7 +25650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>217</v>
       </c>
@@ -25711,7 +25715,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>218</v>
       </c>
@@ -25776,7 +25780,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>219</v>
       </c>
@@ -25841,7 +25845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>220</v>
       </c>
@@ -25906,7 +25910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>228</v>
       </c>
@@ -25971,7 +25975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>221</v>
       </c>
@@ -26036,7 +26040,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>222</v>
       </c>
@@ -26101,7 +26105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>223</v>
       </c>
@@ -26166,7 +26170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>224</v>
       </c>
@@ -26231,7 +26235,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>225</v>
       </c>
@@ -26296,7 +26300,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>226</v>
       </c>
@@ -26361,7 +26365,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>227</v>
       </c>
@@ -26442,12 +26446,12 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26512,7 +26516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -26577,7 +26581,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -26642,7 +26646,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>186</v>
       </c>
@@ -26707,7 +26711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>197</v>
       </c>
@@ -26772,7 +26776,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>200</v>
       </c>
@@ -26837,7 +26841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>168</v>
       </c>
@@ -26902,7 +26906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15</v>
       </c>
@@ -26967,7 +26971,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>201</v>
       </c>
@@ -27032,7 +27036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>169</v>
       </c>
@@ -27097,7 +27101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>26</v>
       </c>
@@ -27162,7 +27166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>202</v>
       </c>
@@ -27227,7 +27231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>170</v>
       </c>
@@ -27292,7 +27296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>40</v>
       </c>
@@ -27357,7 +27361,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>203</v>
       </c>
@@ -27422,7 +27426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>171</v>
       </c>
@@ -27487,7 +27491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>52</v>
       </c>
@@ -27552,7 +27556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>204</v>
       </c>
@@ -27617,7 +27621,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>53</v>
       </c>
@@ -27682,7 +27686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>172</v>
       </c>
@@ -27747,7 +27751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>64</v>
       </c>
@@ -27812,7 +27816,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>205</v>
       </c>
@@ -27877,7 +27881,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>173</v>
       </c>
@@ -27942,7 +27946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>75</v>
       </c>
@@ -28007,7 +28011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>76</v>
       </c>
@@ -28072,7 +28076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>206</v>
       </c>
@@ -28137,7 +28141,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>210</v>
       </c>
@@ -28202,7 +28206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>174</v>
       </c>
@@ -28267,7 +28271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>88</v>
       </c>
@@ -28332,7 +28336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>207</v>
       </c>
@@ -28397,7 +28401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>89</v>
       </c>
@@ -28462,7 +28466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>90</v>
       </c>
@@ -28527,7 +28531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>91</v>
       </c>
@@ -28592,7 +28596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>92</v>
       </c>
@@ -28657,7 +28661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>175</v>
       </c>
@@ -28722,7 +28726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>103</v>
       </c>
@@ -28787,7 +28791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>208</v>
       </c>
@@ -28852,7 +28856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>176</v>
       </c>
@@ -28917,7 +28921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>114</v>
       </c>
@@ -28982,7 +28986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>209</v>
       </c>
@@ -29047,7 +29051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>177</v>
       </c>
@@ -29109,7 +29113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>178</v>
       </c>
@@ -29171,7 +29175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>179</v>
       </c>
@@ -29233,7 +29237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>180</v>
       </c>
@@ -29295,7 +29299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>182</v>
       </c>
@@ -29357,7 +29361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>183</v>
       </c>
@@ -29419,7 +29423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>184</v>
       </c>
@@ -29481,7 +29485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>185</v>
       </c>
@@ -29554,13 +29558,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BC1BF1-0767-473D-A0B2-BDBBD7056D5B}">
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P228" sqref="P228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29625,7 +29629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -29690,9 +29694,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>4722</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>43</v>
@@ -29755,7 +29759,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -29820,7 +29824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -29885,7 +29889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -29950,7 +29954,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -30015,7 +30019,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -30080,7 +30084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -30145,7 +30149,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -30210,7 +30214,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -30275,7 +30279,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -30340,7 +30344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -30405,7 +30409,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -30470,7 +30474,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -30535,7 +30539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -30600,7 +30604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -30665,7 +30669,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -30730,7 +30734,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -30795,7 +30799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -30860,7 +30864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -30925,7 +30929,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -30990,7 +30994,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -31055,7 +31059,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -31120,7 +31124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -31185,7 +31189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -31250,7 +31254,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -31315,7 +31319,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -31380,7 +31384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -31445,7 +31449,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -31510,7 +31514,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -31575,7 +31579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -31640,7 +31644,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -31705,7 +31709,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -31770,7 +31774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -31835,7 +31839,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -31900,7 +31904,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -31965,7 +31969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -32030,7 +32034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -32095,7 +32099,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -32160,7 +32164,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -32225,7 +32229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -32290,7 +32294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -32355,7 +32359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -32420,7 +32424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -32485,7 +32489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -32550,7 +32554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -32615,7 +32619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -32680,7 +32684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -32745,7 +32749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -32810,7 +32814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -32875,7 +32879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -32940,7 +32944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -33005,7 +33009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -33070,7 +33074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -33135,7 +33139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -33200,7 +33204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -33265,7 +33269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -33330,7 +33334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -33395,7 +33399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
@@ -33460,7 +33464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
@@ -33525,7 +33529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
@@ -33590,7 +33594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -33655,7 +33659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>61</v>
       </c>
@@ -33720,7 +33724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>62</v>
       </c>
@@ -33785,7 +33789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>63</v>
       </c>
@@ -33850,7 +33854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>64</v>
       </c>
@@ -33915,7 +33919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>65</v>
       </c>
@@ -33980,7 +33984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>66</v>
       </c>
@@ -34045,7 +34049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>67</v>
       </c>
@@ -34110,7 +34114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>68</v>
       </c>
@@ -34175,7 +34179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>69</v>
       </c>
@@ -34240,7 +34244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>70</v>
       </c>
@@ -34305,7 +34309,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>71</v>
       </c>
@@ -34370,7 +34374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>72</v>
       </c>
@@ -34435,7 +34439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>73</v>
       </c>
@@ -34500,7 +34504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>74</v>
       </c>
@@ -34565,7 +34569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>75</v>
       </c>
@@ -34630,7 +34634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>76</v>
       </c>
@@ -34695,7 +34699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>77</v>
       </c>
@@ -34760,7 +34764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>78</v>
       </c>
@@ -34825,7 +34829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>79</v>
       </c>
@@ -34890,7 +34894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>80</v>
       </c>
@@ -34955,7 +34959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>81</v>
       </c>
@@ -35020,7 +35024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>82</v>
       </c>
@@ -35085,7 +35089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>83</v>
       </c>
@@ -35150,7 +35154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>84</v>
       </c>
@@ -35215,7 +35219,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>85</v>
       </c>
@@ -35280,7 +35284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>86</v>
       </c>
@@ -35345,7 +35349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>87</v>
       </c>
@@ -35410,7 +35414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>88</v>
       </c>
@@ -35475,7 +35479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>89</v>
       </c>
@@ -35540,7 +35544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>90</v>
       </c>
@@ -35605,7 +35609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>91</v>
       </c>
@@ -35670,7 +35674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -35735,7 +35739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>93</v>
       </c>
@@ -35800,7 +35804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>94</v>
       </c>
@@ -35865,7 +35869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>95</v>
       </c>
@@ -35930,7 +35934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>96</v>
       </c>
@@ -35995,7 +35999,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>97</v>
       </c>
@@ -36060,7 +36064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>98</v>
       </c>
@@ -36125,7 +36129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>99</v>
       </c>
@@ -36190,7 +36194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>100</v>
       </c>
@@ -36255,7 +36259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>101</v>
       </c>
@@ -36320,7 +36324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>102</v>
       </c>
@@ -36385,7 +36389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>103</v>
       </c>
@@ -36450,7 +36454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>104</v>
       </c>
@@ -36515,7 +36519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>105</v>
       </c>
@@ -36580,7 +36584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>106</v>
       </c>
@@ -36645,7 +36649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>107</v>
       </c>
@@ -36710,7 +36714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>108</v>
       </c>
@@ -36775,7 +36779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>109</v>
       </c>
@@ -36840,7 +36844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>110</v>
       </c>
@@ -36905,7 +36909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>111</v>
       </c>
@@ -36970,7 +36974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>112</v>
       </c>
@@ -37035,7 +37039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>113</v>
       </c>
@@ -37100,7 +37104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>114</v>
       </c>
@@ -37165,7 +37169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>115</v>
       </c>
@@ -37230,7 +37234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>116</v>
       </c>
@@ -37295,7 +37299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>117</v>
       </c>
@@ -37360,7 +37364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>118</v>
       </c>
@@ -37425,7 +37429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>119</v>
       </c>
@@ -37490,7 +37494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>120</v>
       </c>
@@ -37555,7 +37559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>121</v>
       </c>
@@ -37620,7 +37624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>122</v>
       </c>
@@ -37685,7 +37689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>123</v>
       </c>
@@ -37750,7 +37754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>124</v>
       </c>
@@ -37815,7 +37819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>125</v>
       </c>
@@ -37880,7 +37884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>126</v>
       </c>
@@ -37945,7 +37949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>127</v>
       </c>
@@ -38010,7 +38014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>128</v>
       </c>
@@ -38075,7 +38079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>129</v>
       </c>
@@ -38140,7 +38144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>130</v>
       </c>
@@ -38205,7 +38209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>131</v>
       </c>
@@ -38270,7 +38274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>132</v>
       </c>
@@ -38335,7 +38339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>133</v>
       </c>
@@ -38400,7 +38404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>134</v>
       </c>
@@ -38465,7 +38469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>135</v>
       </c>
@@ -38530,7 +38534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>136</v>
       </c>
@@ -38595,7 +38599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>137</v>
       </c>
@@ -38660,7 +38664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>138</v>
       </c>
@@ -38725,7 +38729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>139</v>
       </c>
@@ -38790,7 +38794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>140</v>
       </c>
@@ -38855,7 +38859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>141</v>
       </c>
@@ -38920,7 +38924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>142</v>
       </c>
@@ -38985,7 +38989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>143</v>
       </c>
@@ -39050,7 +39054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>144</v>
       </c>
@@ -39115,7 +39119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>145</v>
       </c>
@@ -39180,7 +39184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>146</v>
       </c>
@@ -39245,7 +39249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>147</v>
       </c>
@@ -39310,7 +39314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>148</v>
       </c>
@@ -39375,7 +39379,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>149</v>
       </c>
@@ -39440,7 +39444,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>150</v>
       </c>
@@ -39505,7 +39509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>151</v>
       </c>
@@ -39570,7 +39574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>152</v>
       </c>
@@ -39635,7 +39639,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>153</v>
       </c>
@@ -39700,7 +39704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>154</v>
       </c>
@@ -39765,7 +39769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>155</v>
       </c>
@@ -39830,7 +39834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>156</v>
       </c>
@@ -39895,7 +39899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>157</v>
       </c>
@@ -39960,7 +39964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>158</v>
       </c>
@@ -40025,7 +40029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>159</v>
       </c>
@@ -40090,7 +40094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>160</v>
       </c>
@@ -40155,7 +40159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>161</v>
       </c>
@@ -40220,7 +40224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>162</v>
       </c>
@@ -40285,7 +40289,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>163</v>
       </c>
@@ -40350,7 +40354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>164</v>
       </c>
@@ -40415,7 +40419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>165</v>
       </c>
@@ -40480,7 +40484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>166</v>
       </c>
@@ -40545,7 +40549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>167</v>
       </c>
@@ -40610,7 +40614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>168</v>
       </c>
@@ -40675,7 +40679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>169</v>
       </c>
@@ -40740,7 +40744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>170</v>
       </c>
@@ -40805,7 +40809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>171</v>
       </c>
@@ -40870,7 +40874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>172</v>
       </c>
@@ -40935,7 +40939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>173</v>
       </c>
@@ -41000,7 +41004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>174</v>
       </c>
@@ -41065,7 +41069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>175</v>
       </c>
@@ -41130,7 +41134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>176</v>
       </c>
@@ -41195,7 +41199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>177</v>
       </c>
@@ -41260,7 +41264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>178</v>
       </c>
@@ -41325,7 +41329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>179</v>
       </c>
@@ -41390,7 +41394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>180</v>
       </c>
@@ -41455,7 +41459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>181</v>
       </c>
@@ -41520,7 +41524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>182</v>
       </c>
@@ -41585,7 +41589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>183</v>
       </c>
@@ -41650,7 +41654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>184</v>
       </c>
@@ -41715,7 +41719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>185</v>
       </c>
@@ -41780,7 +41784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>186</v>
       </c>
@@ -41845,7 +41849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>187</v>
       </c>
@@ -41910,7 +41914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>188</v>
       </c>
@@ -41975,7 +41979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>189</v>
       </c>
@@ -42040,7 +42044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>190</v>
       </c>
@@ -42105,7 +42109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>191</v>
       </c>
@@ -42170,7 +42174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>192</v>
       </c>
@@ -42235,7 +42239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>193</v>
       </c>
@@ -42300,7 +42304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>194</v>
       </c>
@@ -42365,7 +42369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>195</v>
       </c>
@@ -42430,7 +42434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>196</v>
       </c>
@@ -42495,7 +42499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>197</v>
       </c>
@@ -42560,7 +42564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>198</v>
       </c>
@@ -42625,7 +42629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>199</v>
       </c>
@@ -42690,7 +42694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>200</v>
       </c>
@@ -42755,7 +42759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>201</v>
       </c>
@@ -42820,7 +42824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>202</v>
       </c>
@@ -42885,7 +42889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>203</v>
       </c>
@@ -42950,7 +42954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>204</v>
       </c>
@@ -43015,7 +43019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>205</v>
       </c>
@@ -43080,7 +43084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>206</v>
       </c>
@@ -43145,7 +43149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>207</v>
       </c>
@@ -43210,7 +43214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>208</v>
       </c>
@@ -43275,7 +43279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>209</v>
       </c>
@@ -43340,7 +43344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>210</v>
       </c>
@@ -43405,7 +43409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>211</v>
       </c>
@@ -43470,7 +43474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>212</v>
       </c>
@@ -43535,7 +43539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>213</v>
       </c>
@@ -43600,7 +43604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>214</v>
       </c>
@@ -43665,7 +43669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>215</v>
       </c>
@@ -43730,7 +43734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>216</v>
       </c>
@@ -43795,7 +43799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>217</v>
       </c>
@@ -43860,7 +43864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>218</v>
       </c>
@@ -43925,7 +43929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>219</v>
       </c>
@@ -43990,7 +43994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>220</v>
       </c>
@@ -44055,7 +44059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>221</v>
       </c>
@@ -44120,7 +44124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>222</v>
       </c>
@@ -44185,7 +44189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>223</v>
       </c>
@@ -44250,7 +44254,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>224</v>
       </c>
@@ -44315,7 +44319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>225</v>
       </c>
@@ -44380,7 +44384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>226</v>
       </c>
@@ -44445,7 +44449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>227</v>
       </c>
@@ -44510,7 +44514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>228</v>
       </c>
@@ -44575,7 +44579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>229</v>
       </c>
@@ -44640,7 +44644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>230</v>
       </c>
@@ -44705,7 +44709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>231</v>
       </c>
@@ -44770,7 +44774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>232</v>
       </c>
@@ -44835,7 +44839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>233</v>
       </c>
@@ -44900,7 +44904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>234</v>
       </c>
@@ -44965,7 +44969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>235</v>
       </c>
@@ -45030,7 +45034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>236</v>
       </c>
@@ -45095,7 +45099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>237</v>
       </c>
@@ -45160,7 +45164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>238</v>
       </c>
@@ -45225,7 +45229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>239</v>
       </c>
@@ -45290,7 +45294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>240</v>
       </c>
@@ -45355,7 +45359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>241</v>
       </c>
@@ -45420,7 +45424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>242</v>
       </c>
@@ -45485,7 +45489,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>243</v>
       </c>
@@ -45550,7 +45554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>244</v>
       </c>
@@ -45615,7 +45619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>245</v>
       </c>
@@ -45680,7 +45684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>246</v>
       </c>
@@ -45745,7 +45749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>247</v>
       </c>
@@ -45810,7 +45814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>248</v>
       </c>
@@ -45875,7 +45879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>249</v>
       </c>
@@ -45940,7 +45944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>250</v>
       </c>
@@ -46005,7 +46009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>251</v>
       </c>
@@ -46070,7 +46074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>252</v>
       </c>
@@ -46135,7 +46139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>253</v>
       </c>
@@ -46200,7 +46204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>254</v>
       </c>
@@ -46265,7 +46269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>255</v>
       </c>
@@ -46330,7 +46334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>256</v>
       </c>
@@ -46395,7 +46399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>257</v>
       </c>
@@ -46460,7 +46464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>258</v>
       </c>
@@ -46525,7 +46529,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>259</v>
       </c>
@@ -46590,7 +46594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>260</v>
       </c>
@@ -46655,7 +46659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>261</v>
       </c>
@@ -46720,7 +46724,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>262</v>
       </c>
@@ -46785,7 +46789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>263</v>
       </c>
@@ -46850,7 +46854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>264</v>
       </c>
@@ -46915,7 +46919,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>265</v>
       </c>
@@ -46980,7 +46984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>266</v>
       </c>
@@ -47045,7 +47049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>267</v>
       </c>
@@ -47110,7 +47114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>268</v>
       </c>
@@ -47175,7 +47179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>269</v>
       </c>
@@ -47240,7 +47244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>270</v>
       </c>
@@ -47305,7 +47309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>271</v>
       </c>
@@ -47370,7 +47374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>272</v>
       </c>
@@ -47435,7 +47439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>273</v>
       </c>
@@ -47500,7 +47504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>274</v>
       </c>
@@ -47565,7 +47569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>275</v>
       </c>
@@ -47630,7 +47634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>276</v>
       </c>
@@ -47695,7 +47699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>277</v>
       </c>
@@ -47760,7 +47764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>278</v>
       </c>
@@ -47825,7 +47829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>279</v>
       </c>
@@ -47904,9 +47908,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -47971,7 +47975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -48036,7 +48040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -48101,7 +48105,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -48166,7 +48170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -48231,7 +48235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -48296,7 +48300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -48361,7 +48365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -48426,7 +48430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -48491,7 +48495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -48556,7 +48560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -48621,7 +48625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -48686,7 +48690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -48751,7 +48755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -48816,7 +48820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -48881,7 +48885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -48946,7 +48950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -49011,7 +49015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -49076,7 +49080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -49141,7 +49145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -49206,7 +49210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -49271,7 +49275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -49336,7 +49340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -49401,7 +49405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -49466,7 +49470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -49531,7 +49535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -49596,7 +49600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -49661,7 +49665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -49726,7 +49730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -49791,7 +49795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -49856,7 +49860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -49921,7 +49925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>40</v>
       </c>
@@ -49986,7 +49990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>41</v>
       </c>
@@ -50051,7 +50055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>42</v>
       </c>
@@ -50116,7 +50120,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
@@ -50181,7 +50185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
@@ -50246,7 +50250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -50311,7 +50315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -50376,7 +50380,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -50441,7 +50445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -50506,7 +50510,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>31</v>
       </c>
@@ -50571,7 +50575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>32</v>
       </c>
@@ -50636,7 +50640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>33</v>
       </c>
@@ -50701,7 +50705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>34</v>
       </c>
@@ -50766,7 +50770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>35</v>
       </c>
@@ -50845,9 +50849,9 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -50912,7 +50916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -50977,7 +50981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -51042,7 +51046,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -51107,7 +51111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -51172,7 +51176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -51237,7 +51241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -51302,7 +51306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -51367,7 +51371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -51432,7 +51436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -51497,7 +51501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -51562,7 +51566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -51627,7 +51631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -51692,7 +51696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -51757,7 +51761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -51822,7 +51826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -51887,7 +51891,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -51952,7 +51956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -52017,7 +52021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -52082,7 +52086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -52147,7 +52151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -52212,7 +52216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -52277,7 +52281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -52342,7 +52346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -52407,7 +52411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -52472,7 +52476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -52537,7 +52541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -52602,7 +52606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -52667,7 +52671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -52732,7 +52736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -52797,7 +52801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -52862,7 +52866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -52927,7 +52931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -52992,7 +52996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -53057,7 +53061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -53122,7 +53126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -53201,9 +53205,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -53268,7 +53272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -53333,7 +53337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -53398,7 +53402,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -53463,7 +53467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -53528,7 +53532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -53593,7 +53597,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -53658,7 +53662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -53723,7 +53727,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -53788,7 +53792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -53853,7 +53857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -53918,7 +53922,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -53983,7 +53987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -54048,7 +54052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -54113,7 +54117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -54178,7 +54182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -54243,7 +54247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -54308,7 +54312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -54373,7 +54377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -54438,7 +54442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -54503,7 +54507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -54568,7 +54572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -54633,7 +54637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -54698,7 +54702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -54763,7 +54767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -54828,7 +54832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -54893,7 +54897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -54958,7 +54962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -55023,7 +55027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -55088,7 +55092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -55153,7 +55157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -55218,7 +55222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -55283,7 +55287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -55348,7 +55352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -55413,7 +55417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -55478,7 +55482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -55543,7 +55547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -55608,7 +55612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -55673,7 +55677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -55738,7 +55742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -55803,7 +55807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -55868,7 +55872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -55933,7 +55937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -55998,7 +56002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -56063,7 +56067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -56128,7 +56132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -56193,7 +56197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -56258,7 +56262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -56323,7 +56327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -56388,7 +56392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -56453,7 +56457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -56518,7 +56522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -56583,7 +56587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -56648,7 +56652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -56713,7 +56717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -56778,7 +56782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -56843,7 +56847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -56908,7 +56912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -56973,7 +56977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -57038,7 +57042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
@@ -57103,7 +57107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
@@ -57168,7 +57172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
@@ -57233,7 +57237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -57298,7 +57302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>61</v>
       </c>
@@ -57363,7 +57367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>62</v>
       </c>
@@ -57428,7 +57432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>63</v>
       </c>
@@ -57493,7 +57497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>64</v>
       </c>
@@ -57558,7 +57562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>65</v>
       </c>
@@ -57623,7 +57627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>66</v>
       </c>
@@ -57688,7 +57692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>67</v>
       </c>
@@ -57753,7 +57757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>68</v>
       </c>
@@ -57818,7 +57822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>69</v>
       </c>
@@ -57883,7 +57887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>70</v>
       </c>
@@ -57948,7 +57952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>71</v>
       </c>
@@ -58013,7 +58017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>72</v>
       </c>
@@ -58078,7 +58082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>73</v>
       </c>
@@ -58143,7 +58147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>74</v>
       </c>
@@ -58208,7 +58212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>75</v>
       </c>
@@ -58273,7 +58277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>76</v>
       </c>
@@ -58338,7 +58342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>77</v>
       </c>
@@ -58403,7 +58407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>78</v>
       </c>
@@ -58468,7 +58472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>79</v>
       </c>
@@ -58533,7 +58537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>80</v>
       </c>
@@ -58598,7 +58602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>81</v>
       </c>
@@ -58663,7 +58667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>82</v>
       </c>
@@ -58728,7 +58732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>83</v>
       </c>
@@ -58793,7 +58797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>84</v>
       </c>
@@ -58858,7 +58862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>85</v>
       </c>
@@ -58923,7 +58927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>86</v>
       </c>
@@ -58988,7 +58992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>87</v>
       </c>
@@ -59053,7 +59057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>88</v>
       </c>
@@ -59118,7 +59122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>89</v>
       </c>
@@ -59183,7 +59187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>90</v>
       </c>
@@ -59248,7 +59252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>91</v>
       </c>
@@ -59313,7 +59317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -59378,7 +59382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>93</v>
       </c>
@@ -59443,7 +59447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>94</v>
       </c>
@@ -59508,7 +59512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>95</v>
       </c>
@@ -59573,7 +59577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>96</v>
       </c>
@@ -59638,7 +59642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>97</v>
       </c>
@@ -59703,7 +59707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>98</v>
       </c>
@@ -59768,7 +59772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>99</v>
       </c>
@@ -59833,7 +59837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>100</v>
       </c>
@@ -59898,7 +59902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>101</v>
       </c>
@@ -59963,7 +59967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>102</v>
       </c>
@@ -60028,7 +60032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>103</v>
       </c>
@@ -60093,7 +60097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>104</v>
       </c>
@@ -60158,7 +60162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>105</v>
       </c>
@@ -60223,7 +60227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>106</v>
       </c>
@@ -60288,7 +60292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>107</v>
       </c>
@@ -60353,7 +60357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>108</v>
       </c>
@@ -60418,7 +60422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>109</v>
       </c>
@@ -60483,7 +60487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>110</v>
       </c>
@@ -60548,7 +60552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>111</v>
       </c>
@@ -60613,7 +60617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>112</v>
       </c>
@@ -60678,7 +60682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>113</v>
       </c>
@@ -60743,7 +60747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>114</v>
       </c>
@@ -60808,7 +60812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>115</v>
       </c>
@@ -60873,7 +60877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>116</v>
       </c>
@@ -60938,7 +60942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>117</v>
       </c>
@@ -61003,7 +61007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>118</v>
       </c>
@@ -61068,7 +61072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>119</v>
       </c>
@@ -61133,7 +61137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>120</v>
       </c>
@@ -61198,7 +61202,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>121</v>
       </c>
@@ -61263,7 +61267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>122</v>
       </c>
@@ -61328,7 +61332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>123</v>
       </c>
@@ -61393,7 +61397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>124</v>
       </c>
@@ -61458,7 +61462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>125</v>
       </c>
@@ -61523,7 +61527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>126</v>
       </c>
@@ -61588,7 +61592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>127</v>
       </c>
@@ -61653,7 +61657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>128</v>
       </c>
@@ -61718,7 +61722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>129</v>
       </c>
@@ -61783,7 +61787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>130</v>
       </c>
@@ -61848,7 +61852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>131</v>
       </c>
@@ -61913,7 +61917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>132</v>
       </c>
@@ -61978,7 +61982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>133</v>
       </c>
@@ -62058,9 +62062,9 @@
       <selection activeCell="M13" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -62125,7 +62129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -62190,7 +62194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -62255,7 +62259,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -62320,7 +62324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -62385,7 +62389,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -62450,7 +62454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -62515,7 +62519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -62580,7 +62584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -62645,7 +62649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -62710,7 +62714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -62775,7 +62779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -62840,7 +62844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -62905,7 +62909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -62970,7 +62974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -63035,7 +63039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -63100,7 +63104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -63165,7 +63169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -63230,7 +63234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -63295,7 +63299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -63360,7 +63364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -63425,7 +63429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -63490,7 +63494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -63555,7 +63559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -63620,7 +63624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -63685,7 +63689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -63750,7 +63754,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -63815,7 +63819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -63880,7 +63884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -63945,7 +63949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -64010,7 +64014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -64075,7 +64079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -64140,7 +64144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -64205,7 +64209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -64270,7 +64274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -64335,7 +64339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -64400,7 +64404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -64465,7 +64469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -64544,9 +64548,9 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -64611,7 +64615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -64676,7 +64680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -64741,7 +64745,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -64806,7 +64810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -64871,7 +64875,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -64936,7 +64940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -65001,7 +65005,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -65066,7 +65070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -65131,7 +65135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -65196,7 +65200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -65261,7 +65265,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -65326,7 +65330,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -65391,7 +65395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -65456,7 +65460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -65521,7 +65525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -65586,7 +65590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -65651,7 +65655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -65716,7 +65720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -65781,7 +65785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -65846,7 +65850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -65911,7 +65915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -65976,7 +65980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -66041,7 +66045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -66106,7 +66110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -66171,7 +66175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -66236,7 +66240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -66301,7 +66305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -66366,7 +66370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -66431,7 +66435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -66496,7 +66500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -66561,7 +66565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -66626,7 +66630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -66691,7 +66695,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -66756,7 +66760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -66821,7 +66825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -66886,7 +66890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -66951,7 +66955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -67016,7 +67020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -67081,7 +67085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -67146,7 +67150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -67211,7 +67215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -67276,7 +67280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -67341,7 +67345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -67406,7 +67410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -67471,7 +67475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -67536,7 +67540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -67601,7 +67605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -67666,7 +67670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -67731,7 +67735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -67796,7 +67800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -67861,7 +67865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -67926,7 +67930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -67991,7 +67995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -68056,7 +68060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -68121,7 +68125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -68186,7 +68190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>
@@ -68251,7 +68255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -68316,7 +68320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -68381,7 +68385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>57</v>
       </c>
@@ -68446,7 +68450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>58</v>
       </c>
@@ -68511,7 +68515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>59</v>
       </c>
@@ -68576,7 +68580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>60</v>
       </c>
@@ -68641,7 +68645,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>61</v>
       </c>
@@ -68706,7 +68710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>62</v>
       </c>
@@ -68771,7 +68775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>63</v>
       </c>
@@ -68836,7 +68840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>64</v>
       </c>
@@ -68901,7 +68905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>65</v>
       </c>
@@ -68966,7 +68970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>66</v>
       </c>
@@ -69031,7 +69035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>67</v>
       </c>
@@ -69096,7 +69100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>68</v>
       </c>
@@ -69161,7 +69165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>69</v>
       </c>
@@ -69226,7 +69230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>70</v>
       </c>
@@ -69291,7 +69295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>71</v>
       </c>
@@ -69356,7 +69360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>72</v>
       </c>
@@ -69421,7 +69425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>73</v>
       </c>
@@ -69486,7 +69490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>74</v>
       </c>
@@ -69551,7 +69555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>75</v>
       </c>
@@ -69616,7 +69620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>76</v>
       </c>
@@ -69681,7 +69685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>77</v>
       </c>
@@ -69746,7 +69750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>78</v>
       </c>
@@ -69811,7 +69815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>79</v>
       </c>
@@ -69876,7 +69880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>80</v>
       </c>
@@ -69941,7 +69945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>81</v>
       </c>
@@ -70006,7 +70010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>82</v>
       </c>
@@ -70071,7 +70075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>83</v>
       </c>
@@ -70136,7 +70140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>84</v>
       </c>
@@ -70201,7 +70205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>85</v>
       </c>
@@ -70266,7 +70270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>86</v>
       </c>
@@ -70331,7 +70335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>87</v>
       </c>
@@ -70396,7 +70400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>88</v>
       </c>
@@ -70461,7 +70465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>89</v>
       </c>
@@ -70526,7 +70530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>90</v>
       </c>
@@ -70591,7 +70595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>91</v>
       </c>
@@ -70656,7 +70660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>92</v>
       </c>
@@ -70721,7 +70725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>93</v>
       </c>
@@ -70786,7 +70790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>94</v>
       </c>
@@ -70851,7 +70855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>95</v>
       </c>
@@ -70916,7 +70920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>96</v>
       </c>
@@ -70981,7 +70985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>97</v>
       </c>
@@ -71046,7 +71050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>98</v>
       </c>
@@ -71111,7 +71115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>99</v>
       </c>
@@ -71176,7 +71180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>100</v>
       </c>
@@ -71241,7 +71245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>101</v>
       </c>
@@ -71306,7 +71310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>102</v>
       </c>
@@ -71371,7 +71375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>103</v>
       </c>
@@ -71436,7 +71440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>104</v>
       </c>
@@ -71501,7 +71505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>105</v>
       </c>
@@ -71566,7 +71570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>106</v>
       </c>
@@ -71631,7 +71635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>107</v>
       </c>
@@ -71696,7 +71700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>108</v>
       </c>
@@ -71761,7 +71765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>109</v>
       </c>
@@ -71826,7 +71830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>110</v>
       </c>
@@ -71891,7 +71895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>111</v>
       </c>
@@ -71956,7 +71960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>112</v>
       </c>
@@ -72021,7 +72025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>113</v>
       </c>
@@ -72086,7 +72090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>114</v>
       </c>
@@ -72151,7 +72155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>115</v>
       </c>
@@ -72216,7 +72220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>116</v>
       </c>
@@ -72281,7 +72285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>117</v>
       </c>
@@ -72346,7 +72350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>118</v>
       </c>
@@ -72411,7 +72415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>119</v>
       </c>
@@ -72476,7 +72480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>120</v>
       </c>
@@ -72541,7 +72545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>121</v>
       </c>
@@ -72606,7 +72610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>122</v>
       </c>
@@ -72671,7 +72675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>123</v>
       </c>
@@ -72736,7 +72740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>124</v>
       </c>
@@ -72801,7 +72805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>125</v>
       </c>
@@ -72866,7 +72870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>126</v>
       </c>
@@ -72931,7 +72935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>127</v>
       </c>
@@ -72996,7 +73000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>128</v>
       </c>
@@ -73061,7 +73065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>129</v>
       </c>
@@ -73126,7 +73130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>130</v>
       </c>
@@ -73191,7 +73195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>131</v>
       </c>
@@ -73256,7 +73260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>132</v>
       </c>
@@ -73321,7 +73325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>133</v>
       </c>
@@ -73386,7 +73390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>134</v>
       </c>
@@ -73451,7 +73455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>135</v>
       </c>
@@ -73516,7 +73520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>136</v>
       </c>
@@ -73581,7 +73585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>137</v>
       </c>
@@ -73646,7 +73650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>138</v>
       </c>
@@ -73711,7 +73715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>139</v>
       </c>
@@ -73776,7 +73780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>140</v>
       </c>
@@ -73841,7 +73845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>141</v>
       </c>
@@ -73906,7 +73910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>142</v>
       </c>
@@ -73981,13 +73985,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8630CB-FBC2-4E65-A5E7-7B650D5840F2}">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -74052,7 +74056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -74117,7 +74121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -74182,7 +74186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -74247,7 +74251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -74312,7 +74316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -74377,7 +74381,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -74442,7 +74446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -74507,7 +74511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -74572,7 +74576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -74637,7 +74641,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -74702,7 +74706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -74767,7 +74771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -74832,7 +74836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -74897,7 +74901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -74962,7 +74966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -75027,7 +75031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -75092,7 +75096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -75157,7 +75161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -75222,7 +75226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -75287,7 +75291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -75352,7 +75356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -75417,7 +75421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -75482,7 +75486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -75547,7 +75551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -75612,7 +75616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -75677,7 +75681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -75742,7 +75746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -75807,7 +75811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -75872,7 +75876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -75937,7 +75941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -76002,7 +76006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -76067,7 +76071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -76132,7 +76136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -76197,7 +76201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -76262,7 +76266,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -76327,7 +76331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -76392,7 +76396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -76457,7 +76461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -76522,7 +76526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -76587,7 +76591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -76652,7 +76656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
@@ -76717,7 +76721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>40</v>
       </c>
@@ -76782,7 +76786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>41</v>
       </c>
@@ -76847,7 +76851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>42</v>
       </c>
@@ -76912,7 +76916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
@@ -76977,7 +76981,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>44</v>
       </c>
@@ -77042,7 +77046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>45</v>
       </c>
@@ -77107,7 +77111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>46</v>
       </c>
@@ -77172,7 +77176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>47</v>
       </c>
@@ -77237,7 +77241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>48</v>
       </c>
@@ -77302,7 +77306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>49</v>
       </c>
@@ -77367,7 +77371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>50</v>
       </c>
@@ -77432,7 +77436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>51</v>
       </c>
@@ -77497,7 +77501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>52</v>
       </c>
@@ -77562,7 +77566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>53</v>
       </c>
@@ -77627,7 +77631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>54</v>
       </c>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minieditor\project\dreamland\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AC50E8-D0C4-4741-B396-E1915F2F813E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8D3274-74D3-447E-8616-40187049CE49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础卡" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16198" uniqueCount="4723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16215" uniqueCount="4725">
   <si>
     <t>编号</t>
   </si>
@@ -14610,6 +14610,14 @@
   </si>
   <si>
     <t>i_card_expert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月之女祭司泰兰德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧师|猎人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15043,8 +15051,8 @@
   <dimension ref="A1:U175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A168" sqref="A168:XFD168"/>
+      <pane ySplit="3" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -26440,10 +26448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -29544,6 +29552,68 @@
         <v>62</v>
       </c>
       <c r="U48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>229</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" t="s">
+        <v>827</v>
+      </c>
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49">
+        <v>30</v>
+      </c>
+      <c r="J49" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" t="s">
+        <v>52</v>
+      </c>
+      <c r="L49" t="s">
+        <v>4724</v>
+      </c>
+      <c r="M49" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" t="s">
+        <v>52</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>52</v>
+      </c>
+      <c r="R49" t="s">
+        <v>52</v>
+      </c>
+      <c r="S49" t="s">
+        <v>52</v>
+      </c>
+      <c r="T49" t="s">
+        <v>62</v>
+      </c>
+      <c r="U49" t="b">
         <v>1</v>
       </c>
     </row>
@@ -29558,8 +29628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BC1BF1-0767-473D-A0B2-BDBBD7056D5B}">
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/excel/卡牌信息表.xlsx
+++ b/excel/卡牌信息表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minieditor\project\dreamland\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\minieditor\project\dreamland\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8D3274-74D3-447E-8616-40187049CE49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426E1B34-F133-408B-BC61-D462A613D459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础卡" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16215" uniqueCount="4725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16232" uniqueCount="4727">
   <si>
     <t>编号</t>
   </si>
@@ -14618,6 +14618,14 @@
   </si>
   <si>
     <t>牧师|猎人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣法师麦德安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师|圣骑士|萨满祭司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15055,15 +15063,15 @@
       <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.73046875" customWidth="1"/>
-    <col min="17" max="17" width="22.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15128,7 +15136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -15193,7 +15201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -15258,7 +15266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>187</v>
       </c>
@@ -15323,7 +15331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>188</v>
       </c>
@@ -15388,7 +15396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>189</v>
       </c>
@@ -15453,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>190</v>
       </c>
@@ -15518,7 +15526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>191</v>
       </c>
@@ -15583,7 +15591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>192</v>
       </c>
@@ -15648,7 +15656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>193</v>
       </c>
@@ -15713,7 +15721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>194</v>
       </c>
@@ -15778,7 +15786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>195</v>
       </c>
@@ -15843,7 +15851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>196</v>
       </c>
@@ -15908,7 +15916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -15973,7 +15981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>4</v>
       </c>
@@ -16038,7 +16046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -16103,7 +16111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -16168,7 +16176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>7</v>
       </c>
@@ -16233,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>8</v>
       </c>
@@ -16298,7 +16306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>9</v>
       </c>
@@ -16363,7 +16371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>10</v>
       </c>
@@ -16428,7 +16436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>11</v>
       </c>
@@ -16493,7 +16501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>12</v>
       </c>
@@ -16558,7 +16566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>13</v>
       </c>
@@ -16623,7 +16631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>213</v>
       </c>
@@ -16688,7 +16696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>214</v>
       </c>
@@ -16753,7 +16761,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>16</v>
       </c>
@@ -16818,7 +16826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>17</v>
       </c>
@@ -16883,7 +16891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>18</v>
       </c>
@@ -16948,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>19</v>
       </c>
@@ -17013,7 +17021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>20</v>
       </c>
@@ -17078,7 +17086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>21</v>
       </c>
@@ -17143,7 +17151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>22</v>
       </c>
@@ -17208,7 +17216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>23</v>
       </c>
@@ -17273,7 +17281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>24</v>
       </c>
@@ -17338,7 +17346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>25</v>
       </c>
@@ -17403,7 +17411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>27</v>
       </c>
@@ -17468,7 +17476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>28</v>
       </c>
@@ -17533,7 +17541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>29</v>
       </c>
@@ -17598,7 +17606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>215</v>
       </c>
@@ -17663,7 +17671,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>30</v>
       </c>
@@ -17728,7 +17736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>31</v>
       </c>
@@ -17793,7 +17801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>32</v>
       </c>
@@ -17858,7 +17866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>33</v>
       </c>
@@ -17923,7 +17931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>34</v>
       </c>
@@ -17988,7 +17996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>35</v>
       </c>
@@ -18053,7 +18061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>36</v>
       </c>
@@ -18118,7 +18126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>37</v>
       </c>
@@ -18183,7 +18191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>38</v>
       </c>
@@ -18248,7 +18256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>39</v>
       </c>
@@ -18313,7 +18321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>41</v>
       </c>
@@ -18378,7 +18386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>115</v>
       </c>
@@ -18443,7 +18451,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>42</v>
       </c>
@@ -18508,7 +18516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>43</v>
       </c>
@@ -18573,7 +18581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>44</v>
       </c>
@@ -18638,7 +18646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>45</v>
       </c>
@@ -18703,7 +18711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>46</v>
       </c>
@@ -18768,7 +18776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>47</v>
       </c>
@@ -18833,7 +18841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>48</v>
       </c>
@@ -18898,7 +18906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>49</v>
       </c>
@@ -18963,7 +18971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>50</v>
       </c>
@@ -19028,7 +19036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>51</v>
       </c>
@@ -19093,7 +19101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>57</v>
       </c>
@@ -19158,7 +19166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>58</v>
       </c>
@@ -19223,7 +19231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>56</v>
       </c>
@@ -19288,7 +19296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>55</v>
       </c>
@@ -19353,7 +19361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>198</v>
       </c>
@@ -19418,7 +19426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>59</v>
       </c>
@@ -19483,7 +19491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>61</v>
       </c>
@@ -19548,7 +19556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>62</v>
       </c>
@@ -19613,7 +19621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>199</v>
       </c>
@@ -19678,7 +19686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>63</v>
       </c>
@@ -19743,7 +19751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>65</v>
       </c>
@@ -19808,7 +19816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>66</v>
       </c>
@@ -19873,7 +19881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>67</v>
       </c>
@@ -19938,7 +19946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>68</v>
       </c>
@@ -20003,7 +20011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>69</v>
       </c>
@@ -20068,7 +20076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>70</v>
       </c>
@@ -20133,7 +20141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>71</v>
       </c>
@@ -20198,7 +20206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>72</v>
       </c>
@@ -20263,7 +20271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>73</v>
       </c>
@@ -20328,7 +20336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>74</v>
       </c>
@@ -20393,7 +20401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>77</v>
       </c>
@@ -20458,7 +20466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>78</v>
       </c>
@@ -20523,7 +20531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>79</v>
       </c>
@@ -20588,7 +20596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>80</v>
       </c>
@@ -20653,7 +20661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>81</v>
       </c>
@@ -20718,7 +20726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>82</v>
       </c>
@@ -20783,7 +20791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>83</v>
       </c>
@@ -20848,7 +20856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>84</v>
       </c>
@@ -20913,7 +20921,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>85</v>
       </c>
@@ -20978,7 +20986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>86</v>
       </c>
@@ -21043,7 +21051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>87</v>
       </c>
@@ -21108,7 +21116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -21173,7 +21181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -21238,7 +21246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -21303,7 +21311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -21368,7 +21376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -21433,7 +21441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -21498,7 +21506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -21563,7 +21571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -21628,7 +21636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -21693,7 +21701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -21758,7 +21766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>216</v>
       </c>
@@ -21823,7 +21831,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -21888,7 +21896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -21953,7 +21961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -22018,7 +22026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -22083,7 +22091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -22148,7 +22156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -22213,7 +22221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -22278,7 +22286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -22343,7 +22351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -22408,7 +22416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -22473,7 +22481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>121</v>
       </c>
@@ -22538,7 +22546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>122</v>
       </c>
@@ -22603,7 +22611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>123</v>
       </c>
@@ -22668,7 +22676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>124</v>
       </c>
@@ -22733,7 +22741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>125</v>
       </c>
@@ -22798,7 +22806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>126</v>
       </c>
@@ -22863,7 +22871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>127</v>
       </c>
@@ -22928,7 +22936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>128</v>
       </c>
@@ -22993,7 +23001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>129</v>
       </c>
@@ -23058,7 +23066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>130</v>
       </c>
@@ -23123,7 +23131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>131</v>
       </c>
@@ -23188,7 +23196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>132</v>
       </c>
@@ -23253,7 +23261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>133</v>
       </c>
@@ -23318,7 +23326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>134</v>
       </c>
@@ -23383,7 +23391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>135</v>
       </c>
@@ -23448,7 +23456,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>136</v>
       </c>
@@ -23513,7 +23521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>137</v>
       </c>
@@ -23578,7 +23586,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>138</v>
       </c>
@@ -23643,7 +23651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>139</v>
       </c>
@@ -23708,7 +23716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>140</v>
       </c>
@@ -23773,7 +23781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>141</v>
       </c>
@@ -23838,7 +23846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>142</v>
       </c>
@@ -23903,7 +23911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>143</v>
       </c>
@@ -23968,7 +23976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>144</v>
       </c>
@@ -24033,7 +24041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>145</v>
       </c>
@@ -24098,7 +24106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>146</v>
       </c>
@@ -24163,7 +24171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>147</v>
       </c>
@@ -24228,7 +24236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>148</v>
       </c>
@@ -24293,7 +24301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>149</v>
       </c>
@@ -24358,7 +24366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>150</v>
       </c>
@@ -24423,7 +24431,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>151</v>
       </c>
@@ -24488,7 +24496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>152</v>
       </c>
@@ -24553,7 +24561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>153</v>
       </c>
@@ -24618,7 +24626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>154</v>
       </c>
@@ -24683,7 +24691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>155</v>
       </c>
@@ -24748,7 +24756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>156</v>
       </c>
@@ -24813,7 +24821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>157</v>
       </c>
@@ -24878,7 +24886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>158</v>
       </c>
@@ -24943,7 +24951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>159</v>
       </c>
@@ -25008,7 +25016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>160</v>
       </c>
@@ -25073,7 +25081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>161</v>
       </c>
@@ -25138,7 +25146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>162</v>
       </c>
@@ -25203,7 +25211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>163</v>
       </c>
@@ -25268,7 +25276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>164</v>
       </c>
@@ -25333,7 +25341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>165</v>
       </c>
@@ -25398,7 +25406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>166</v>
       </c>
@@ -25463,7 +25471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>14</v>
       </c>
@@ -25528,7 +25536,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>211</v>
       </c>
@@ -25593,7 +25601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>212</v>
       </c>
@@ -25658,7 +25666,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>217</v>
       </c>
@@ -25723,7 +25731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>218</v>
       </c>
@@ -25788,7 +25796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>219</v>
       </c>
@@ -25853,7 +25861,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>220</v>
       </c>
@@ -25918,7 +25926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>228</v>
       </c>
@@ -25983,7 +25991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>221</v>
       </c>
@@ -26048,7 +26056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>222</v>
       </c>
@@ -26113,7 +26121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>223</v>
       </c>
@@ -26178,7 +26186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>224</v>
       </c>
@@ -26243,7 +26251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>225</v>
       </c>
@@ -26308,7 +26316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>226</v>
       </c>
@@ -26373,7 +26381,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>227</v>
       </c>
@@ -26448,18 +26456,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26524,7 +26532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -26589,7 +26597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -26654,7 +26662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>186</v>
       </c>
@@ -26719,7 +26727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>197</v>
       </c>
@@ -26784,7 +26792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>200</v>
       </c>
@@ -26849,7 +26857,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>168</v>
       </c>
@@ -26914,7 +26922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>15</v>
       </c>
@@ -26979,7 +26987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>201</v>
       </c>
@@ -27044,7 +27052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>169</v>
       </c>
@@ -27109,7 +27117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>26</v>
       </c>
@@ -27174,7 +27182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>202</v>
       </c>
@@ -27239,7 +27247,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>170</v>
       </c>
@@ -27304,7 +27312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>40</v>
       </c>
@@ -27369,7 +27377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>203</v>
       </c>
@@ -27434,7 +27442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>171</v>
       </c>
@@ -27499,7 +27507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>52</v>
       </c>
@@ -27564,7 +27572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>204</v>
       </c>
@@ -27629,7 +27637,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>53</v>
       </c>
@@ -27694,7 +27702,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>172</v>
       </c>
@@ -27759,7 +27767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>64</v>
       </c>
@@ -27824,7 +27832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>205</v>
       </c>
@@ -27889,7 +27897,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>173</v>
       </c>
@@ -27954,7 +27962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>75</v>
       </c>
@@ -28019,7 +28027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>76</v>
       </c>
@@ -28084,7 +28092,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>206</v>
       </c>
@@ -28149,7 +28157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>210</v>
       </c>
@@ -28214,7 +28222,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>174</v>
       </c>
@@ -28279,7 +28287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>88</v>
       </c>
@@ -28344,7 +28352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>207</v>
       </c>
@@ -28409,7 +28417,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>89</v>
       </c>
@@ -28474,7 +28482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>90</v>
       </c>
@@ -28539,7 +28547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>91</v>
       </c>
@@ -28604,7 +28612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>92</v>
       </c>
@@ -28669,7 +28677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>175</v>
       </c>
@@ -28734,7 +28742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>103</v>
       </c>
@@ -28799,7 +28807,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>208</v>
       </c>
@@ -28864,7 +28872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>176</v>
       </c>
@@ -28929,7 +28937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>114</v>
       </c>
@@ -28994,7 +29002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>209</v>
       </c>
@@ -29059,7 +29067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>177</v>
       </c>
@@ -29121,7 +29129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>178</v>
       </c>
@@ -29183,7 +29191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>179</v>
       </c>
@@ -29245,7 +29253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>180</v>
       </c>
@@ -29307,7 +29315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>182</v>
       </c>
@@ -29369,7 +29377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>183</v>
       </c>
@@ -29431,7 +29439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>184</v>
       </c>
@@ -29493,7 +29501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>185</v>
       </c>
@@ -29555,7 +29563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>229</v>
       </c>
@@ -29614,6 +29622,68 @@
         <v>62</v>
       </c>
       <c r="U49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>230</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>827</v>
+      </c>
+      <c r="G50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50">
+        <v>30</v>
+      </c>
+      <c r="J50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K50" t="s">
+        <v>52</v>
+      </c>
+      <c r="L50" t="s">
+        <v>4726</v>
+      </c>
+      <c r="M50" t="s">
+        <v>58</v>
+      </c>
+      <c r="N50" t="s">
+        <v>52</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>52</v>
+      </c>
+      <c r="R50" t="s">
+        <v>52</v>
+      </c>
+      <c r="S50" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50" t="s">
+        <v>62</v>
+      </c>
+      <c r="U50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -29632,9 +29702,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29699,7 +29769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -29764,7 +29834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4722</v>
       </c>
@@ -29829,7 +29899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -29894,7 +29964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -29959,7 +30029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -30024,7 +30094,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -30089,7 +30159,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -30154,7 +30224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -30219,7 +30289,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -30284,7 +30354,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -30349,7 +30419,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -30414,7 +30484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -30479,7 +30549,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -30544,7 +30614,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -30609,7 +30679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -30674,7 +30744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -30739,7 +30809,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -30804,7 +30874,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -30869,7 +30939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -30934,7 +31004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -30999,7 +31069,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -31064,7 +31134,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -31129,7 +31199,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -31194,7 +31264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -31259,7 +31329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -31324,7 +31394,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -31389,7 +31459,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -31454,7 +31524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -31519,7 +31589,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -31584,7 +31654,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -31649,7 +31719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -31714,7 +31784,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -31779,7 +31849,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -31844,7 +31914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -31909,7 +31979,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -31974,7 +32044,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -32039,7 +32109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -32104,7 +32174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -32169,7 +32239,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -32234,7 +32304,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -32299,7 +32369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -32364,7 +32434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -32429,7 +32499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -32494,7 +32564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -32559,7 +32629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -32624,7 +32694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -32689,7 +32759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -32754,7 +32824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -32819,7 +32889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -32884,7 +32954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -32949,7 +33019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -33014,7 +33084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -33079,7 +33149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -33144,7 +33214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -33209,7 +33279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -33274,7 +33344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>54</v>
       </c>
@@ -33339,7 +33409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -33404,7 +33474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>56</v>
       </c>
@@ -33469,7 +33539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>57</v>
       </c>
@@ -33534,7 +33604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -33599,7 +33669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -33664,7 +33734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>60</v>
       </c>
@@ -33729,7 +33799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>61</v>
       </c>
@@ -33794,7 +33864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>62</v>
       </c>
@@ -33859,7 +33929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>63</v>
       </c>
@@ -33924,7 +33994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>64</v>
       </c>
@@ -33989,7 +34059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>65</v>
       </c>
@@ -34054,7 +34124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>66</v>
       </c>
@@ -34119,7 +34189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>67</v>
       </c>
@@ -34184,7 +34254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>68</v>
       </c>
@@ -34249,7 +34319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>69</v>
       </c>
@@ -34314,7 +34384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>70</v>
       </c>
@@ -34379,7 +34449,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>71</v>
       </c>
@@ -34444,7 +34514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>72</v>
       </c>
@@ -34509,7 +34579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>73</v>
       </c>
@@ -34574,7 +34644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>74</v>
       </c>
@@ -34639,7 +34709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>75</v>
       </c>
@@ -34704,7 +34774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>76</v>
       </c>
@@ -34769,7 +34839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>77</v>
       </c>
@@ -34834,7 +34904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>78</v>
       </c>
@@ -34899,7 +34969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>79</v>
       </c>
@@ -34964,7 +35034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>80</v>
       </c>
@@ -35029,7 +35099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>81</v>
       </c>
@@ -35094,7 +35164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>82</v>
       </c>
@@ -35159,7 +35229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>83</v>
       </c>
@@ -35224,7 +35294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>84</v>
       </c>
@@ -35289,7 +35359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>85</v>
       </c>
@@ -35354,7 +35424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>86</v>
       </c>
@@ -35419,7 +35489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>87</v>
       </c>
@@ -35484,7 +35554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>88</v>
       </c>
@@ -35549,7 +35619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>89</v>
       </c>
@@ -35614,7 +35684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>90</v>
       </c>
@@ -35679,7 +35749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>91</v>
       </c>
@@ -35744,7 +35814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>92</v>
       </c>
@@ -35809,7 +35879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>93</v>
       </c>
@@ -35874,7 +35944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>94</v>
       </c>
@@ -35939,7 +36009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>95</v>
       </c>
@@ -36004,7 +36074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>96</v>
       </c>
@@ -36069,7 +36139,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>97</v>
       </c>
@@ -36134,7 +36204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>98</v>
       </c>
@@ -36199,7 +36269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>99</v>
       </c>
@@ -36264,7 +36334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>100</v>
       </c>
@@ -36329,7 +36399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>101</v>
       </c>
@@ -36394,7 +36464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>102</v>
       </c>
@@ -36459,7 +36529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>103</v>
       </c>
@@ -36524,7 +36594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>104</v>
       </c>
@@ -36589,7 +36659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>105</v>
       </c>
@@ -36654,7 +36724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>106</v>
       </c>
@@ -36719,7 +36789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>107</v>
       </c>
@@ -36784,7 +36854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>108</v>
       </c>
@@ -36849,7 +36919,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>109</v>
       </c>
@@ -36914,7 +36984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>110</v>
       </c>
@@ -36979,7 +37049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>111</v>
       </c>
@@ -37044,7 +37114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>112</v>
       </c>
@@ -37109,7 +37179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>113</v>
       </c>
@@ -37174,7 +37244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>114</v>
       </c>
@@ -37239,7 +37309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>115</v>
       </c>
@@ -37304,7 +37374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>116</v>
       </c>
@@ -37369,7 +37439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>117</v>
       </c>
@@ -37434,7 +37504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>118</v>
       </c>
@@ -37499,7 +37569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>119</v>
       </c>
@@ -37564,7 +37634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>120</v>
       </c>
@@ -37629,7 +37699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>121</v>
       </c>
@@ -37694,7 +37764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>122</v>
       </c>
@@ -37759,7 +37829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>123</v>
       </c>
@@ -37824,7 +37894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>124</v>
       </c>
@@ -37889,7 +37959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>125</v>
       </c>
@@ -37954,7 +38024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>126</v>
       </c>
@@ -38019,7 +38089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>127</v>
       </c>
@@ -38084,7 +38154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>128</v>
       </c>
@@ -38149,7 +38219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>129</v>
       </c>
@@ -38214,7 +38284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>130</v>
       </c>
@@ -38279,7 +38349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>131</v>
       </c>
@@ -38344,7 +38414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>132</v>
       </c>
@@ -38409,7 +38479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>133</v>
       </c>
@@ -38474,7 +38544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>134</v>
       </c>
@@ -38539,7 +38609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>135</v>
       </c>
@@ -38604,7 +38674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>136</v>
       </c>
@@ -38669,7 +38739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>137</v>
       </c>
@@ -38734,7 +38804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>138</v>
       </c>
@@ -38799,7 +38869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>139</v>
       </c>
@@ -38864,7 +38934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>140</v>
       </c>
@@ -38929,7 +38999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>141</v>
       </c>
@@ -38994,7 +39064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>142</v>
       </c>
@@ -39059,7 +39129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>143</v>
       </c>
@@ -39124,7 +39194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>144</v>
       </c>
@@ -39189,7 +39259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>145</v>
       </c>
@@ -39254,7 +39324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>146</v>
       </c>
@@ -39319,7 +39389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>147</v>
       </c>
@@ -39384,7 +39454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>148</v>
       </c>
@@ -39449,7 +39519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>149</v>
       </c>
@@ -39514,7 +39584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>150</v>
       </c>
@@ -39579,7 +39649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>151</v>
       </c>
@@ -39644,7 +39714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>152</v>
       </c>
@@ -39709,7 +39779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>153</v>
       </c>
@@ -39774,7 +39844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>154</v>
       </c>
@@ -39839,7 +39909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>155</v>
       </c>
@@ -39904,7 +39974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>156</v>
       </c>
@@ -39969,7 +40039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>157</v>
       </c>
@@ -40034,7 +40104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>158</v>
       </c>
@@ -40099,7 +40169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>159</v>
       </c>
@@ -40164,7 +40234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>160</v>
       </c>
@@ -40229,7 +40299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>161</v>
       </c>
@@ -40294,7 +40364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>162</v>
       </c>
@@ -40359,7 +40429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>163</v>
       </c>
@@ -40424,7 +40494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>164</v>
       </c>
@@ -40489,7 +40559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>165</v>
       </c>
@@ -40554,7 +40624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>166</v>
       </c>
@@ -40619,7 +40689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>167</v>
       </c>
@@ -40684,7 +40754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>168</v>
       </c>
@@ -40749,7 +40819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>169</v>
       </c>
@@ -40814,7 +40884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>170</v>
       </c>
@@ -40879,7 +40949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>171</v>
       </c>
@@ -40944,7 +41014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>172</v>
       </c>
@@ -41009,7 +41079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>173</v>
       </c>
@@ -41074,7 +41144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>174</v>
       </c>
@@ -41139,7 +41209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>175</v>
       </c>
@@ -41204,7 +41274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>176</v>
       </c>
@@ -41269,7 +41339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>177</v>
       </c>
@@ -41334,7 +41404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>178</v>
       </c>
@@ -41399,7 +41469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>179</v>
       </c>
@@ -41464,7 +41534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>180</v>
       </c>
@@ -41529,7 +41599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>181</v>
       </c>
@@ -41594,7 +41664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>182</v>
       </c>
@@ -41659,7 +41729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>183</v>
       </c>
@@ -41724,7 +41794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>184</v>
       </c>
@@ -41789,7 +41859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>185</v>
       </c>
@@ -41854,7 +41924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>186</v>
       </c>
@@ -41919,7 +41989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>187</v>
       </c>
@@ -41984,7 +42054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>188</v>
       </c>
@@ -42049,7 +42119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>189</v>
       </c>
@@ -42114,7 +42184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>190</v>
       </c>
@@ -42179,7 +42249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>191</v>
       </c>
@@ -42244,7 +42314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>192</v>
       </c>
@@ -42309,7 +42379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>193</v>
       </c>
@@ -42374,7 +42444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>194</v>
       </c>
@@ -42439,7 +42509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>195</v>
       </c>
@@ -42504,7 +42574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>196</v>
       </c>
@@ -42569,7 +42639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>197</v>
       </c>
@@ -42634,7 +42704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>198</v>
       </c>
@@ -42699,7 +42769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>199</v>
       </c>
@@ -42764,7 +42834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>200</v>
       </c>
@@ -42829,7 +42899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>201</v>
       </c>
@@ -42894,7 +42964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>202</v>
       </c>
@@ -42959,7 +43029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>203</v>
       </c>
@@ -43024,7 +43094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>204</v>
       </c>
@@ -43089,7 +43159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>205</v>
       </c>
@@ -43154,7 +43224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>206</v>
       </c>
@@ -43219,7 +43289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>207</v>
       </c>
@@ -43284,7 +43354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>208</v>
       </c>
@@ -43349,7 +43419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>209</v>
       </c>
@@ -43414,7 +43484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>210</v>
       </c>
@@ -43479,7 +43549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>211</v>
       </c>
@@ -43544,7 +43614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>212</v>
       </c>
@@ -43609,7 +43679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>213</v>
       </c>
@@ -43674,7 +43744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>214</v>
       </c>
@@ -43739,7 +43809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>215</v>
       </c>
@@ -43804,7 +43874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>216</v>
       </c>
@@ -43869,7 +43939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>217</v>
       </c>
@@ -43934,7 +44004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>218</v>
       </c>
@@ -43999,7 +44069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>219</v>
       </c>
@@ -44064,7 +44134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>220</v>
       </c>
@@ -44129,7 +44199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>221</v>
       </c>
@@ -44194,7 +44264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>222</v>
       </c>
@@ -44259,7 +44329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>223</v>
       </c>
@@ -44324,7 +44394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>224</v>
       </c>
@@ -44389,7 +44459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>225</v>
       </c>
@@ -44454,7 +44524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>226</v>
       </c>
@@ -44519,7 +44589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>227</v>
       </c>
@@ -44584,7 +44654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>228</v>
       </c>
@@ -44649,7 +44719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>229</v>
       </c>
@@ -44714,7 +44784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>230</v>
       </c>
@@ -44779,7 +44849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>231</v>
       </c>
@@ -44844,7 +44914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>232</v>
       </c>
@@ -44909,7 +44979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>233</v>
       </c>
@@ -44974,7 +45044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>234</v>
       </c>
@@ -45039,7 +45109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>235</v>
       </c>
@@ -45104,7 +45174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>236</v>
       </c>
@@ -45169,7 +45239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>237</v>
       </c>
@@ -45234,7 +45304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>238</v>
       </c>
@@ -45299,7 +45369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>239</v>
       </c>
@@ -45364,7 +45434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>240</v>
       </c>
@@ -45429,7 +45499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>241</v>
       </c>
@@ -45494,7 +45564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>242</v>
       </c>
@@ -45559,7 +45629,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>243</v>
       </c>
@@ -45624,7 +45694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>244</v>
       </c>
@@ -45689,7 +45759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>245</v>
       </c>
@@ -45754,7 +45824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>246</v>
       </c>
@@ -45819,7 +45889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>247</v>
       </c>
@@ -45884,7 +45954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>248</v>
       </c>
@@ -45949,7 +46019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>249</v>
       </c>
@@ -46014,7 +46084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>250</v>
       </c>
@@ -46079,7 +46149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>251</v>
       </c>
@@ -46144,7 +46214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>252</v>
       </c>
@@ -46209,7 +46279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>253</v>
       </c>
@@ -46274,7 +46344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>254</v>
       </c>
@@ -46339,7 +46409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>255</v>
       </c>
@@ -46404,7 +46474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>256</v>
       </c>
@@ -46469,7 +46539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>257</v>
       </c>
@@ -46534,7 +46604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>258</v>
       </c>
@@ -46599,7 +46669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>259</v>
       </c>
@@ -46664,7 +46734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>260</v>
       </c>
@@ -46729,7 +46799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>261</v>
       </c>
@@ -46794,7 +46864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>262</v>
       </c>
@@ -46859,7 +46929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>263</v>
       </c>
@@ -46924,7 +46994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>264</v>
       </c>
@@ -46989,7 +47059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>265</v>
       </c>
@@ -47054,7 +47124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>266</v>
       </c>
@@ -47119,7 +47189,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>267</v>
       </c>
@@ -47184,7 +47254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>268</v>
       </c>
@@ -47249,7 +47319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>269</v>
       </c>
@@ -47314,7 +47384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>270</v>
       </c>
@@ -47379,7 +47449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>271</v>
       </c>
@@ -47444,7 +47514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>272</v>
       </c>
@@ -47509,7 +47579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>273</v>
       </c>
@@ -47574,7 +47644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>274</v>
       </c>
@@ -47639,7 +47709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>275</v>
       </c>
@@ -47704,7 +47774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>276</v>
       </c>
@@ -47769,7 +47839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>277</v>
       </c>
@@ -47834,7 +47904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>278</v>
       </c>
@@ -47899,7 +47969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>279</v>
       </c>
@@ -47978,9 +48048,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -48045,7 +48115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -48110,7 +48180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -48175,7 +48245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -48240,7 +48310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -48305,7 +48375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -48370,7 +48440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -48435,7 +48505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -48500,7 +48570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -48565,7 +48635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -48630,7 +48700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -48695,7 +48765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -48760,7 +48830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -48825,7 +48895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -48890,7 +48960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -48955,7 +49025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -49020,7 +49090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -49085,7 +49155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -49150,7 +49220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -49215,7 +49285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -49280,7 +49350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -49345,7 +49415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -49410,7 +49480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -49475,7 +49545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -49540,7 +49610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -49605,7 +49675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -49670,7 +49740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -49735,7 +49805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -49800,7 +49870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -49865,7 +49935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -49930,7 +50000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -49995,7 +50065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>40</v>
       </c>
@@ -50060,7 +50130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>41</v>
       </c>
@@ -50125,7 +50195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>42</v>
       </c>
@@ -50190,7 +50260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>29</v>
       </c>
@@ -50255,7 +50325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>30</v>
       </c>
@@ -50320,7 +50390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -50385,7 +50455,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -50450,7 +50520,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -50515,7 +50585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -50580,7 +50650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>31</v>
       </c>
@@ -50645,7 +50715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>32</v>
       </c>
@@ -50710,7 +50780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>33</v>
       </c>
@@ -50775,7 +50845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>34</v>
       </c>
@@ -50840,7 +50910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>35</v>
       </c>
@@ -50919,9 +50989,9 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -50986,7 +51056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -51051,7 +51121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -51116,7 +51186,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -51181,7 +51251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -51246,7 +51316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -51311,7 +51381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -51376,7 +51446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -51441,7 +51511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -51506,7 +51576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -51571,7 +51641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -51636,7 +51706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -51701,7 +51771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -51766,7 +51836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -51831,7 +51901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -51896,7 +51966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -51961,7 +52031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -52026,7 +52096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -52091,7 +52161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -52156,7 +52226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -52221,7 +52291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -52286,7 +52356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -52351,7 +52421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -52416,7 +52486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -52481,7 +52551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -52546,7 +52616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -52611,7 +52681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -52676,7 +52746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -52741,7 +52811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -52806,7 +52876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -52871,7 +52941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -52936,7 +53006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -53001,7 +53071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -53066,7 +53136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -53131,7 +53201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -53196,7 +53266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -53275,9 +53345,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -53342,7 +53412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -53407,7 +53477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -53472,7 +53542,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -53537,7 +53607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -53602,7 +53672,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -53667,7 +53737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -53732,7 +53802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -53797,7 +53867,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -53862,7 +53932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -53927,7 +53997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -53992,7 +54062,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -54057,7 +54127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -54122,7 +54192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -54187,7 +54257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -54252,7 +54322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -54317,7 +54387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -54382,7 +54452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -54447,7 +54517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -54512,7 +54582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -54577,7 +54647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -54642,7 +54712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -54707,7 +54777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -54772,7 +54842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -54837,7 +54907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -54902,7 +54972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -54967,7 +55037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -55032,7 +55102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -55097,7 +55167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -55162,7 +55232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -55227,7 +55297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -55292,7 +55362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -55357,7 +55427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -55422,7 +55492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -55487,7 +55557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -55552,7 +55622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -55617,7 +55687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -55682,7 +55752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -55747,7 +55817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -55812,7 +55882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -55877,7 +55947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -55942,7 +56012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -56007,7 +56077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -56072,7 +56142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -56137,7 +56207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -56202,7 +56272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -56267,7 +56337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -56332,7 +56402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -56397,7 +56467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -56462,7 +56532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -56527,7 +56597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -56592,7 +56662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -56657,7 +56727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -56722,7 +56792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -56787,7 +56857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -56852,7 +56922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -56917,7 +56987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>54</v>
       </c>
@@ -56982,7 +57052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -57047,7 +57117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>56</v>
       </c>
@@ -57112,7 +57182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>57</v>
       </c>
@@ -57177,7 +57247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -57242,7 +57312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -57307,7 +57377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>60</v>
       </c>
@@ -57372,7 +57442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>61</v>
       </c>
@@ -57437,7 +57507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>62</v>
       </c>
@@ -57502,7 +57572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>63</v>
       </c>
@@ -57567,7 +57637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>64</v>
       </c>
@@ -57632,7 +57702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>65</v>
       </c>
@@ -57697,7 +57767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>66</v>
       </c>
@@ -57762,7 +57832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>67</v>
       </c>
@@ -57827,7 +57897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>68</v>
       </c>
@@ -57892,7 +57962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>69</v>
       </c>
@@ -57957,7 +58027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>70</v>
       </c>
@@ -58022,7 +58092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>71</v>
       </c>
@@ -58087,7 +58157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>72</v>
       </c>
@@ -58152,7 +58222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>73</v>
       </c>
@@ -58217,7 +58287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>74</v>
       </c>
@@ -58282,7 +58352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>75</v>
       </c>
@@ -58347,7 +58417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>76</v>
       </c>
@@ -58412,7 +58482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>77</v>
       </c>
@@ -58477,7 +58547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>78</v>
       </c>
@@ -58542,7 +58612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>79</v>
       </c>
@@ -58607,7 +58677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>80</v>
       </c>
@@ -58672,7 +58742,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>81</v>
       </c>
@@ -58737,7 +58807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>82</v>
       </c>
@@ -58802,7 +58872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>83</v>
       </c>
@@ -58867,7 +58937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>84</v>
       </c>
@@ -58932,7 +59002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>85</v>
       </c>
@@ -58997,7 +59067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>86</v>
       </c>
@@ -59062,7 +59132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>87</v>
       </c>
@@ -59127,7 +59197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>88</v>
       </c>
@@ -59192,7 +59262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>89</v>
       </c>
@@ -59257,7 +59327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>90</v>
       </c>
@@ -59322,7 +59392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>91</v>
       </c>
@@ -59387,7 +59457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>92</v>
       </c>
@@ -59452,7 +59522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>93</v>
       </c>
@@ -59517,7 +59587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>94</v>
       </c>
@@ -59582,7 +59652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>95</v>
       </c>
@@ -59647,7 +59717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>96</v>
       </c>
@@ -59712,7 +59782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>97</v>
       </c>
@@ -59777,7 +59847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>98</v>
       </c>
@@ -59842,7 +59912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>99</v>
       </c>
@@ -59907,7 +59977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>100</v>
       </c>
@@ -59972,7 +60042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>101</v>
       </c>
@@ -60037,7 +60107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>102</v>
       </c>
@@ -60102,7 +60172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>103</v>
       </c>
@@ -60167,7 +60237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>104</v>
       </c>
@@ -60232,7 +60302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>105</v>
       </c>
@@ -60297,7 +60367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>106</v>
       </c>
@@ -60362,7 +60432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>107</v>
       </c>
@@ -60427,7 +60497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>108</v>
       </c>
@@ -60492,7 +60562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>109</v>
       </c>
@@ -60557,7 +60627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>110</v>
       </c>
@@ -60622,7 +60692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>111</v>
       </c>
@@ -60687,7 +60757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>112</v>
       </c>
@@ -60752,7 +60822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>113</v>
       </c>
@@ -60817,7 +60887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>114</v>
       </c>
@@ -60882,7 +60952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>115</v>
       </c>
@@ -60947,7 +61017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>116</v>
       </c>
@@ -61012,7 +61082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>117</v>
       </c>
@@ -61077,7 +61147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>118</v>
       </c>
@@ -61142,7 +61212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>119</v>
       </c>
@@ -61207,7 +61277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>120</v>
       </c>
@@ -61272,7 +61342,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>121</v>
       </c>
@@ -61337,7 +61407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>122</v>
       </c>
@@ -61402,7 +61472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>123</v>
       </c>
@@ -61467,7 +61537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>124</v>
       </c>
@@ -61532,7 +61602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>125</v>
       </c>
@@ -61597,7 +61667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>126</v>
       </c>
@@ -61662,7 +61732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>127</v>
       </c>
@@ -61727,7 +61797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>128</v>
       </c>
@@ -61792,7 +61862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>129</v>
       </c>
@@ -61857,7 +61927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>130</v>
       </c>
@@ -61922,7 +61992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>131</v>
       </c>
@@ -61987,7 +62057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>132</v>
       </c>
@@ -62052,7 +62122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>133</v>
       </c>
@@ -62132,9 +62202,9 @@
       <selection activeCell="M13" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -62199,7 +62269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -62264,7 +62334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -62329,7 +62399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -62394,7 +62464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -62459,7 +62529,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -62524,7 +62594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -62589,7 +62659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -62654,7 +62724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -62719,7 +62789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -62784,7 +62854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -62849,7 +62919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -62914,7 +62984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -62979,7 +63049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -63044,7 +63114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -63109,7 +63179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -63174,7 +63244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -63239,7 +63309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -63304,7 +63374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -63369,7 +63439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -63434,7 +63504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -63499,7 +63569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -63564,7 +63634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -63629,7 +63699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -63694,7 +63764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -63759,7 +63829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -63824,7 +63894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -63889,7 +63959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -63954,7 +64024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -64019,7 +64089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -64084,7 +64154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -64149,7 +64219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -64214,7 +64284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -64279,7 +64349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -64344,7 +64414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -64409,7 +64479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -64474,7 +64544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -64539,7 +64609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -64618,9 +64688,9 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -64685,7 +64755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -64750,7 +64820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -64815,7 +64885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -64880,7 +64950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -64945,7 +65015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -65010,7 +65080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -65075,7 +65145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -65140,7 +65210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -65205,7 +65275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -65270,7 +65340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -65335,7 +65405,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -65400,7 +65470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -65465,7 +65535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -65530,7 +65600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -65595,7 +65665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -65660,7 +65730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -65725,7 +65795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -65790,7 +65860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -65855,7 +65925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -65920,7 +65990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -65985,7 +66055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -66050,7 +66120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -66115,7 +66185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -66180,7 +66250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -66245,7 +66315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -66310,7 +66380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -66375,7 +66445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -66440,7 +66510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -66505,7 +66575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -66570,7 +66640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -66635,7 +66705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -66700,7 +66770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -66765,7 +66835,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -66830,7 +66900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -66895,7 +66965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -66960,7 +67030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -67025,7 +67095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -67090,7 +67160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -67155,7 +67225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -67220,7 +67290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -67285,7 +67355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -67350,7 +67420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -67415,7 +67485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -67480,7 +67550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -67545,7 +67615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -67610,7 +67680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -67675,7 +67745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -67740,7 +67810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -67805,7 +67875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -67870,7 +67940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -67935,7 +68005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -68000,7 +68070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -68065,7 +68135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -68130,7 +68200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -68195,7 +68265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -68260,7 +68330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>54</v>
       </c>
@@ -68325,7 +68395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>55</v>
       </c>
@@ -68390,7 +68460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>56</v>
       </c>
@@ -68455,7 +68525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>57</v>
       </c>
@@ -68520,7 +68590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>58</v>
       </c>
@@ -68585,7 +68655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>59</v>
       </c>
@@ -68650,7 +68720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>60</v>
       </c>
@@ -68715,7 +68785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>61</v>
       </c>
@@ -68780,7 +68850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>62</v>
       </c>
@@ -68845,7 +68915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>63</v>
       </c>
@@ -68910,7 +68980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>64</v>
       </c>
@@ -68975,7 +69045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>65</v>
       </c>
@@ -69040,7 +69110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>66</v>
       </c>
@@ -69105,7 +69175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>67</v>
       </c>
@@ -69170,7 +69240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>68</v>
       </c>
@@ -69235,7 +69305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>69</v>
       </c>
@@ -69300,7 +69370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>70</v>
       </c>
@@ -69365,7 +69435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>71</v>
       </c>
@@ -69430,7 +69500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>72</v>
       </c>
@@ -69495,7 +69565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>73</v>
       </c>
@@ -69560,7 +69630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>74</v>
       </c>
@@ -69625,7 +69695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>75</v>
       </c>
@@ -69690,7 +69760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>76</v>
       </c>
@@ -69755,7 +69825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>77</v>
       </c>
@@ -69820,7 +69890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>78</v>
       </c>
@@ -69885,7 +69955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>79</v>
       </c>
@@ -69950,7 +70020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>80</v>
       </c>
@@ -70015,7 +70085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>81</v>
       </c>
@@ -70080,7 +70150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>82</v>
       </c>
@@ -70145,7 +70215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>83</v>
       </c>
@@ -70210,7 +70280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>84</v>
       </c>
@@ -70275,7 +70345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>85</v>
       </c>
@@ -70340,7 +70410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>86</v>
       </c>
@@ -70405,7 +70475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>87</v>
       </c>
@@ -70470,7 +70540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>88</v>
       </c>
@@ -70535,7 +70605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>89</v>
       </c>
@@ -70600,7 +70670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>90</v>
       </c>
@@ -70665,7 +70735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>91</v>
       </c>
@@ -70730,7 +70800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>92</v>
       </c>
@@ -70795,7 +70865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>93</v>
       </c>
@@ -70860,7 +70930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>94</v>
       </c>
@@ -70925,7 +70995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>95</v>
       </c>
@@ -70990,7 +71060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>96</v>
       </c>
@@ -71055,7 +71125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>97</v>
       </c>
@@ -71120,7 +71190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>98</v>
       </c>
@@ -71185,7 +71255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>99</v>
       </c>
@@ -71250,7 +71320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>100</v>
       </c>
@@ -71315,7 +71385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>101</v>
       </c>
@@ -71380,7 +71450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>102</v>
       </c>
@@ -71445,7 +71515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>103</v>
       </c>
@@ -71510,7 +71580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>104</v>
       </c>
@@ -71575,7 +71645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>105</v>
       </c>
@@ -71640,7 +71710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>106</v>
       </c>
@@ -71705,7 +71775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>107</v>
       </c>
@@ -71770,7 +71840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>108</v>
       </c>
@@ -71835,7 +71905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>109</v>
       </c>
@@ -71900,7 +71970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>110</v>
       </c>
@@ -71965,7 +72035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>111</v>
       </c>
@@ -72030,7 +72100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>112</v>
       </c>
@@ -72095,7 +72165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>113</v>
       </c>
@@ -72160,7 +72230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>114</v>
       </c>
@@ -72225,7 +72295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>115</v>
       </c>
@@ -72290,7 +72360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>116</v>
       </c>
@@ -72355,7 +72425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>117</v>
       </c>
@@ -72420,7 +72490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>118</v>
       </c>
@@ -72485,7 +72555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>119</v>
       </c>
@@ -72550,7 +72620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>120</v>
       </c>
@@ -72615,7 +72685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>121</v>
       </c>
@@ -72680,7 +72750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>122</v>
       </c>
@@ -72745,7 +72815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>123</v>
       </c>
@@ -72810,7 +72880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>124</v>
       </c>
@@ -72875,7 +72945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>125</v>
       </c>
@@ -72940,7 +73010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>126</v>
       </c>
@@ -73005,7 +73075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>127</v>
       </c>
@@ -73070,7 +73140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>128</v>
       </c>
@@ -73135,7 +73205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>129</v>
       </c>
@@ -73200,7 +73270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>130</v>
       </c>
@@ -73265,7 +73335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>131</v>
       </c>
@@ -73330,7 +73400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>132</v>
       </c>
@@ -73395,7 +73465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>133</v>
       </c>
@@ -73460,7 +73530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>134</v>
       </c>
@@ -73525,7 +73595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>135</v>
       </c>
@@ -73590,7 +73660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>136</v>
       </c>
@@ -73655,7 +73725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>137</v>
       </c>
@@ -73720,7 +73790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>138</v>
       </c>
@@ -73785,7 +73855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>139</v>
       </c>
@@ -73850,7 +73920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>140</v>
       </c>
@@ -73915,7 +73985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>141</v>
       </c>
@@ -73980,7 +74050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>142</v>
       </c>
@@ -74059,9 +74129,9 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -74126,7 +74196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -74191,7 +74261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -74256,7 +74326,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -74321,7 +74391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -74386,7 +74456,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -74451,7 +74521,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -74516,7 +74586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -74581,7 +74651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -74646,7 +74716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
@@ -74711,7 +74781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
@@ -74776,7 +74846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
@@ -74841,7 +74911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
@@ -74906,7 +74976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
@@ -74971,7 +75041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -75036,7 +75106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
@@ -75101,7 +75171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
@@ -75166,7 +75236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
@@ -75231,7 +75301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>16</v>
       </c>
@@ -75296,7 +75366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>17</v>
       </c>
@@ -75361,7 +75431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -75426,7 +75496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>19</v>
       </c>
@@ -75491,7 +75561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>20</v>
       </c>
@@ -75556,7 +75626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>21</v>
       </c>
@@ -75621,7 +75691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>22</v>
       </c>
@@ -75686,7 +75756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
@@ -75751,7 +75821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
@@ -75816,7 +75886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>25</v>
       </c>
@@ -75881,7 +75951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>26</v>
       </c>
@@ -75946,7 +76016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>27</v>
       </c>
@@ -76011,7 +76081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>28</v>
       </c>
@@ -76076,7 +76146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>29</v>
       </c>
@@ -76141,7 +76211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>30</v>
       </c>
@@ -76206,7 +76276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>31</v>
       </c>
@@ -76271,7 +76341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>32</v>
       </c>
@@ -76336,7 +76406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>33</v>
       </c>
@@ -76401,7 +76471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>34</v>
       </c>
@@ -76466,7 +76536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>35</v>
       </c>
@@ -76531,7 +76601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>36</v>
       </c>
@@ -76596,7 +76666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>37</v>
       </c>
@@ -76661,7 +76731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>38</v>
       </c>
@@ -76726,7 +76796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>39</v>
       </c>
@@ -76791,7 +76861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>40</v>
       </c>
@@ -76856,7 +76926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>41</v>
       </c>
@@ -76921,7 +76991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>42</v>
       </c>
@@ -76986,7 +77056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>43</v>
       </c>
@@ -77051,7 +77121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>44</v>
       </c>
@@ -77116,7 +77186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>45</v>
       </c>
@@ -77181,7 +77251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>46</v>
       </c>
@@ -77246,7 +77316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>47</v>
       </c>
@@ -77311,7 +77381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>48</v>
       </c>
@@ -77376,7 +77446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>49</v>
       </c>
@@ -77441,7 +77511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>50</v>
       </c>
@@ -77506,7 +77576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>51</v>
       </c>
@@ -77571,7 +77641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>52</v>
       </c>
@@ -77636,7 +77706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>53</v>
       </c>
@@ -77701,7 +77771,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>54</v>
       </c>
